--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C452"/>
+  <dimension ref="A1:C456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>【 Perfect for Play Yard 】 This large dog kennel provides ample exercise space while the chain link mesh all around helps prevent mischief and unexpected accidents while enabling ventilation .</t>
+          <t>Caters to Pets and Their Humans : The furniture - style crate will provide a discrete safe area for your furry friend . While the smooth wide top provides space for potted plants , lamps , picture frames and other home d é cors to make your home stand out !</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -470,68 +470,68 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Multiple Uses - - Perfect for hanging string lighting , wind chimes , bird feeders , drop - down shades , swimming pool equipment , outdoor lights , vinyl fences , hanging plants , plastic lattices and a variety of decorations .</t>
+          <t>Double layer HeatGear fabric on back of hand for added stretch &amp; support</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('22', '28', 'MAT')]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['fabric']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>❣ ️ Easy to Install : This package includes 2pcs 12 inch black metal wall hooks for hanging , 6pcs screws and 6pcs wall anchors , Just screw them into wooden fence posts , deck columns , outdoor or indoor walls easily .</t>
+          <t>Measures 15 3 / 4 - in L x 4 1 / 2 - in H x 3 - in W</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[('57', '62', 'COLOR'), ('63', '68', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['black', 'metal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A second flower shape rests directly under the top of the curve , and a few thin sections of metal frame it to evoke tendrils</t>
+          <t>The coffee table features a glass top supported by a sleek , metal frame in a brushed nickel finish . The bottom shelf is made from solid wood in a dark walnut finish and provides additional storage space .</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[('93', '98', 'MAT')]</t>
+          <t>[('28', '33', 'MAT'), ('61', '66', 'MAT'), ('86', '92', 'COLOR'), ('138', '142', 'MAT'), ('148', '159', 'COLOR')]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['metal']</t>
+          <t>['glass', 'metal', 'nickel', 'wood', 'dark walnut']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Color : Black fabric + Gray steel cover ， Material : Fabric with PU coating + powder coated steel cover ， Size : 66 , 9 " x 0 - 118 , 1 " ( H x W ) ， Fabric : 100 % Polyester ， Anti - UV and water resistant .</t>
+          <t>PREMIUM QUALITY - - We use good quality metal materials , and the bird feeder pole can be adjusted , deck hook bird also not easy to rust , can hang a lot of weight , its hook can be better hanging items , is a good hummingbird feeders hangers .</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[('8', '13', 'COLOR'), ('14', '20', 'MAT'), ('23', '27', 'COLOR'), ('28', '33', 'MAT'), ('53', '59', 'MAT'), ('65', '67', 'MAT'), ('78', '84', 'MAT'), ('92', '97', 'MAT'), ('165', '174', 'MAT'), ('150', '156', 'MAT')]</t>
+          <t>[('40', '45', 'MAT')]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['Black', 'fabric', 'Gray', 'steel', 'Fabric', 'PU', 'powder', 'steel', 'Polyester', 'Fabric']</t>
+          <t>['metal']</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The flexible border pieces give you the ability to create any shape youd like .</t>
+          <t>Customize Combination - 21 drawer trays with 4 various sizes allow for a good variety of layout . Items are organized according to size and use . 6pcs - ( 2 . 9 " x 2 . 9 " x 2 . 1 " ) , 6pcs - ( 5 . 8 " x 2 . 9 " x 2 . 1 " ) , 3pcs - ( 8 . 9 " x 6 . 0 " x 2 . 1 " ) , 6pcs - ( 9 . 7 " x 3 . 1 " x 2 . 2 " ) .</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -572,24 +572,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Decorate Your Warm Home - This attractive and unique design hanging planter shows your potted plants , while save more space . It will bring more color and meaning to your white window and wall . Capturing the good moments of life .</t>
+          <t>[ HIGH LOAD CAPACITY ] - - The plant wall bracket are made of high - quality iron , high - strength welding process to provide high load capacity ( 60lb ) .</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[('172', '177', 'COLOR')]</t>
+          <t>[('77', '81', 'MAT')]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['white']</t>
+          <t>['iron']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>33 lb . holding capacity can be used for bird feeders or planters</t>
+          <t>🌿 Quite Easy to Install : These plant hangers outdoor are quite easy to mount on and can be used in any room of your home . Our hanging plant hooks are equipped with screws that can be used wherever the surface is smooth and has no peeling properties , you will found it easy to install and it held the plant very well .</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -606,7 +606,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Adjustable Height : Use the screws on frame to adjust 3 level of height up to 9 “ , convenient and safe for each user to customize height for their individual needs .</t>
+          <t>Customer Service , We ’ ve got you covered anytime on any issues regarding product quality or during use . Please feel free to contact me . Ensure quick and easy handling .</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -623,143 +623,143 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Easy to Install : There are two ways to hang this wooden shelf , and it can be easily installed on a wall , window , terrace or ceiling using suitable mounting nails or hooks ( included ) .</t>
+          <t>Assembly Required : Install by screwing the pointed feet into the fence . And use the combination of interlocking and cable ties ( included ) to connect . With the connectors , you can connect the edges to make the shapes you want . Follow the instructions ( included ) step by step , saves time !</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[('50', '56', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['wooden']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Multipurpose : These round metal flower pot holders are ideal for air plants , succulents and more other micro landscape or decoration , which can add a romantic country atmosphere</t>
+          <t>Relieve fatigue : Psoas major muscle release therapy can effectively relieve cervical strain , neck discomfort , improve sleep status , and make your physical condition better and better .</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[('27', '32', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['metal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Low maintenance required : Due to the interlocking deck tiles ’ good quality and durability , you just could oil the wood deck tiles twice a year and make it dry before snowfall , then the deck tiles will have a long service life .</t>
+          <t>PERFECT FOR OUTDOOR ENTERTAINING : Outdoor patio dining chairs are lightweight and have a 17 " seat height , making them the perfect size to fit with average size outdoor dining tables</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[('117', '121', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['wood']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>The bracket has high quality good texture and the bird shape is realistic .</t>
+          <t>【 Multifunction 】 Half moon cast iron reversible griddle offer smooth and ribbed surfaces . The ribbed side is used for searing and is better for scorching marks on meats like steaks , hamburgers , chicken breasts , etc . The smooth side heats more evenly and can be used to cook pancakes , bacon , pancakes , and eggs .</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('28', '37', 'MAT')]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['cast iron']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dimensions : length 10 . 87 " , width 6 . 25 " , height 4 . 9 " . weight 1 lb / 16 oz . pso - back is made in the USA . patented u . s . pat . no . d908 , 236 . consult with your doctor before using this product .</t>
+          <t>The pergola canopy cover is made of durable fabric , fade resistant within 800 hours , water repellent , fire - retardant , very easy to clean and maintain . Powder - coated steel frame guarantees great stability , holes in the footer for ground nailing option , which can help you get extra strength against strong wind .</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('44', '50', 'MAT'), ('158', '164', 'MAT'), ('174', '179', 'MAT')]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['fabric', 'Powder', 'steel']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ERGONOMIC , VERSATILE SELF - MASSAGER : Our hip hook release tool of 12 9 / 16 x 3 15 / 16 x 1 12 / 16 inch provides a wide range of massage choices with eleven holes and six massage balls in three different sizes ; Different positions of massage balls can bring amazing effects to different parts of your body , naturally boosting your energy</t>
+          <t>A thick bolster filled with shredded memory foam creates a sense of security for your pet and provides a place for them to lay their head</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('37', '48', 'MAT')]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['memory foam']</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Extra Thick Yoga Mat : 1mm in thickness offers the most comfortable experience for all level yogis . Double layer structure design provides optimal grip , Absorbed sweat more , the anti - slip function is more stronger . Suitable to practice many forms of Yoga .</t>
+          <t>HIGH PERFORMANCE : The high - performance patented diamond substructure is built to withstand the harsh elements of a residential garage environment . Made from high impact copolymer , it can support rolling loads of over 80 , 000 pounds while allowing air and moisture to escape .</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('173', '182', 'MAT')]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['copolymer']</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HYGIENIC , ERGONOMIC SEAT CUSHION - Includes a breathable , removable , machine washable cover with carrying handle , and unlike an egg crate foam seat cushion , the water proof gel pad can be hand washed to keep everything clean .</t>
+          <t>Multiuse Hooks : Our rustic iron plant hooks are great for hanging plant brackets , lanterns , wind chimes , bird houses , candle holders , coat , holiday decorations or anything else you need to hang up . Adding elegance and beauty to your home or garden .</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('28', '32', 'MAT')]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['iron']</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Wide Application : This stand is suitable for outside occasions , and also garages , front yards , backyards , bike events , store fronts , or for any workplace .</t>
+          <t>3 WAYS TO PLACE - The full length mirror can lean against the wall or free stand anywhere with the integrated stand , or you can hang it on the wall vertically / horizontally for space - saving with the included hanging hardware .</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -776,75 +776,75 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Size : The size of this yoga mat is 70 . 8X26 inch and the thickness is 1 mm . It can be easily folded and can be put in your travel bag or suitcase , which is very light and convenient . Especially when traveling , you can take it with you at any time .</t>
+          <t>【 Easy Installation 】 The packaging is equipped with instructions and an accessories bag , and all parts included in your package are pre - numbered and pre - drilled , With a step - by - step manual , the iron dog crate is easy to install individually . Manual installation is recommended . Note : To ensure that you assemble the product correctly , you can scan the QR code on the manual to get the latest installation video ( with text instructions ) .</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('206', '210', 'MAT')]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['iron']</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gives privacy and order to your garden area</t>
+          <t>Easy to Assemble and Clean : Interlocking clips allow for tiles to quickly click into place creating each wood plank is securely attached to the plastic base by tapping screws , which better makes the board and base connected tightly to avoid cracking , and extend the service life . If you think this outdoor floor and the size of your home yard do not match , making the product can be cut to fit the corner positions .</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('106', '110', 'MAT'), ('145', '152', 'MAT')]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['wood', 'plastic']</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MATERIAL : stainless steel , .</t>
+          <t>PRODUCT DIMENSION - Swivel high back patio chairs 26 . 8 " × 25 . 4 " × 45 . 1 " . Seat height : 23 . 4 " . Seat width : 19 . 7 " . Seat depth : 20 . 1 " . Instructions can be downloaded from the page under the " Product information " .</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[('11', '26', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['stainless steel']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CAST IRON COOKING GRATES : Napoleon ’ s iconic cast iron cooking grids provide even heat , prevent food from falling through , and create beautifully distinctive sear marks</t>
+          <t>METAL AIR PLANT HANER Hanging Air Plant Holder Metal Airplant Rack Air Plant Hanging Hook Tillandsia Hangers for Home Garden Patio Balcony</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[('0', '9', 'MAT'), ('47', '56', 'MAT')]</t>
+          <t>[('0', '5', 'MAT'), ('47', '52', 'MAT')]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['CAST IRON', 'cast iron']</t>
+          <t>['METAL', 'Metal']</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[ Indoor And Outdoor Deck Flooring ] : Deck tiles create a beautiful space both inside and outside , The interlocking tiles can be installed on top of concrete , wood , carpet , pavers , or any other solid surface . Great for decks , patios , balconies , around pools , saunas , showers , sun rooms , mud rooms , bedrooms , and more .</t>
+          <t>Designed for installation into wood</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -861,75 +861,75 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>{ Excellent In Quality } The wind spinners outdoor metal large rotates 360 degrees , can withstand bad weather , rust - proof and water resistant as well , the surface of the garden wind spinner is coated with durable paint . Just enjoy your garden ornament .</t>
+          <t>COOK EVENLY WITH STAINLESS STEEL BASTING COVER - Quickly melt cheese and steam veggies with this 12 . 3in basting dome . The heat resistant handle for making sure your hands don ' t get burned when moving your basting cover on and off the griddle . The round basting cover will make the perfect addition to the griddle tools collection and is a great gift for any griddle enthusiast .</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[('51', '56', 'MAT')]</t>
+          <t>[('17', '32', 'MAT')]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['metal']</t>
+          <t>['STAINLESS STEEL']</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2 sets tree straps &amp; hook holders - Include 2 high quality hammock straps ( 110in combined ) , 2 hook holders . this hammock making set up a breeze . so you can adjust your hammock to the perfect height and comfort level . You can attach them to anything sturdy , you can enjoy every day at home like you ’ re on vacation .</t>
+          <t>[ STRICTLY SELECTED MATERIALS ] The tabletop and buttom of elevated Rattan cat condo are made of sturdy wood grain density boards , the wicker is made of non - toxic and environmentally friendly PE material , and the cushion is sewn with water washable polyester , making your cat ' s house more comfortable and easy to clean .</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('68', '74', 'MAT'), ('195', '197', 'MAT'), ('104', '108', 'MAT'), ('253', '262', 'MAT')]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Rattan', 'PE', 'wood', 'polyester']</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>This aged metal hanging candle adds a romantic and cozy atmosphere to any patio or garden setting</t>
+          <t>DEEP TISSUE MASSAGE TOOL ALWAYS WITH YOU : Massage the muscles to stay 5 - 60s in any position through your body weight . It brings more blood flow and therefore oxygen to that area . Use it in your gym sessions , sports trainings , long drive , in the office or comfortably at home .</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[('10', '15', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['metal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1OO % SATISFACTION GUARANTEE - Each 6mm craft rope delivers premium quality and amazing workmanship . Whatever your experience may be , SINYLOO has everything you need to begin your macrame journey !</t>
+          <t>DIY Item Decoration : Iron flower pot holder ring are ideal for displaying flowers or plants in vertical garden spaces . It can also be added to the indoor or outdoors , making it easy to decorate using a pot carrier . It is one of the great storage solutions for terraces , balconies , porches , courtyards and windows and much more .</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('22', '26', 'MAT')]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Iron']</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>You can sit under this pergola sun shelter and enjoy your leisure time , breathe the fresh air and enjoy the beautiful sun shine . It is also a wonderful decoration to your garden to entertain your friends or guests .</t>
+          <t>☀ ️ 【 Large Size 】 - The size of the chair is W23 . 2 " * L21 " * H40 " , the sitting height is 17 " , and they also have a 40 " high back and a 29 " sitting depth . Compared with most chairs on the market , we have increased the back , widened the arm spacing , and lengthened the depth of the seat . You have a stronger sense of space when sitting , and more space for activities .</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -946,7 +946,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>📐 「 Dimension 」 The plant hook is 6 . 1 inches in height and 16 . 1 inches from the wall , screw length is 1 . 4 inches . The maximum load of the plant hanger is around 50 lbs .</t>
+          <t>Each bracket measures 10 - in L x 10 - in H</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PREMIUM QUALITY : These stands are made from high - quality premium material . To make things swankier , we have designed it on the master of luster . Strong and sturdy , this elegantly shimmering piece comprises shiny material crafted with the utmost perfection .</t>
+          <t>☀ ☀ 100 % GUARANTEE : Every product is inspected , tested for durability and functionality before shipping . If you have any questions , please feel free to drop us a message . We will reply you within 24 hours to provide you with excellent customer service .</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -980,24 +980,24 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>【 Customizable &amp; Wide Usage 】 Use a saw or other cutting tool to cut the composite deck tiles to the size you want . Fitting for indoor &amp; outdoor use , such as putting this wooden interlocking deck tiles for patio deck , balconies , entrance door , around pools , saunas , outdoor showers , sun rooms , mud rooms , bedrooms , lawn , backyard , playground , playhouse , plant area , gazebo , outdoor kitchen or over dirty area and so on .</t>
+          <t>Best Value Deal - Outdoor hanging basket hooks works for hanging string lights , plants , flower pots , Christmas decorative lanterns , fairy lights , festival decoration lights , curtains , bird feeders and cages , ropes , chains , and more .</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[('173', '179', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['wooden']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Machine Wash</t>
+          <t>【 Mesh Plate 】 The grid partition of the grill table for outside is not easy to accumulate dust and water , which is very convenient to clean .</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1014,143 +1014,143 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>【 STABLE AND STURDY 】 Crafted from solid wood ( with waterproof paint ) , our garden arbor has a sturdy frame and is durable , easy to maintain and weather resistant .</t>
+          <t>【 Plush Sleeping Pad 】 Removable roof and warm inner pad , convenient for installation and cleaning .</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[('41', '45', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['wood']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Soft Jump Rope - Our jump rope is made of high quality polyester and covered with silicon protective case to ensure maximum service life . The rope is 9 . 84 feet long and 0 . 31 inches ( 8mm ) in diameter , 0 . 5 lbs weight .</t>
+          <t>Wooden Material : The retractable wood fence is made of wood , strong and durable , the size can be adjusted at will . Can decorate your courtyard well !</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[('55', '64', 'MAT'), ('82', '89', 'MAT')]</t>
+          <t>[('0', '6', 'MAT'), ('56', '60', 'MAT'), ('34', '38', 'MAT')]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['polyester', 'silicon']</t>
+          <t>['Wooden', 'wood', 'wood']</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LARGE SIZE : Coiled roll measures 60 - feet in length and includes two 4 - inch ( stakes not included )</t>
+          <t>Easy DIY Installation : Place the edging around raised flower beds , trees and gardens and use a rubber mallet to push the spikes into the tab , score the ground around the flower bed , then gently push or drive the edging into the ground , for a secure , durable boundary</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('97', '103', 'MAT')]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rubber']</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Room Decoration : Add a pop of solid color in between embroidered curtains for your living room , or use them alone for a touch of elegant simplicity . You ' ll love the way these lightweight , billowy panels look blowing in a gentle breeze . Crushed sheer voile window treatments look great in any living room , bedroom , yard , patio , villa , parlor , offering a lightweight , airy feeling that softens the ambience of a room .</t>
+          <t>Available in gold color</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('13', '17', 'COLOR')]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['gold']</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CLEANING : Large charcoal basket provides a more efficient burn , easier tending and a convenient firebox door makes clean - up quick and easy .</t>
+          <t>Soft and comfortable , not easy to deform , waterproof and skin - friendly , take care of your pets</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[('17', '25', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['charcoal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>✔ The scope of work - The normal hanging working weight of the wall - mounted hook is 15 pounds ( reliable fixing method ) , and the load of the product itself is limited by the reliability of the fixed plane . If welded on a metal plane or fastened to reliable wood , the load can exceed 15 pounds . However , if it is installed on a soft indoor wall and wood , it is recommended not to exceed 15 pounds to prevent it from being pulled off .</t>
+          <t>Rust story : A bird ' s body fluids or faeces are slightly corrosive , but sufficient to cause cast iron to change color or rust a little . If such a sign is found , it indicates what at least one real bird friend has visited and left behind , and of course it may have done so more than once . By the way , cast iron may really rust , but it takes a long long time .</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('95', '104', 'MAT'), ('308', '317', 'MAT')]</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['cast iron', 'cast iron']</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>【 Premium Quality 】 Made of solid top - grade heavy - duty cast iron and with the fine workmanship , the wall mounted hooks feature a stylish look and strong anti - rust performance . Matte Black powder coated finish resists corrosion and weathering better than most conventional paint finishes , lasting many seasons .</t>
+          <t>Fox Farm</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[('59', '68', 'MAT'), ('184', '195', 'COLOR'), ('196', '202', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['cast iron', 'Matte Black', 'powder']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Folds for easy storage . Comes in a pack of 2 .</t>
+          <t>Weather Resistant - Rubber Walkway Pavers Are Water Permeable And Non Slip Ideal For All Weather Protection And Underfoot Comfort</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('20', '26', 'MAT')]</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Rubber']</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Easy to assemble with a simple design and minimal parts</t>
+          <t>LIFETIME GUARANTEE – We passionately believe in the quality of our products and in our customer ’ s satisfaction . With that in mind , this product is 100 % guaranteed . If it breaks , we replace it . We just hope you enjoy yours as much as we do !</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1167,24 +1167,24 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A MUST HAVE - Looking for a great gift idea for that special someone ? This Blackstone griddle / grill tool kit is the perfect addition to any backyard kitchen and will compliment your Blackstone griddle as well as your Weber , Charbroil , Coleman or any other barbeque or grill you and your loved ones enjoy</t>
+          <t>【 Multifunctional splicing plastic wood tile 】 Perfect solution to cover up your patio or balcony . The decking tiles are weatherproof , very robust and extremely easy to care for . They are not only suitable for outdoor use , but can also be used indoors .</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('27', '39', 'MAT')]</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['plastic wood']</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Hand Wash Only</t>
+          <t>Easy Installation – The Artificial Fence Panel has easy installation ; the snap hook backings can fit many different areas and are flexible . They make mounting easier by provided a way to install on an area with Zip Ties or Nails , also , can be cut to get the size and shape you want , can be used as wall decoration , fence , privacy screen .</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1201,24 +1201,24 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Metal Wall Bracket can hanging everything you want hanging on the wall . By hanging planters , flower pots , bird feeders , lanterns , holiday decorations , string lights , wind chimes , ornaments , candle holders , path lights to beautify your home or garden . Or you put it indoors and hang a coat is also a very creative idea , it suits any scene .</t>
+          <t>After Sales Service : We believe in our products so much , If Your pet sleeping Experience with this Fluffy Bed isn ' t Dissatisfaction , We will refund .</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[('0', '5', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['Metal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>STABLE &amp; DURABLE BASE : The base is durable , it can be filled with sand and water ( Gaza and water can weigh up to 551lb ） , adding weight , not easy to fall when used , and it is safe and stable . With extra - Strong 12 Suction Cups to prevent scratching of floors , to help fix it in one place , without shaking , suitable for any smooth surface . You can set up your punching bag on the tiles , floor tiles , wooden boards , concrete floors or anywhere you desire .</t>
+          <t>Product 1 : SMALL DRESSER SET : When you don ’ t have a ton of space , storing your things can be difficult , but this modern dresser makes it easy ! Store your favorite outfits , books , games , and more inside the easy - sliding drawers .</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1235,143 +1235,143 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>🐶 【 Super Soft and Pet - Safe Material 】 : This round calming dog bed is made of durable nylon and luxurious faux fur , which has a fluffy touch and is 100 % safe for your pets . The interior is filled with high - density PP cotton , soft , elastic and not easy to deform , giving a warm hug to your lovely pets .</t>
+          <t>Actual inner size ： 3 . 6 × 3 . 6inch （ 91 . 6mm ） , This size applies to nominal standard 4 " x 4 " wooden post . never rust</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[('89', '94', 'MAT'), ('109', '117', 'MAT'), ('222', '231', 'MAT')]</t>
+          <t>[('101', '107', 'MAT')]</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['nylon', 'faux fur', 'PP cotton']</t>
+          <t>['wooden']</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DOUBLE LAYERED SIDEWALL - Hardtop gazebo features fully enclosed double - sided zipper , double trail system and double layer sidewall . Polyester cloth and mesh grant good ventilation and an open view ; protects against rain while adding more privacy</t>
+          <t>Material : 304 Stainless Steel ; Chain Length : 800mm / 31 . 5 " ; Clip Size : 25x9mm / 0 . 98 " x0 . 35 " ; Clip Open Width : 5mm / 0 . 2 " ; S Hook Size : 25x16mm / 0 . 98 " x0 . 63 " ; S Hook Open Width : 8mm / 0 . 32 "</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[('137', '152', 'MAT')]</t>
+          <t>[('15', '30', 'MAT')]</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['Polyester cloth']</t>
+          <t>['Stainless Steel']</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Cozy House - The dimension of this indoor tent gives your pet a touch of privacy and creates a nice sense of security . Aavailable in 3 Sizes .</t>
+          <t>🌿 Stylish and Modern : Wave - Shaped wooden wall hooks are a stylish way to keep your home organized . These plant hangers are made from natural wood and retain the natural texture of the wood to reveal its unique beauty . These outdoor and indoor hooks for hanging plants occupy a small space area , so that the narrow space has a greater degree of accommodation , at the same time , but also can make full use of the wall space , avoid space waste .</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('37', '43', 'MAT'), ('137', '149', 'MAT'), ('188', '192', 'MAT')]</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['wooden', 'natural wood', 'wood']</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>How to use it ? It ’ s very simple , only follow this steps and you ’ re going to experience an amazing BBQ . 1 ) Cover the base with aluminum foil 2 ) Add water or beer with spices on the aluminum foil or if you want you can omit this step ( The water is going to catch the grass of the meat and work as a vaporizer ) 3 ) Fill the burner with charcoal and for light use fire starters below the burner 4 ) When the charcoal is on fire add the cylinder and hang the meat and close it</t>
+          <t>WATER PROOF MATERIAL - The outdoor flooring tiles are made of wood - plastic composite . This wood plastic is an all - weather alternative for your outdoor flooring . It ’ s not easy to crack , bend or warp . It is corrosion resistant , scratch resistant , waterproof , non - slip and more durable than natural wood tiles .</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[('344', '352', 'MAT'), ('415', '423', 'MAT')]</t>
+          <t>[('62', '76', 'MAT'), ('94', '106', 'MAT')]</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['charcoal', 'charcoal']</t>
+          <t>['wood - plastic', 'wood plastic']</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>★ Great Durability : This boxing target is made of anti - tear and anti - burst PU . This material is also very resistant to strikes . Even if you hit it with all your might , it will still be solid , allowing you to enjoy a full - on boxing experience .</t>
+          <t>★ If you encounter any problems during purchase or use , please contact us in time , we will reply you within 24 hours .</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[('80', '82', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['PU']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Natural Hardwood Decking – Crafted with genuine Acacia wood these interlocking tiles lock together to create a small ground deck , cover a worn patio , or even upgrade your balcony space for a handsome custom look .</t>
+          <t>Middle : 100 % organic cotton rather than traditional polyester .</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[('48', '59', 'MAT'), ('8', '16', 'MAT')]</t>
+          <t>[('23', '29', 'MAT')]</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['Acacia wood', 'Hardwood']</t>
+          <t>['cotton']</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Durable hand - woven resin is proven to last longer than traditional wicker</t>
+          <t>Stretches 11 . 5 " from the wall and is powder - coated to endure the outdoor elements</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[('21', '26', 'MAT')]</t>
+          <t>[('40', '46', 'MAT')]</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['resin']</t>
+          <t>['powder']</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>✅ DURABLE MATERIAL : Black planter hooks are made from high - quality iron that will not rust , fade , or erode , Featuring a classic powder coated steel finish sturdy and firm , can well support and protect plants , Powder coated steel is incredibly sturdy metal type to make sure deform and weather - resistant , reusable and long - lasting .</t>
+          <t>A CLASSIC WOOD TOY : Classic and fun , that both entertains and encourages gross motor skill development</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[('21', '26', 'COLOR'), ('70', '74', 'MAT'), ('134', '140', 'MAT'), ('148', '153', 'MAT'), ('217', '223', 'MAT'), ('231', '236', 'MAT'), ('258', '263', 'MAT')]</t>
+          <t>[('10', '14', 'MAT')]</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['Black', 'iron', 'powder', 'steel', 'Powder', 'steel', 'metal']</t>
+          <t>['WOOD']</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Protective Packaging : Americanflat developed exclusive proprietary packaging that helps ensure safe delivery of fragile items ; order with confidence , click and add to cart today !</t>
+          <t>EASY TO INSTALL : Tap directly into the wood with a hammer , screw into the wood with a wrench , the small hooks can secure to hang light , bird feeders and cages , ropes , chains , plants , led outdoor string lights , birdhousess , flower troughs , curtains , outdoor Christmas lights and more .</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1388,24 +1388,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Outdoor Post Lights : Made of high quality plastic , made tough and sealed tight , no need to worry about rust . Each solar lights includes 20 lumen with 4 pcs high brightness warm white SMD LED , much brighter than other solar lights . Measures : 4 x 4 x 5 . 9 inch per light . Package includes : 6 x Solar Post Lights .</t>
+          <t>Easy to Put Together : Each of this garden edging border can be connected easily without any tools . Each iron garden fence panel is 18 ’ ’ high x 17 ’ ’ wide , 35 - pack panels in total . You can make various shapes according to the shape and size of your garden bed , flower bed or landscape</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[('43', '50', 'MAT'), ('181', '186', 'COLOR')]</t>
+          <t>[('106', '110', 'MAT')]</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['plastic', 'white']</t>
+          <t>['iron']</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Npk 9 - 4 - 9</t>
+          <t>【 Efficiency 】 Prevent secondary nutrient deficiencies in fast growing plants and prevent blossom end rot and tip burn in tomatoes , lettuce and other calcium intensive plants .</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1422,7 +1422,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>🐕 【 OUTDOOR HAPPY PLACE FOR DOGS 】 This versatile dog kennel makes a great outdoor play paradise for your dogs ! The large dog cage provides ample exercise space . Lively and active dogs will love this large interactive space and fully release their sports talents .</t>
+          <t>Great tool for your home ! Great gift for plant lover !</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1439,24 +1439,24 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DURABLE LAWN STATUE : Constructed from durable magnesia , the yard art is made tough for outdoor use and is weather - resistant for long - lasting , quality use on your porch , patio , or flowerbeds</t>
+          <t>Ideal for Exercise : Use this multifunctional boxing bar can maximize the exercise of the body and muscles . 360 degree flexible arm swing movement can train the reaction ability</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[('47', '55', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['magnesia']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>YOUR MASSAGE THERAPIST IN YOUR HANDS : You now have your in - house therapist to treat pain and dysfunction in the hip region whenever you choose , thanks to a design that mimics the shape of a therapist ' s hand and the firmness of an elbow . The Bleuboon psoas muscle release tool was created to deliver relief on a deep level for people of all ages , sizes , and shapes</t>
+          <t>Large Doors : A large entryway with French doors makes it easy for your fur baby to enter and exit . To improve safety , the latch is solid . It keeps curious or destructive pups off furnishings while you ' re gone and shields them from potentially hazardous situations when you can ' t watch over them .</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1473,41 +1473,41 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>【 Easy to Install &amp; Use 】 Our hanging plant hooks are equipped with screws suitable for most applications . Just drill two holes in the wall and insert the plug into the wall . Align the holes on the wooden bracket with the holes on the wall . Finally , insert the screws into the wall plug . If you have other needs , you can easily replace the longer screws yourself .</t>
+          <t>This eye - catching fence will add charm to your outdoor d é cor all year long .</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[('200', '206', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['wooden']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>❇ ️ CARE &amp; MAINTENANCE – To avoid color fading , wash the roundie separately with cold water and hang or lay flat to dry . Don ’ t tumble dry and do not bleach . The inks used are vegetable dyes and therefore cannot withstand harsh chemicals .</t>
+          <t>Flora series is the foundation of the " Building - Block " System Provides Nitrogen , Potassium , Calcium and trace elements</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[('166', '170', 'MAT')]</t>
+          <t>[('75', '83', 'MAT'), ('86', '95', 'MAT'), ('98', '105', 'MAT')]</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['inks']</t>
+          <t>['Nitrogen', 'Potassium', 'Calcium']</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Your massage therapist in your hands : designed to be the shape of a therapist ’ s hand and the hardness of an elbow , you now have your own in - house therapist to correct pain and dysfunction in the hip region any time you want . pressure and only pressure is what releases muscle tissue in the human body . the Pso - Rite psoas muscle release tool was designed to provide relief on the deepest level for any age , size , and shaped individual out there .</t>
+          <t>Simple Daily Cleaning And Protection - Vibratory cleaning , sweeping , or vacuuming is a very convenient and effective way to clean our doormats . If the doormat is wet or rainy , just put them in an airy place to dry .</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1524,75 +1524,75 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>💪 [ SAFE AND STURDY ] The pressure point massage tool using natural high - quality rubber wood , which is moisture - proof , durable , smooth and burr free , non - toxic to the human body , portable , light , ergonomic , easy to clean . The stable structure gives you the freedom to massage any part of your body .</t>
+          <t>Adding plants to your home ’ s indoor or outdoor , It will be easy to decor with pot brackets . Simply find a wall , fence post , or flat surface that is stable enough to hold the metal planter and install with the screw kits . Create an array of containers with this functional style that can fit in with vintage , antique , living or farmhouse , contemporary or modern decor .</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[('83', '94', 'MAT')]</t>
+          <t>[('180', '185', 'MAT')]</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['rubber wood']</t>
+          <t>['metal']</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2 × Plant Hanger Hooks , Installation Hardware Included</t>
+          <t>If such a sign is found , it indicates what at least one real bird friend has visited and left behind , and of course it may have done so more than once . the way , cast iron may really rust , but it takes a long long time .</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('165', '174', 'MAT')]</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['cast iron']</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>✨ 【 LIGHTWEIGHT &amp; DURABLE 】 Kids Punching Bag is Rugged PVC construction , leak - proof . The boxing bag can help you relax and relieve the soreness caused by long hours of work . Suitable for both indoor and outdoor play . ps : We not only thickened the material , but also required the factory to inflate and test each product to reduce the air leakage rate , so that you have a better product experience and make you enjoy yourself .</t>
+          <t>Weight : about 134g .</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[('56', '59', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>['PVC']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>: planter hook for outdoor flower pots are suitable for most fences and doors , adding elegance and beauty to your home or garden .</t>
+          <t>Black Finish</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('0', '5', 'COLOR')]</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Black']</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>💪 【 Suitable For Any Fitness Level 】 - The resistance band set is the perfect equipment for muscle training and fat burning . Not only practicing squats , push - ups , leg raises , planks , and strengthening triceps are very effective , but also help you to increase coordination , stamina , flexibility . The ankle straps can better strengthen the leg muscles . For women who want to stay in shape , it can also help train the hips , shape the perfect chest and abdominal muscles , and show a charming body curve .</t>
+          <t>You can buy multiple arches and place them side by side to form a garden pavilion , which is more conducive to plant climbing and can also enjoy the cool feeling of summer .</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1609,75 +1609,75 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Comfortable fabric , perfect for puppies , kittens and other pets</t>
+          <t>SIZE – 50lb . If buying unfilled please don ’ t overfill .</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[('12', '18', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>['fabric']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>【 A Better Wall Hook 】 at Earth helps the Environment by teaming up with PrintReleaf Programs that turn our paper consumption in to actual trees , we work with reclaimed beech wood reducing our companies carbon footprint while turning recyclables into art , transforming any room into a hanging gallery .</t>
+          <t>OUTDOOR DECORATIVE LIGHTS : These 4 pack garden flickering flame post lights can work normally under kinds of weather with the waterproof rating of IP44 , no worries about little rain , snow , frost , or sleet . They can be placed in the front , backyard , along driveway , walkway , sidewalk , around your patio or porch , adds a modern look for your outdoor lighting . In stormy weather , keep the solar lights indoors to avoid damaging the solar panels</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[('170', '180', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>['beech wood']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Textured , non - slip surface</t>
+          <t>【 Customizable &amp; Wide Usage 】 Use a saw or other cutting tool to cut the composite deck tiles to the size you want . Fitting for indoor &amp; outdoor use , such as putting this wooden interlocking deck tiles for patio deck , balconies , entrance door , around pools , saunas , outdoor showers , sun rooms , mud rooms , bedrooms , lawn , backyard , playground , playhouse , plant area , gazebo , outdoor kitchen or over dirty area and so on .</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('173', '179', 'MAT')]</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['wooden']</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Weather - resistant Design : The slanted asphalt roof can effectively divert rainwater to prevent water ponding . The seamless slat design provides protection against bad weather and the raised floor can prevent water flowing into the house , offering a warm and comfortable shelter for your pets .</t>
+          <t>[ Multi - purpose ] This 65 - inch high and 3 / 4 - diameter shepherd hook bracket will hang various plant baskets , bird feeders , bird cages , flower baskets , lanterns , wind chimes , ornaments , plant hangers , etc .</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[('41', '48', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>['asphalt']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>For Wood / Charcoal Grill - 25 . 7 " diameter round griddle provides an additional large cooking area for your wood burning rocket stove and charcoal smoker .</t>
+          <t>⛺ 【 Satisfaction Guarantee 】 All HOMIUSE products are made with durable top - of - line materials under strict quality control standards that create a lasting piece for your home . If you have any questions after receiving the product , you can tell us , our professional customer support team will help you to solve them within 24 hours . We guarantee customers can return products without reason within 30 days .</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1694,24 +1694,24 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>【 Professional Reflex Training 】 Boxing ball is the best way to train your punching skill , speed , agility , focus , accuracy . It is suitable for man or woman , teenager or child , even boxing trainer .</t>
+          <t>LIFETIME GUARANTEE - Made of heavy duty powder coated steel frame and heavy gauge wire mesh . Garage storage organizer directly sold by TOUTND is lifetime guaranteed .</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('40', '46', 'MAT'), ('54', '59', 'MAT')]</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['powder', 'steel']</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>【 For Health 】 The monitor shelf conforms to the ergonomic structure , which effectively reduces the pressure on the back and neck , so that you don ' t need to worry too much about health problems when you were working . At the same time , a headset hook is provided on the side , so that the headset is at your hand , and you don ' t need to worry about finding headphones for playing games . Our charging station includes 4 - Outlet &amp; 2 USB Ports to provide power for up to 6 devices simultaneously .</t>
+          <t>WHAT YOU GET : 3 x plant hanging pulley . ( Note : Load capacity from 1 . 2kg to 10kg . Please do not hang goods less than 1kg or heavy goods )</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1728,7 +1728,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Size : 31 . 5 - IN ( 80cm )</t>
+          <t>Suitable for most types of bikes , such as mountain bikes , road bikes , etc . Allows your interior to save space and keep it neat and tidy .</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1745,41 +1745,41 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>☘ ️ Quality and durability : Our grass wallboard is made of high - density polyethylene instead of recycled materials , so it is non - toxic and harmless . The artificial grass is UV - resistant , does not fade , and stays green all year round . It does not require additional maintenance except for cleaning with water , which saves you the time to take care of plants .</t>
+          <t>★ 【 EXTRA - THICK POLYETHYLENE FABRIC 】 : The gray triple - layered ripstop polyethylene fabric is heat - sealed for maximum water protection and is resistant to stains , scratches , tears , and UV treated to resist fading .</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[('75', '87', 'MAT')]</t>
+          <t>[('18', '37', 'MAT'), ('46', '50', 'COLOR'), ('76', '95', 'MAT')]</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>['polyethylene']</t>
+          <t>['POLYETHYLENE FABRIC', 'gray', 'polyethylene fabric']</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Easy Installation : You can hit the wood directly with a hammer , or you can screw in the wood with a wrench . To install a hook on the wall , you need to make a hole in the wall , put a plastic tube , and then put the hook into the plastic tube . 1 / 8in drill bit is recommended . The overall hook is 2 . 2 ” , thread is 0 . 75 ” , loop is 3 / 4 ” , and the opening is 1 / 2 " .</t>
+          <t>Mount your pergola safely and securely to a wood deck or cement patio</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[('187', '194', 'MAT'), ('233', '240', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>['plastic', 'plastic']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>15 inches</t>
+          <t>EASY TO INSTALL : Just fix it a flat with the attached install these plant brackets into wood or wall with matching screws easily and quickly . It is really easy to install it by drilling holes into the wall and inserting the screw to keep the wall hook .</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1796,7 +1796,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>✔ ️ UNIQUE FOUR POINT MOUNTING : Superior wall fixing for heavier baskets in demanding strong wind weather conditions . Better than weaker standard 2 point curly brackets . Easy to install onto a Wall , Fence Post , Cabin , Shed , Gazebo , Pergola ' s and into many materials softwood , hardwood , brick , concrete , stone , metal .</t>
+          <t>Notched top</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1813,24 +1813,24 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Recommendations for Use : The muscle release tool is recommended for use on the floor , rug , yoga mat or bed , place it on the massage ball , and find the acupuncture point .</t>
+          <t>Material and size : This flowerpot frame is made of high - quality metal and has a longer service life . There are 3 different flowerpot holder rings with diameters of 4 . 7 inches , 6 . 8 inches and 8 . 5 inches for your choice . The package contains screws and anchors , you only need an electric drill to start your gardening work .</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('67', '72', 'MAT')]</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['metal']</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SAY GOODBYE TO SEAT SWEAT : Unlike those memory foam office chair cushions , this cooling seat cushion is with honeycomb design , the built - in , free - flowing air channels provide perfect heat dissipation and will prevent seat sweat and stay comfortably cool instead of heating where you sit . Our seat cushion adopts a honeycomb design , and the built - in free - flowing air channel prevents the seat from sweating , keeping your butt feel cool and comfortable ;</t>
+          <t>6 - 24 Count packs of By The Cup Candles</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1847,75 +1847,75 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Easy to Clean - Clear organizers allow you to see through items inside , which is convenient for placement and use . Easy to wipe clean with soap and sponge when not in use .</t>
+          <t>💪 [ SAFE AND STURDY ] The pressure point massage tool using natural high - quality rubber wood , which is moisture - proof , durable , smooth and burr free , non - toxic to the human body , portable , light , ergonomic , easy to clean . The stable structure gives you the freedom to massage any part of your body .</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('83', '94', 'MAT')]</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rubber wood']</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A retro wrought iron hanging hook can hang your lanterns , towels , bags , or anything you want to hang .</t>
+          <t>Package Includes : 2 * black ceiling hooks and comes with mounting screws .</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[('16', '20', 'MAT')]</t>
+          <t>[('23', '28', 'COLOR')]</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>['iron']</t>
+          <t>['black']</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>🐾 【 STURDY &amp; SAFE 】 The surrounding rattan edge is designed for stability and durability while the rounded corner is friendly to your pets . The sturdy steel frame prevents this wicker dog bed from being destroyed or chew . We aim to maintain high standards of customer care . If you have any questions , please feel free to contact us .</t>
+          <t>The recommended amount of time to stay in any given position using the Pso products is 5 – 60 seconds . always consult a doctor before using a massage apparatus . dimensions : length 10 . 7 " , width 5 " , height 5 . 3 " , peak to peak 6 . 3 " . weight 1 . 15 lb . Pso - Rite is made in the USA . Patented US pat . no . d823 , 479 .</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[('36', '42', 'MAT'), ('152', '157', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>['rattan', 'steel']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>🥊 ADJUSTABLE SIZES - 7 Height Options From 47 " To 68 " In 3 " Increments For Men , Woman And Kids</t>
+          <t>※ √ ※ High Quality : This thick coir doormat is made of 100 % pure coconut fiber . PVC rubber backing helps it lay flat and prevent your rug from sliding . Durable and thick ( 1 . 5CM ) This doormat is made to last long time and to keep dirt out of your house . The thick coir fibers will thoroughly clean your shoes and suck up moisture . Also personalized deign will be a good taking beginner .</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('32', '36', 'MAT'), ('67', '80', 'MAT'), ('83', '86', 'MAT'), ('87', '93', 'MAT'), ('272', '283', 'MAT')]</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['coir', 'coconut fiber', 'PVC', 'rubber', 'coir fibers']</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>⛺ 【 Satisfaction Guarantee 】 All HOMIUSE products are made with durable top - of - line materials under strict quality control standards that create a lasting piece for your home . If you have any questions after receiving the product , you can tell us , our professional customer support team will help you to solve them within 24 hours . We guarantee customers can return products without reason within 30 days .</t>
+          <t>【 AMAZING LOADING WEIGHT 】 For size 1 / 2 ” to 7 / 8 ” ceiling hooks can holds up around 25 pounds weight , and 1 ” to 1 - 1 / 2 ” reach about 40 pounds . It will be meet your daily needs with this handy box . When you install the cup screw , we suggest drilling a smaller hole before turning thread .</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1932,7 +1932,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>EASY TO ASSEMBLE - All tools included . Follow the step by step instruction to assemble effortlessly .</t>
+          <t>8 " s hook extender</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1949,24 +1949,24 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>EASY TO USE &amp; FLEXIBLE SET - UP : Each piece of temporary movable vegetable veggie border fencing wrought iron fence panels can be easily interlocked with the hook on the side and folds flat for easy storage ;</t>
+          <t>All - season</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[('106', '110', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>['iron']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>You can buy multiple arches and place them side by side to form a garden pavilion , which is more conducive to plant climbing and can also enjoy the cool feeling of summer .</t>
+          <t>Service &amp; Guarantee – Each piece of our products passes strict multi inspection process which gives customers multi guarantee . In case you receive defect items caused by delivery , please feel free to contact us through ★ 「 Your Orders 」 → 「 Contact Seller 」 , we guaranteed to ensure your 100 % satisfaction . 「 Warm Tip 」 - As for the reviews , please understand that we cannot reply it or contact to you through it . If any problems while using our product , don ' t hesitate to reach out , thanks .</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1983,7 +1983,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Non - skid bottom .</t>
+          <t>4 pieces pack , 1 piece size : 62cmL * 34 . 5cmH ( 24 . 4in . L * 13 . 6in . H ) , 4 piece overall length : 248cmL ( 97 . 6in . L )</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2000,41 +2000,41 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>[ Sturdy Material ] : Wall mount bike rack is made of high - quality steel . A powder - coated surface prevents rusting or chipping . Rubber - coated bike hooks help avoid rim or tire damage . High - quality wood shelves provide you ample storage that is deep enough to display cycling accessories</t>
+          <t>[ COMMON SIZE ] - The dimensions for this ceiling hook is 1 - 1 / 4 ” for coating hook and 0 . 57 ” for screw part with a 0 . 15 ” diameter . It is made to survive maximally 50 pounds of the weight , which is suitable designed for plants , keys , towels , cups , clothes and etc . The white ceiling hooks are good helpers for decoration</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[('69', '74', 'MAT'), ('79', '85', 'MAT'), ('134', '140', 'MAT'), ('208', '212', 'MAT')]</t>
+          <t>[('285', '290', 'COLOR')]</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>['steel', 'powder', 'Rubber', 'wood']</t>
+          <t>['white']</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>🌿 Retro &amp; Artsy Plant Hanging Bracket : Stylish retro &amp; artsy design , primitive swirls , elegant curve and clean finish , as is mid - century simplicity design , create attractive displays in your home . You can now let your precious blooms and foliage have time to generate beauty in your home with the use of this iron art plant bracket ;</t>
+          <t>❀ This product uses a streamlined design of polyvinyl chloride safe and non - toxic material without any outstanding safety protection . Wear - resistant , smooth seams , increased water at the bottom , easy to use , and play with inflatables . Keep it from falling down This project has a white plastic cover at the bottom , you can open it and put in air , water or sand ; it ' s okay and easy to use . Use Method : First , fill the bottom of the sandbag with rice , sand or water , then fill the top chamber with gas .</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[('317', '321', 'MAT')]</t>
+          <t>[('44', '62', 'MAT'), ('296', '303', 'MAT'), ('290', '295', 'COLOR')]</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>['iron']</t>
+          <t>['polyvinyl chloride', 'plastic', 'white']</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HOME MASSAGE : This revolutionary design makes it optimal for getting real life , hands - on massage benefits without having to make an appointment to see a therapist . This Psoas Stretcher allows you to get the pain re - lief you need when you need it !</t>
+          <t>【 Perfect Gift for Different Ages 】 - The personal body massager has been proved great effect because of millions of experiments before product launch . Specially suitable gift for people who are backache , hip pain , sore waist and also young people with these problems . Perfect gift on Mother ' s Day , Father ' s Day , Teachers ' Day , Birthday , Christmas .</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2051,75 +2051,75 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PET - FRIENDLY DESIGN : A breathable nylon mesh bed sits under a removable canopy to disperse heat and block the sun ; cooling your pet and preventing odor buildup</t>
+          <t>🪴 【 Super bearing capacity 】 Hanging plant stand adds a decorative touch and creates a sturdy support for your potted plants . The thickened metal hooks make it easy to hang anywhere .</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[('37', '42', 'MAT')]</t>
+          <t>[('141', '146', 'MAT')]</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>['nylon']</t>
+          <t>['metal']</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Widely Use : Perfect for indoor and outsider use . The steel cup hook help to create extra room for home , school , office . This vinyl cup hook set can be use for hanging clothes , hat , mug , towel , plant , pot , light , lantern , lamp , curtain , wind chimes , festival decoration , etc .</t>
+          <t>[ Functional Brackets ] I recommend these to everyone who has indoor plants and wants to display them in a way that ' s fun and functional !</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[('55', '60', 'MAT'), ('130', '135', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>['steel', 'vinyl']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Made from Durable Cast Iron .</t>
+          <t>High - quality packaging , stainless steel screws and anchors</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[('18', '27', 'MAT')]</t>
+          <t>[('27', '42', 'MAT')]</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>['Cast Iron']</t>
+          <t>['stainless steel']</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>【 Easy installation 】 : the package comes with two iron hooks , plus 6 steel screws . If you use it on wood you can screw it in directly , only on the wall you need to punch holes and then plug plastic nuts to screw the screws to install successfully . Two iron chains are also included , which can be used for pots that need to be extended and grow better .</t>
+          <t>Many Occasion : Fit for most ovens or air frying pans . This air fryer fork , suitable for BBQ lovers and home BBQ party holders .</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[('51', '55', 'MAT'), ('71', '76', 'MAT'), ('194', '201', 'MAT'), ('257', '261', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>['iron', 'steel', 'plastic', 'iron']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Barn door is also an excellent space saving solution versus a traditional swing door while adding unique characteristic to any room .</t>
+          <t>【 Convertible Desk 】 Reversible 67 inch corner desk or 98 . 4 inch two person desk : The L shaped computer desk could hold three desktop computers and one notebook computer . The desktop size is 47 " L * 19 . 6 " W and 31 . 5 " L * 19 . 6 " W . Or 98 . 4 inch two person desk can hold two - person studying or writing no interference . The simple design and multi - function storage to meet all needs . An ideal desk for small rooms or limited spaces to create excellent home office space .</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2136,7 +2136,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BEST - IN - CLASS : Bleuboon self - massage tool is the most versatile on the market , addressing nearly all muscle groups in the body . It is well - known for its benefits to the psoas , glutes , back , neck , and legs . Bleuboon muscle release is the most powerful instrument available</t>
+          <t>WIDE APPLICATION : The garden hook can be easily installed on fences , doors , pergola and wooden shelves . Perfect for hanging bird feeders , lanterns , flower baskets , flower pots , wind chimes , decorations , etc .</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2153,24 +2153,24 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sturdy on flat surface . Easy 10 minutes assembly . Please see instruction .</t>
+          <t>Interlocking wood tiles : These 11 pieces wooden floor tiles are interlocked together . Just snap tiles together and place them wherever you want . Also , you can separate from each other for cleaning and storing . The tiles can be cut if you need to fit it around a corner or a pole .</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('13', '17', 'MAT'), ('42', '48', 'MAT')]</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['wood', 'wooden']</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>☀ ️ 【 Large Size 】 - The size of the chair is W23 . 2 " * L21 " * H40 " , the sitting height is 17 " , and they also have a 40 " high back and a 29 " sitting depth . Compared with most chairs on the market , we have increased the back , widened the arm spacing , and lengthened the depth of the seat . You have a stronger sense of space when sitting , and more space for activities .</t>
+          <t>Package Includes - 1x 10x10 canopy , 4 x sidewalls , 4 x ropes , 4 x stakes , 4 x sand bags and a sturdy carry bag make it easy to transport . Carry bag size : 46 . 5 ' ' x9 . 5 ' ' x8 . 7 ” . Weights : 37 . 8lbs .</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2187,58 +2187,58 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Please Allow 1 - 3mm Error Due To Hand Test .</t>
+          <t>Safe and quality material : personal body massage tool is made of quality wood , which is safe for the human body , odorless , moisture - proof , not easy to change color , sturdy so that you can use it for many years ; In addition , the edges are smooth and will not scratch the skin</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('74', '78', 'MAT')]</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['wood']</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Instructions for use - installation on wood : You can hit the wood directly with a hammer or screw in the wood with a wrench . Installed on concrete : Drill holes in the ceiling , and then use the wall to expand the colloidal particles to fix the Q hanger on the ceiling .</t>
+          <t>PRODUCT FEATURES : The base of the massager is made of 100 % quality natural wood and measures 12 . 6in by 3 . 9in and features three sets of wooden massage balls . The ball sizes include 2 . 3 cm , 1 . 9 cm , 1 . 5 cm .</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('77', '81', 'MAT'), ('142', '148', 'MAT')]</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['wood', 'wooden']</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MULTI - SPORT - Perfect heavy bag for boxing , MMA , Muay Thai , aerobic workouts or any contact sport . Designed for a full 360 degree maneuverability around the body for strikes , punches , and condition your body with a muscle building aerobic workout .</t>
+          <t>WELL MADE : Sold per pair ( set ) , including 2 linen sheer panels - Panel measures : 52 x 45 - inches | Set measures : 104 x 45 - inches . Each panel has 8 nickel grommets , constructed with head height : 4 " , bottom hem : 2 " , fitting up to 1 1 / 4 inches curtain rods / poles</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('48', '53', 'MAT'), ('157', '163', 'MAT')]</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['linen', 'nickel']</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Measures 15 1 / 2 - in L x 5 1 / 4 - in . H x 2 3 / 4 - in . W</t>
+          <t>🍁 🍁 WIDE RANGE OF USES : artificial privacy fences can be used for balcony privacy shielding , terrace decoration , wedding walls , bar wall decoration , restaurant wall decoration , etc . Suitable for the Great Wall decoration of bedroom , living room or outdoor fence , garden , terrace , yard , balcony , porch .</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2255,24 +2255,24 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Relieve fatigue : Psoas major muscle release therapy can effectively relieve cervical strain , neck discomfort , improve sleep status , and make your physical condition better and better .</t>
+          <t>The base and buckle of the product adopt PE , which is with high flexibility , anti - slip and anti - fall . You can feel free to purchase and use it .</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('41', '43', 'MAT')]</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['PE']</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Handmade : These rustic dog decor products you receive may vary slightly from the product pictures due to the nature of your product .</t>
+          <t>SAFE - Does not contain 6P phthalates , latex , lead , and heavy metals . Safe for body , mind and spirit .</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2289,7 +2289,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ORIGINAL CHEWPROOF BED AND STILL THE BEST - Designed in Maryland in 1995 . Patent # US5992348 . Still the best . Best design . Best materials . Best workmanship . Best customer service .</t>
+          <t>[ High - Quality Bearing , Smooth &amp; Quiet ] Applying superior bearing , the Casement Window Hinge is difficult to get stuck or stagnate , ensuring completely silent operation . We focus on details to make you feel optimistic about our product .</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2306,24 +2306,24 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>✔ Can be used indoors or outdoors , such as balconies , villas , outdoor pavilions , corridors , studios , teahouses , restaurants , gardens , courtyards , galleries .</t>
+          <t>★ MULTIFUNCTIONAL : reed fenceing has the characteristics of breathability , filtering , shading , dustproof , UV - proof , fade - proof , anti - aging , weather - proof , windproof , peepproof , privacy protection , environmental protection , etc . It can also prevent your dog from barking .</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('20', '24', 'MAT')]</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['reed']</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Size : 7 . 48 inches height x 11 . 81 inches from the wall</t>
+          <t>Easily partition your borders or flower beds with this decorative lawn divider . Delivery includes 11 pieces .</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2340,7 +2340,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Simple - This contemporary pot holder simply attaches to most round drainpipes ( 68mm ) and with a matching plant pot ( Clever Pots 20cm Round Pots sold separately ) , allows you to grow your favourite herbs or flowers right outside your door , no garden needed</t>
+          <t>Fits up to a 24 - Inch flower box</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2357,75 +2357,75 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>* Product Material : The cat house is made of oxford cloth , sponge and plush . extra soft durable oxford surface fabric and inside with upholstery firm foam , to prevent scratch from your dog or kitten . Warm and soft with removable snuggly inner pad .</t>
+          <t>Size : 26 inches x 71 inches , Extra Thick : 1 mm thicknes , double layer structure design enhance grip and antiskid , suitable to practice many forms .</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[('46', '58', 'MAT'), ('61', '67', 'MAT'), ('153', '157', 'MAT'), ('114', '120', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>['oxford cloth', 'sponge', 'foam', 'fabric']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>【 Multi - functional 】 This dog furniture can be used as pet crate , also as a side table , end table or night stand . The wide top provides enough place to put some decorations such as small / medium plant , magazines , family picture frames and night lamps and so on .</t>
+          <t>✽ 【 Food - Grade 】 The pastry brush is made of high - quality food - grade silicone , and the brush handle has a built - in metal steel core , which is durable and not easy to break .</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('75', '83', 'MAT'), ('124', '135', 'MAT')]</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['silicone', 'metal steel']</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>【 Elegant decorations 】 Leaf shape design , elegant and fashionable , The hand forging process has a fascinating traditional look , Black paint is natural and durable , adding elegance and beauty to your home or garden without losing practicality , Matching black screws and hooks maintain a perfect appearance</t>
+          <t>【 Funny BBQ Gift 2023 】 This is the funniest BBQ Gift for men or women , dads or moms , husbands or wives who spend time around meat . The gift box is elegant and packed with a double box , so it is the perfect stocking stuffers for men and women who like BBQ &amp; cooking .</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[('132', '137', 'COLOR'), ('258', '263', 'COLOR')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>['Black', 'black']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>100 % Brand new , Carbonized color , waterproof , Non - slip , Wear resistant , Anti - stress , Great for indoor or outdoor application . No glue or tools are required - just snap the interlocking tiles together .</t>
+          <t>【 Practical 】 : Mini muscle release tool is designed to the shape of the therapist ' s hand and the stiffness of the elbow , you now have your own internal therapist to correct the pain and dysfunction in the hip joint area , and give you the pressure you want at any time , only pressure can release the human body Muscle tissue .</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[('18', '28', 'COLOR')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>['Carbonized']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Large Wide Kids Play Yoga Mat : 26 ” x 71 ” . Longer and wider than regular yoga mats , ideal almost for everyone . If you have more than one child , then this will be very suitable for children ' s yoga experience .</t>
+          <t>Deep - tissue massage tool always with you : available anytime you need it , anywhere you go . use your pso - rite in your gym sessions , sports trainings , in the office or comfortably at home .</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2442,24 +2442,24 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>【 Sices 】 S - 15 . 4x12 . 6x13 . 4 in ( Recommended for pets within 8 lbs ) . M - 17 . 3 inx14 . 2x15 . 4 in ( Recommended for pets within</t>
+          <t>Premium Wood Made : The deck tiles built with natural solid Acacia wood , which is sturdy and durable enough , won ’ t easily warp , crack , split or bend . Perfect and great for outdoor , indoor , decks , patios , balconies , around pools and more .</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('8', '12', 'MAT'), ('60', '71', 'MAT')]</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Wood', 'Acacia wood']</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>【 SUIT YOUR NEEDS 】 Can " stop " the length at any point you want . Just reach up and push the basket up a little , the ratchet releases and the basket comes down to your desired height , ( do not immediately let go of the hand and then pull about 1 - 3cm with the slowest speed to block it ) , sending it back up into position is just as easy , only need to tug on it .</t>
+          <t>This pergola is ideal for the pool , hot tub , perfect for outdoor dining or entertainment . Help adds elegance and ambience to your outdoor living space .</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2476,75 +2476,75 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>【 Handmade Craft 】 - Not only a massager , but also a delicate hand - made craft . From material cutting to finishing , skilled woodworkers lead all the process of making to make sure the smoothness , precise size of any ball and great surface finish .</t>
+          <t>Metal construction lasts for many seasons</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('0', '5', 'MAT')]</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Metal']</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>【 Interlocking Patio Deck Tiles 12 x 12 Inches 】 This plastic decking patio tiles has a hollow drain shape that helps it works great in waterproofing and is water permeable . The dark brown color makes it stain - resistant and cleans easily .</t>
+          <t>【 A Better Wall Hook 】 at Earth helps the Environment by teaming up with PrintReleaf Programs that turn our paper consumption in to actual trees , we work with reclaimed beech wood reducing our companies carbon footprint while turning recyclables into art , transforming any room into a hanging gallery .</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>[('54', '61', 'MAT'), ('179', '189', 'COLOR')]</t>
+          <t>[('170', '180', 'MAT')]</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>['plastic', 'dark brown']</t>
+          <t>['beech wood']</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>[ Use place ] : The outdoor shepherd hook is suitable for your garden , lawn , balcony , snow , backyard , grassland , adding a beautiful scenery to the lawn and garden .</t>
+          <t>SIZE - Our white fence hooks measures 10 inches in length , 5 inches in height and manufactured from 3 / 8 ” mild steel rod , could fit any 2 ” fence rail securely and hold round or square shape hanging planter up to 12 ” in diameter</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('11', '16', 'COLOR'), ('109', '119', 'MAT')]</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['white', 'mild steel']</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>GAS GRILL : Powered by liquid propane gas to grill without the hassle of charcoal , this grill runs on a 20 - pound propane gas tank , not included . It reaches cooking temperatures quickly , delivers high temps and maintains even heat .</t>
+          <t>【 For Various Scenarios &amp; 12OZ Gloves 】 : This boxing bag works great on any floor such as marble , tile , wood , etc . You can put it in the home , office or gym , which will satisfy your strength and fitness needs . The 12OZ professional boxing gloves are constructed of hard - wearing PU leather and thicken foam to provide optimal protection for your hands .</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>[('0', '3', 'MAT'), ('38', '41', 'MAT'), ('124', '127', 'MAT')]</t>
+          <t>[('288', '298', 'MAT'), ('311', '315', 'MAT')]</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>['GAS', 'gas', 'gas']</t>
+          <t>['PU leather', 'foam']</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Trusted Warranty Protection – Here at [ UNITURE ] we ’ re focused on providing high - quality and super durable tiles you can use almost anywhere . Contact us with any issues and we ’ ll be happy to help make it right .</t>
+          <t>🐕 【 OUTDOOR HAPPY PLACE FOR DOGS 】 This versatile dog kennel makes a great outdoor play paradise for your dogs ! The large dog cage provides ample exercise space . Lively and active dogs will love this large interactive space and fully release their sports talents .</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2561,75 +2561,75 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>If you have any questions or questions , please feel free to contact us , we will reply you within 24 hours</t>
+          <t>【 METAL FLOWERS OUTDOOR DECOR STAKE 】 : Metal Daylily Flower Garden Stakes , Yard decoration , Metal Art , Garden Sculpture Decor , Patio decor Mother ' s Day Gift Metal Flowers</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('2', '7', 'MAT'), ('40', '45', 'MAT'), ('95', '100', 'MAT'), ('164', '169', 'MAT')]</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['METAL', 'Metal', 'Metal', 'Metal']</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>🥘 【 PRODUCT FEATURES 】 This outdoor kitchen BBQ gas grill is equipped with with 4 main burners ( total 72 , 000 BTUs ) , 1 infrared back burner ( 13 , 000 BTUs ) , blue LED control panel lights ;</t>
+          <t>💪 【 Suitable For Any Fitness Level 】 - The resistance band set is the perfect equipment for muscle training and fat burning . Not only practicing squats , push - ups , leg raises , planks , and strengthening triceps are very effective , but also help you to increase coordination , stamina , flexibility . The ankle straps can better strengthen the leg muscles . For women who want to stay in shape , it can also help train the hips , shape the perfect chest and abdominal muscles , and show a charming body curve .</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[('164', '168', 'COLOR'), ('48', '51', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>['blue', 'gas']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>If such a sign is found , it indicates what at least one real bird friend has visited and left behind , and of course it may have done so more than once . the way , cast iron may really rust , but it takes a long long time .</t>
+          <t>Multifunctional Fitness Equipment : You can stand your machine up to perform a wide range of traditional vertical exercises squats triceps extensions overhead presses and so on . You won ` t just build a shredded six - pack but an entire solid core .</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>[('165', '174', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>['cast iron']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Install : Easy to install with mounting screws . The mounting screws are also steel material for providing high load capacity .</t>
+          <t>DURABLE LAWN STATUE : Constructed from durable magnesia , the yard art is made tough for outdoor use and is weather - resistant for long - lasting , quality use on your porch , patio , or flowerbeds</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[('78', '83', 'MAT')]</t>
+          <t>[('47', '55', 'MAT')]</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>['steel']</t>
+          <t>['magnesia']</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Dog Kennel : Treat your pet with this stylish and modern Kennel that can be used as a summer or winter house / shelter , provides safe , dry and warm hiding place for pets .</t>
+          <t>100 YEARS FAMILY - OWNED &amp; OPERATED | Customer and product support provided from our headquarters in Indiana !</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2646,126 +2646,126 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>WIDELY USED - Metal garden spikes are widely used in commercial use and household projects , suitable for fixing the edges of pavers , weed barriers , artificial turf , house construction , wooden furniture , tents , garden plants , etc .</t>
+          <t>Cozy House - The dimension of this indoor tent gives your pet a touch of privacy and creates a nice sense of security . Aavailable in 3 Sizes .</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[('14', '19', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>['Metal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Reasonable Size - Each hook measures 4 inches in height and extends 3 inches from the wall , easy to install and work well . LUOOV is a registered trademark and our product is professional manufacturing and sole selling .</t>
+          <t>Durable hand - woven resin is proven to last longer than traditional wicker</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('21', '26', 'MAT')]</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['resin']</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Donut Pillow for Tailbone Pain - The round tailbone pain relief donut cushions made of mesh fiber cotton and memory foam can prevent tailbone pain . This coccyx seat cushion donut is a circular design with a hole in the center , so it is also called a " doughnut cushion " . The pressure is evenly distributed when sitting down , the additional support required will keep your tail vertebra in a hanging , thereby reducing most of the pressure on the tailbone , and sitting for a long time can also relax</t>
+          <t>White color adds a bright look to the unit</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>[('109', '120', 'MAT'), ('92', '97', 'MAT'), ('98', '104', 'MAT')]</t>
+          <t>[('0', '5', 'COLOR')]</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>['memory foam', 'fiber', 'cotton']</t>
+          <t>['White']</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SUSTAINABLE DESIGN : The powder - coated frame and thick tabletop make this sewing table durable ; Includes six floor casters for mobility with four locking ; Center / Bottom Panels Weight Limit : 50 lbs each ; Side Panels : 25 lbs each ; Drawers : 15 lbs each</t>
+          <t>[ Sturdy Material ] : Wall mount bike rack is made of high - quality steel . A powder - coated surface prevents rusting or chipping . Rubber - coated bike hooks help avoid rim or tire damage . High - quality wood shelves provide you ample storage that is deep enough to display cycling accessories</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[('25', '31', 'MAT')]</t>
+          <t>[('69', '74', 'MAT'), ('79', '85', 'MAT'), ('134', '140', 'MAT'), ('208', '212', 'MAT')]</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>['powder']</t>
+          <t>['steel', 'powder', 'Rubber', 'wood']</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Size : 26 inches x 71 inches , Extra Thick : 1 mm thicknes , double layer structure design enhance grip and antiskid , suitable to practice many forms .</t>
+          <t>Efficient space saver  – let these white and black cup hooks screw in organize and tidy up the living place for a sleek finish look . Each ceiling plant hook bites into ceiling , wall , or wood quickly and safely with its sharp screws and hold them tightly .</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('35', '40', 'COLOR'), ('45', '50', 'COLOR')]</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['white', 'black']</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Newly released home decorative collection . It is a solid piece , crafted recycled cast iron . It will last for generations .</t>
+          <t>EXTRA LONG HANDLE - Heatproof hardwood handle held tightly with pig tail flipper without loose , Length up to 6 . 3in longer enough to avoid burning or scalding , Works well at high temperatures , Ergonomic and smooth wooden offer a comfortable grip , Both of right and left handed are great</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[('83', '92', 'MAT')]</t>
+          <t>[('30', '38', 'MAT'), ('218', '224', 'MAT')]</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>['cast iron']</t>
+          <t>['hardwood', 'wooden']</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Keep your garden safe from animals</t>
+          <t>Comfortable fabric , perfect for puppies , kittens and other pets</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('12', '18', 'MAT')]</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['fabric']</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Max Load : 33 LBS . Max length : 35 inches .</t>
+          <t>✅ EASY TO INSTALL : You just need to make two holes in the flat places like a wooden fence , deck , and then tighten the two screws to fix the hanger . Then you can start modern decor .</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2782,7 +2782,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Quality checked and approved</t>
+          <t>Room Decoration : Add a pop of solid color in between embroidered curtains for your living room , or use them alone for a touch of elegant simplicity . You ' ll love the way these lightweight , billowy panels look blowing in a gentle breeze . Crushed sheer voile window treatments look great in any living room , bedroom , yard , patio , villa , parlor , offering a lightweight , airy feeling that softens the ambience of a room .</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2799,24 +2799,24 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Size : 31 * 20cm / 12 . 2 * 7 . 9inch . Double - sided fleece material feels soft and warm .</t>
+          <t>🐕 【 OTHER SAFETY PROTECTION 】 Additionally , the door has a lockable latch which ensures extra security and safety for your dogs . The steel wire mesh wall helps prevent unexpected accidents while enabling ventilation .</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>[('55', '61', 'MAT')]</t>
+          <t>[('135', '140', 'MAT')]</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>['fleece']</t>
+          <t>['steel']</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>❤ 【 Slide Smoothly &amp; Quietly 】 : Unique spring design of Door Stops can reduce the vibration for a quiet operation and extend the lifetime . Stop your door exactly at any position you want .</t>
+          <t>【 SPECIAL DESIGN 】 Our garden arbor arch designed with planters . The two side planters offer extra place to grow beautiful flowers .</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2833,126 +2833,126 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Size : planter measures 7 " length x 3 " wide x 4 " high , total height with strap is 11 " . Mkono is a registered trademark and our product is professional manufacturing and sole selling .</t>
+          <t>Widely applications : Patio hangers suitable for hanging flower baskets , bird feeders , bird houses , wind chimes , outdoor lights , lanterns , wooden sign board , festival banner , pool equipment on the white vinyl fence , railings .</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('205', '210', 'COLOR')]</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['white']</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Material &amp; Dimensions : Made of solid pinewood . The dimension measures 5 . 90 * 5 . 11 * 0 . 82 inches , Suitable for pots up to 11inch / 27cm across</t>
+          <t>[ SAVE SOME SPACE ] Barn doors are an excellent space saving solution compared to a traditional swing door . Additionally , they add character and a unique charm to any room . This door will work perfectly in single door openings which are 54 in x 84 in . Or , you can buy 2 to fill a larger doorway .</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>[('38', '46', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>['pinewood']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>TOP QUALITY AND DURABLE : Made of a superior high - performance UV stabilized polypropylene plastic that is firm and BPA and phthalate free , it is weather , water , and rust proof ; it will not fade , tear , warp , or deform ; to assemble , click the 6 pieces together , and it is ready to house your canine ; no tools required ; clean with a damp cloth and air dry</t>
+          <t>④ Easy to hang : This wall decor shelf come fully assembled , just have to install the hooks . Package come with 2 easy hanging hooks . the shelf can easily be leveled</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[('78', '99', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>['polypropylene plastic']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Dimension : Our Plant Bracket Approx . 10 x 7 . 8 inch .</t>
+          <t>50 " W x 20 " H , overall . Includes two 14 " dia . wheels and two 11 " dia . wheels . Metal .</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('87', '92', 'MAT')]</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Metal']</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Easy to play with high safety — SpringFlower Dart Board Game is easy to install and play for people of all ages , Great Indoor and Outdoor Activities Game for Kids . Made of soft fabric with sticky balls , Different from classic sharp darts , the hook - and - loop plastic balls are safe without causing injuries to children or make holes in the wall , allowing kids no limit to play . as we dedicated to bringing your family a highly safe game .</t>
+          <t>In a special festival , You deserve a special and exquisite candle . The three - dimensional flexible butterfly and pink sequins on the candle will definitely add color to your party</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[('265', '272', 'MAT'), ('179', '185', 'MAT')]</t>
+          <t>[('116', '128', 'COLOR')]</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>['plastic', 'fabric']</t>
+          <t>['pink sequins']</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>EXTRA THICK + 6 ” LONGER AND TWICE AS THICK AS MOST MATS - Measures 74 " x 24 " x 6mm ; perfect for all shapes , sizes and ages . Lightweight and easy to transport - extra comfort and floor coverage without the extra bulk .</t>
+          <t>MULTIPLE USES - With a max load - bearing capacity of 22 lbs , the plant pot hanger can support most of your plant pots . The hanger has a classic black color , which brings a minimalist and elegant style to your house decor . It is perfect for your garden , balcony , patio , yard , porch , etc .</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('147', '152', 'COLOR')]</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['black']</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>💐 MORE USAGE SCENARIOS : It ' s time to jump on the botanical bandwagon , this black plant hanger always looks elegant and goes with everything , you can keep it either on the patio , porch , deck , balconies or at the garden , perfect for displaying your favorite planters , flower pots , bird feeders , lanterns , holiday decorations , string lights , wind chimes , ornaments and more ; It will be a nice gift to your family and friends</t>
+          <t>Trusted Warranty Protection – Here at [ UNITURE ] we ’ re focused on providing high - quality and super durable tiles you can use almost anywhere . Contact us with any issues and we ’ ll be happy to help make it right .</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>[('79', '84', 'COLOR')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>['black']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Privacy : The fence can be used to decorate wall , fence , a privacy screen , privacy hedge . It can block most ultraviolet rays , keep privacy , and allow air to pass freely . It ' s great for indoor or outdoor use</t>
+          <t>Realistic wood grain patterning : looks just like real wood and eye - catching stylish</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2969,7 +2969,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Grommet top design allows for easy hanging on a standard curtain rod up to 1 . 5 " in diameter</t>
+          <t>PORTABLE &amp; FOLDABLE : SereneLife indoor room dividers are lightweight &amp; convenient . Made of six panels of the same size which can be adjusted according to the part of the room they cover , and can completely fold up the screens for storage</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2986,7 +2986,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PROPER SIZE - the length of our hook rack is 36 cm ( 14 . 17 in ) . Please make sure if the space on the wall is enough for the hook rack to be mounted .</t>
+          <t>🪴 【 Dimension 】 19 . 6 " x7 . 8 " x4 . 5 " , width of hook 2 . 16 " .</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3003,58 +3003,58 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>4 . 【 Indoor and outdoor decoration 】 : artificial fences , flower walls , yards , balconies , living rooms , offices , receptions , and even wedding background privacy barriers !</t>
+          <t>Plastic Garden Border : The garden edging is made of premium PE material with stable performance and long service time .</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('0', '7', 'MAT'), ('61', '63', 'MAT')]</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Plastic', 'PE']</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Made of cast iron .</t>
+          <t>Size : 80mm * 50mm / 3 . 14 " * 1 . 96 " .</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>[('8', '17', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>['cast iron']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Dimension : Approx . 11 . 8 x 7 . 5 inch .</t>
+          <t>Premium Outdoor Patio Pavers and Deck Tiles ; Acacia 12 " x 12 " Wooden Tiles with Interlocking Base</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('65', '71', 'MAT'), ('46', '52', 'MAT')]</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Wooden', 'Acacia']</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Use Indoors &amp; Outdoors</t>
+          <t>Kitchen Island - If you want to upgrade the aesthetics and functionality of your kitchen , adding a kitchen island is the fastest and easiest route to success . Kitchen islands not only add space for preparing meals , include shelving and storage , which you can use for frequently used equipment or easy - grab pantry items</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3071,7 +3071,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>LIFETIME GUARANTEE – We passionately believe in the quality of our products and in our customer ’ s satisfaction . With that in mind , this product is 100 % guaranteed . If it breaks , we replace it . We just hope you enjoy yours as much as we do !</t>
+          <t>【 Multi - Purpose 】 A very useful indoor or outdoor decoration tool , you can use it to decorate your patio , porch , garden , backyard , deck , porch , bedroom , living room , bathroom , kitchen , balcony , entryway by hanging lanterns , planters , baskets , mason jars , wind chimes , bird feeders , flower pots , holiday decorations , string lights , ornaments and more !</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3088,109 +3088,109 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>【 Steel Playpen for Dogs Information 】 Our heavy duty dog kennel is easy to assemble . Overall dimensions : 76 " x 76 " x 88 . 6 " ( L x W x H ) . Door size : 17 . 7 " x 66 . 9 " ( W x H ) . Wire diameter : 0 . 08 " .</t>
+          <t>WIDELY USED - Metal garden spikes are widely used in commercial use and household projects , suitable for fixing the edges of pavers , weed barriers , artificial turf , house construction , wooden furniture , tents , garden plants , etc .</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>[('2', '7', 'MAT')]</t>
+          <t>[('14', '19', 'MAT')]</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>['Steel']</t>
+          <t>['Metal']</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>AVAILABLE SIZES TO ACCOMMODATE YOUR BREED , Small ( 35 ½ x 25 ½ - inch ) dog beds for small dogs up to 40 lbs . , Medium ( 40x26 ½ - inch ) dog beds for medium dogs 40 - 60 lbs . , Large ( 44x31 - inch ) and X - Large ( 50x37 - inch ) dog beds for large dogs 60 - 120 lbs .</t>
+          <t>12 Pack screw hook clips , each hook with 1 plastic tube</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('44', '51', 'MAT')]</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['plastic']</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Easy to Set Up - Pop up canopy is easy to set up in about 10 minutes with 2 people . Once the frame and top is up you can put the rest together , velcro the four sides to the top of the canopy , zipper the corners of the front door .</t>
+          <t>12 " white plant bracket with hook</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('5', '10', 'COLOR')]</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['white']</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>EASY SETUP &amp; PORTABLE : The pop top canopy can be set up in seconds with no tools necessary . Gazebo with adjustable button on legs are designed for easy adjusting the height of the gazebo to positions to suit your needs . This gazebo is lightweight and with a carrying bag , so you can easily bring it anywhere and is very suitable for outdoor activities such as picnics , parties .</t>
+          <t>Manufactured from die cast , high - density aluminum alloy</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('44', '58', 'MAT')]</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['aluminum alloy']</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>INCLUDED PATTERN : 10 Pieces Of Checker Pattern 12 " x 12 " Acacia Deck Wood Tile ; . 75 Inch Thick</t>
+          <t>Wood grain storage drawer : the function of the drawer is powerful enough ; y friendly PU leather the bedside table is made of PU friendly leather with fine luster wear - resistant and durable ; all - sided skin smooth hand feeling wear - resistant and breathable clear texture stylish atmosphere .</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>[('72', '76', 'MAT'), ('60', '66', 'MAT')]</t>
+          <t>[('0', '4', 'MAT'), ('139', '146', 'MAT'), ('127', '129', 'MAT'), ('87', '97', 'MAT')]</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>['Wood', 'Acacia']</t>
+          <t>['Wood', 'leather', 'PU', 'PU leather']</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>EASY TO MOUNT - There are three simple steps to install the wall plant hanger . First , drill two holes , and they should be in alignment with the mounting holes on the plant hanger . Then , install the plastic sleeves into the holes . Lastly , use screws to fix the hanger in place .</t>
+          <t>🍖 [ Movable salver ] - As a practical dog crate , the product has a movable salver , which can be taken out and put in easily . The salver can be cleaned easily as well , and the salver is soft enough to comfort your pet and offer your pet a fantastic place to relax and sleep .</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>[('203', '210', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>['plastic']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>MULTI - PURPOSE : Beautify your outdoor living space by hanging planters , flower pots , lanterns , garden lights , mason jars , wreaths and holiday decorations , string lights , wind chimes , ornaments , flower balls , ceramic birdbaths and more ! A decorative freestanding mount to hang lamps , coconut coco - fiber moss baskets , humming birdfeeders and other accessories !</t>
+          <t>10 Bike Holders : The bike storage rack has a large hold capacity with up to 9 bikes at the same time . The stand can hold bikes and avoid tilting . Save space and keep neat .</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3207,92 +3207,92 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>GOOD QUALITY : Beautiful , long lasting patio . This set of interlocking wood tiles is made of natural wood and is excellent for patio . These interlocking flooring tiles are strong and durable and can withstand any type of weather . The patio tiles are also very easy to clean . it is good quality and durability .</t>
+          <t>Manufactured from premium quality , durable PVC vinyl | Will not fade , discolor or warp | UV Resistant | Water Resistant</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>[('73', '77', 'MAT'), ('103', '107', 'MAT')]</t>
+          <t>[('44', '53', 'MAT')]</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>['wood', 'wood']</t>
+          <t>['PVC vinyl']</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>9 " black planter bracket</t>
+          <t>NATURAL RUBBERWOOD WITH SOLID STRUCTURE : Hip flexor release tool made of high quality rubberwood that keeps the product ' s form last longer and easy to clean ; Psoas release tool ' s stable structure with well fitted solid massage balls prevents it from easily falling or breaking</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>[('4', '9', 'COLOR')]</t>
+          <t>[('8', '18', 'MAT'), ('87', '97', 'MAT')]</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>['black']</t>
+          <t>['RUBBERWOOD', 'rubberwood']</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Hand and Foot Placements Printed on Mat</t>
+          <t>『 Open Design and Water Drainage 』 Open structure for maximum water drainage thus stopping the build of surface water on your tiles forming puddles etc . The plastic grid on the underside of tile allows for plenty of drainage .</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('158', '165', 'MAT')]</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['plastic']</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Made with Leather</t>
+          <t>✨ Easy to install . hanging plant bracket Comes with all necessary screws , can be installed on the wall , concrete posts , wood , fences . It ' s very sturdy and you don ' t have to worry about its quality</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>[('10', '17', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>['Leather']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>【 Durable Material 】 Our composite interlocking deck tiles are plastic composite which is weather resistant and durable , no warp , crack , stain , scratch or split . In additional , the open grid design allows for adequate drainage and ventilation that will last a long time .</t>
+          <t>🍖 [ Functional Furniture ] - This Elegant dog crate with metal wire panels construction doubles as a side table , end table or nightstand as well as keeps the pet confined . Wide top design provides additional storage space for potted plants , painting , coffee cup , reading lamp etc . Moreover , load - bearing capacity of the top is 125 lbs , it is strong enough to load many Ornaments .</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>[('63', '80', 'MAT')]</t>
+          <t>[('57', '62', 'MAT')]</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>['plastic composite']</t>
+          <t>['metal']</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>[ Easy to Install ] Convenient interlocking mode can realize fast and safe installation without any tools . Not handy persons can also complete assembly and disassembly in minutes .</t>
+          <t>Flexible Usage - 10 ' long x 5 ' 8 " tall - Made to fits on 6 ft tall fence , 4 " - 8 " may shorter on width to prevent lay over the fence , great for both construction and residential areas . Customizable sizing is also available to meet your needs .</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3309,24 +3309,24 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Gray Bamboo cork tile , Gray Leather cork tile ,</t>
+          <t>【 Multipurpose 】 Our rubber outdoor tiles are weatherproof and UV resistant , widely use in Commercia &amp; Residential . Commercial Applications ： Allow to install around the swimming pool , locker - room , hot spring bathing pool , sauna / SPAS room , hotels , as well use in sports facilities or flooring in boats , and so on . Residential Applications : Perfect for shower rooms , workout or rest areas , under plant pot , laundry room and anywhere anti - slip tiles are desired .</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>[('0', '4', 'COLOR'), ('5', '11', 'MAT'), ('24', '28', 'COLOR'), ('29', '36', 'MAT')]</t>
+          <t>[('21', '27', 'MAT')]</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>['Gray', 'Bamboo', 'Gray', 'Leather']</t>
+          <t>['rubber']</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>❖ PERFECT GIFT - - - 3D night light would be perfect party supplies , kids kicker toys , toddler toys , birthday gifts , Thanksgiving gifts , housewarming gifts , graduation gifts , Christmas gifts for kids , baby , toddlers , friends . Ideal home decor , bedroom decor , kids room decor , baby room decor , etc .</t>
+          <t>🌺 ONE CUSHION FOR ALL - Hihealer ’ s meditation cushion set allows you take your practice every day without a stop .</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3343,58 +3343,58 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>QUICK AND EASY INSTALLATION : Our patented PowerLock Technology flooring modules lock in place and stay engaged . The easy to install , interlocking tiles simply snap together – no tools , glues , or extra hands required . These high impact tiles install quickly and are built to last !</t>
+          <t>【 High - End Beautiful Outdoor Decor 】 Your Wood Interlocking Flooring Tiles look fantastic on any surface and bring a warm DIY feel to any space . Which is great to used as patio tiles , balcony tiles , bathroom and any indoor or outdoor setting</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('44', '48', 'MAT')]</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Wood']</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A cozy anxiety - relieving spot for your pet and a premium piece of furniture for your home</t>
+          <t>Adjustable Height : the height of this punching bag ranges from 30 . 75 " - 47 . 25 " , allowing you to set it to the best height . The steel pipe is tough and solid too , so there is no need to worry about punching it to pieces .</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('136', '141', 'MAT')]</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['steel']</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>🐕 【 Waterproof 】 Re - engineered design helps to keep your dog dry during rain , raised floor and sloping asphalt roof provide protection against elements , keeping the cabin comfortable and dry . Our dog house is suitable to be adopted both indoor and outdoor , providing a sturdy and warm shelter for your pets .</t>
+          <t>Weather resistance for outdoor use : This patio chair is durable and can withstand wind and rain , and can be used all year round . This terrace outdoor chair has a sturdy and durable structure that can withstand the test of time and high temperature . It is very suitable for any outdoor and indoor use , and meets your purpose of decorating the place you want .</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>[('106', '113', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>['asphalt']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>🚲 【 EASY TO ASSEMBLE / USE 】 Bike stand for garage comes with instruction and screws , installation is a breeze . Bike floor rack should be mounted to concrete floor or wall to make stable . Bikes fit best front to back , but also fit fine both facing front . Be careful of the disc brakes when the wheels in the bike rack .</t>
+          <t>Spacious wide top for a lamp , magazines , home decor , etc .</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3411,41 +3411,41 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>USE IT ANYWHERE , while walking , traveling ( car , airplane , bus ) , in office , school , watching TV or any place you want to exercise , WITHOUT WORRY about the ball falling and rolling away</t>
+          <t>【 Therapy massage tools design 】 Three types of wood massage balls Provide different stimulationIt . It provides tremendous relief from stiff , tired and painful muscles , in every part of your body . And that it ’ s adjustable . Use it on your psoas , back , hips , neck , triceps , biceps and chest . Especially great relief for the trigger points .</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('48', '52', 'MAT')]</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['wood']</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Manufactured from premium quality , durable PVC vinyl | Will not fade , discolor or warp | UV Resistant | Water Resistant</t>
+          <t>🌸 【 SIZE 】 : - Height : 18 Centimetres Width : 18 Centimetres Depth : 2 Centimetres</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>[('44', '53', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>['PVC vinyl']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Non Toxic and Eco Friendly</t>
+          <t>It ' s very easy to change the replacement cover . There are zippers on the cover that make it easy to assemble and tear down .</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3462,41 +3462,41 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>WOOD BALANCE BOARD : Try to surf like the cool girly elephant</t>
+          <t>Natural Hardwood Decking – Crafted with genuine Acacia wood these interlocking tiles lock together to create a small ground deck , cover a worn patio , or even upgrade your balcony space for a handsome custom look .</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>[('0', '4', 'MAT')]</t>
+          <t>[('48', '59', 'MAT'), ('8', '16', 'MAT')]</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>['WOOD']</t>
+          <t>['Acacia wood', 'Hardwood']</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>【 Specification 】 Light Grey ( 8 - 15 lbs ) , Best for speed barbell training and shoulder mobility . Medium Grey ( 15 - 35 lbs ) , Beginning bands for resistance and barbell band training or just a little boost for pull up assist . Grey ( 25 - 65 lbs ) , Medium tension for resistance training and pull up assist . Dark Grey ( 35 - 85 lbs ) , Ideal for pull up assist , High tension for resistance and advanced banded barbell training . Black ( 50 - 125 lbs ) , Ideal for pull up assist .</t>
+          <t>Unfilled can be filled 70lbs to 100lbs : Jayefo MMA punching bag comes unfilled to make it more affordable boxing training bag also to save you a ton of money in shipping and getting it delivered the fastest .</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>[('18', '28', 'COLOR'), ('102', '113', 'COLOR'), ('233', '237', 'COLOR'), ('316', '325', 'COLOR'), ('438', '443', 'COLOR')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>['Light Grey', 'Medium Grey', 'Grey', 'Dark Grey', 'Black']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Notched top</t>
+          <t>Washable plush bedding</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3513,7 +3513,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Exercise Equipment Mat - Measuring 24 inches by 60 inches , this protective exercise mat stays safely in place under most large stationary and recumbent bikes</t>
+          <t>❤ 【 Package Lists 】 : 2xRollers ; 4ft Spliced Track ( pre - drilled for easy installstion ) ; 2XStoppers ; 2XAnti - jump Disk ; 1X Floor guide ; 1XInstallation Manual and all other accessories . NO DOOR INCLUDED .</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3530,41 +3530,41 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Stable &amp; Durable Construction : Made of solid fir wood and reinforced by stainless steel hardware , our dog house is sturdy and durable to provide long - lasting protection . In addition , equipped with adjustable foot pads , the dog house can keep stable even on uneven ground .</t>
+          <t>Keep your garden safe from animals</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>[('73', '88', 'MAT'), ('46', '54', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>['stainless steel', 'fir wood']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SUPER COMFORTABLE : The surface of the storage ottoman is equipped with a high - resilient sponge , which is not easy to deform after long time seating , which can satisfy your comfortable sitting experience . The ottoman uses skin - friendly fabrics , relatively close to thick linen - like fabric , very nice looking and durable , so you can use it with confidence .</t>
+          <t>Correct your posture with SNPE posture workout . Learn 4 signature moves with Danason on YouTube ( search SNPE and turn on subtitle )</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>[('243', '250', 'MAT'), ('91', '97', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>['fabrics', 'sponge']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Easy to Use : S shaped hooks can be easily hung on the existing objects without any tools .</t>
+          <t>Use Indoors &amp; Outdoors</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3581,7 +3581,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>LARGE STORAGE : With storage cabinet , the foot length is 50 . 3 " w x 18 " d x 18 . 1 " h , and internal dimensions is 47 . 6 " w x 14 . 6 " d x10 ” h , it is very comfortable to sit on and the capacity is large enough . Whether you are using this ottoman in the entrance , living room , family room , basement or bedroom , it will enable you to hide all mess and easily solve storage problems .</t>
+          <t>Suitable for living room , bedroom , kitchen , courtyard , porch , trees , backyard , wooden fence , farmhouse Suitable for hanging candlesticks , lamps , garlands , country chandeliers , antique watches , Halloween decoration</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3598,24 +3598,24 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Material : durable heat - resistant non - woven fabric top and neoprene rubber non - slip backing</t>
+          <t>25 lbs Adjustable Dumbbell : adjust weight from 5 lbs to 25 lbs , suitable for professional and beginner , bring rich exercises feeling during training for both .</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>[('63', '78', 'MAT'), ('36', '54', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>['neoprene rubber', 'non - woven fabric']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>🌼 【 Decoration &amp; Protection 】 This euro fence can be used as ordinary fencing , decoration or protection for poultry , puppies or facilities in garden , industry , farm , transport , etc .</t>
+          <t>Loops on the end of each section accommodate stakes ( not included )</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3632,7 +3632,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Hot Tub Gazebo Canopy Dimensions : 13 ' L x 9 . 5 ' W . Front Eave : 6 . 5 ' H . Back Eave : 8 ' H Please note : This item arrives in separate boxes and may not be part of the same shipment ; delivery times may vary . Box Quantity : 2</t>
+          <t>【 Large size 】 with interior dimensions of 39 . 7 " W x 22 . 4 " D x 25 . 1 " H and overall dimensions of 41 . 0 " W x 23 . 6 " D x 35 . 8 " H ; weight of 85 pounds .</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3649,7 +3649,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Can Be Used To Patch Holes In A Fence To Keep Animals From Crawling Under , Or To Wrap Around A BASEBALL BAT . This Barbed Wire Has Many Uses .</t>
+          <t>Separate and Stackable - These sturdy organizer trays can be stacked together , or each one works alone . Itemize and separate any things in the drawer to keep the space neat .</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3666,41 +3666,41 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>The screw cup hook was built in heavy duty rustproof coating steel , suitable for hanging light - duty or light weight stuff in home , office and workplace</t>
+          <t>Our interlocking wood tile is crafted out of natural fir wood and durable PVC . Treated with the high - temperature drying process , these wood tiles do not easily damage even in high humidity conditions .</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>[('61', '66', 'MAT')]</t>
+          <t>[('17', '21', 'MAT'), ('53', '61', 'MAT'), ('74', '77', 'MAT'), ('139', '143', 'MAT')]</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>['steel']</t>
+          <t>['wood', 'fir wood', 'PVC', 'wood']</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Great for hanging Christmas decorations , lanterns , planters , wind chimes , string lights in living room , entryway , patio , porch , garden , backyard wooden deck fence .</t>
+          <t>FIREBRICKS BOTTOM &amp; SIDE WALLS - help transmit less heat to the outside panels but also spreads the heat evenly throughout the grill . This feature is well known in the Argentine grill . It is also a must have because it extends the life of the charcoal grill .</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('0', '10', 'MAT'), ('245', '253', 'MAT')]</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['FIREBRICKS', 'charcoal']</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Package includes : 1x Barn door ( unassembled panels ) , all necessary screws required for installation .</t>
+          <t>📏 Easy to care : machine wash separately in cold water ; do not bleach ; tumble dry low ; no ironing .</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3717,7 +3717,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>✔ Our blinds and shades will help reduce heat in your home and protect you from harmful sun rays for years to come .</t>
+          <t>Team logo is on the front of the jersey and graphics cover a full 360 degrees</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3734,126 +3734,126 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Features : Selected high - quality wood is strong and durable ; the internal space is relatively large , which is convenient for pets to live in a comfortable life ; the bottom tray can be pulled out for easy cleaning .</t>
+          <t>【 Wide Application Scene 】 This offset patio umbrella is designed for outdoor scene like poolside , garden , lawn , deck , backyard , beach and etc . The large 10Ft polyester umbrella creates more shade and cool for outdoor resting , chatting and dining</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>[('35', '39', 'MAT')]</t>
+          <t>[('165', '174', 'MAT')]</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>['wood']</t>
+          <t>['polyester']</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>🌸 More Usage Scenarios : It ' s time to jump on the botanical bandwagon , this black hanging plant bracket always looks elegant and goes with everything , you can keep it either on the patio , porch , deck , balconies or at the garden , perfect for displaying your favorite planters , flower basket , bird feeder , lantern , holiday decorations , wind chime hanger , ornaments and more ;</t>
+          <t>DOING THE RIGHT THING – Being absolute pet lovers , we donate a portion of sales to various pet shelters &amp; charities – With a 1 - year warranty against manufacturing faults in place , your orders are safe &amp; secure – Click ‘ Add to Cart ’ &amp; order the softest &amp; coziest fleece bed / crate pad right away</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>[('79', '84', 'COLOR')]</t>
+          <t>[('268', '274', 'MAT')]</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>['black']</t>
+          <t>['fleece']</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hanizi Metal Sunflower Wall Art : Add visual interest to plain walls . Add refreshing feel of nature to your interior and create peaceful ambiance in any room .</t>
+          <t>EXTRA THICK + 6 ” LONGER AND TWICE AS THICK AS MOST MATS - Measures 74 " x 24 " x 6mm ; perfect for all shapes , sizes and ages . Lightweight and easy to transport - extra comfort and floor coverage without the extra bulk .</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>[('7', '12', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>['Metal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>High Durability : The sliding door lock is made of thickened solid metal material , with padlock safety , anti - theft , high durability and anti rust .</t>
+          <t>【 High quality materials 】 The main part is made of stainless steel and the decorative part is made of plastic , which is both beauty and strong , maximum 35 pounds .</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>[('67', '72', 'MAT')]</t>
+          <t>[('52', '67', 'MAT'), ('103', '110', 'MAT')]</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>['metal']</t>
+          <t>['stainless steel', 'plastic']</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>[ 3 x 8 Inches Fence Hangers ] Steel fence hooks hangers length 8inch ; width 3 inch , load capacity : 40lbs , fence angers can fit most of vinyl fence and door .</t>
+          <t>✅ UV PROTECTED TO BE WEATHER RESISTANT AND NOT FADE Our wood tiles for patio are coated with oil UV protection for longer life and outdoor use . However , we recommend you don ’ t use the outdoor tile under extreme conditions of water , snow or sunlight . An annual oil coat adds to the life of the tiles .</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>[('31', '36', 'MAT')]</t>
+          <t>[('56', '60', 'MAT')]</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>['Steel']</t>
+          <t>['wood']</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>[ Decor Your House ] : The vintage hanging brackets for plants design adds a touch of rustic style to your home &amp; garden , you can use it to decorate your your entryway , living room , dining room , patio , garden , backyard and other indoor outdoor places , it goes with any theme or decor .</t>
+          <t>BASTING BRUSH : Splash on sauces and bastes with the silicone basting brush . The long and comfortable handle keeps your hands away from the heat . The silicone head is easier to clean than a cotton basting brush</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('53', '61', 'MAT'), ('152', '160', 'MAT')]</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['silicone', 'silicone']</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Suitable for living room , bedroom , kitchen , courtyard , porch , trees , backyard , wooden fence , farmhouse Suitable for hanging candlesticks , lamps , garlands , country chandeliers , antique watches , Halloween decoration</t>
+          <t>Weight Bearing : This vinyl fence we designed with a triangular construction has been tested to hold up to 25 lbs .</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('22', '27', 'MAT')]</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['vinyl']</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>【 Mandala Patterns 】 Our professional designers have created beautiful mandala patterns for yoga mats , such a perfect mat looks unique , it will attract you and your family to fall in love with exercising .</t>
+          <t>7 Burger Capacity</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -3870,41 +3870,41 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ADJUSTABLE TABLETOP HEIGHT : Tabletop height can be adjusted from 29 . 75 inches to 38 . 75 inches ; Provides back relief on longer art projects and creates a versatile workspace no matter the project ; Knob adjusts height in 1 . 5 " increments</t>
+          <t>Memory foam bed has built - in entry dip for easy accessibility and is available in two versatile color combinations</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('0', '11', 'MAT')]</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Memory foam']</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Premium Material : The floor tiles are made of solid acacia wood , a tropical hard wood , which is durable , weather - resistance .</t>
+          <t>Sturdy reinforced steel leg frame provides ample support</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>[('53', '64', 'MAT'), ('83', '87', 'MAT')]</t>
+          <t>[('18', '23', 'MAT')]</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>['acacia wood', 'wood']</t>
+          <t>['steel']</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>If you have any questions after receiving the product , please contact us directly , we will definitely provide you with satisfactory service .</t>
+          <t>Grommet top design allows for easy hanging on a standard curtain rod up to 1 . 5 " in diameter</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -3921,109 +3921,109 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>This pergola is ideal for the pool , hot tub , perfect for outdoor dining or entertainment . Help adds elegance and ambience to your outdoor living space .</t>
+          <t>STYLISH : Beautifully intricate Victorian design looks visually stunning inside or outside your home . With a white finish this hook complements anything that you choose to hang on it . Blends seamlessly into its surroundings and goes great with most other colors .</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('110', '115', 'COLOR')]</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['white']</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Easy To Install - Come with plastic tubes , swivel hooks for hanging are easy to install all solid surface such as walls , ceiling , wooden beams , tree , fence , eaves etc . You can pre drill a hole then wrench the string light hooks outdoor directly in .</t>
+          <t>🐕 【 Waterproof 】 Re - engineered design helps to keep your dog dry during rain , raised floor and sloping asphalt roof provide protection against elements , keeping the cabin comfortable and dry . Our dog house is suitable to be adopted both indoor and outdoor , providing a sturdy and warm shelter for your pets .</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>[('28', '35', 'MAT')]</t>
+          <t>[('106', '113', 'MAT')]</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>['plastic']</t>
+          <t>['asphalt']</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>【 Modern &amp; Elegant 】 The tabletop features X design details for a farmhouse flair in your restful retreat . A clean - lined design mixed with a classic white finish is compatible seamlessly with any room d é cor .</t>
+          <t>DECORATIVE , FIRM &amp; GENTLE - Unlike ugly , clunky foam back pillows , the plush Qi Orthopedic Pillow offers an attractive , designer look that blends in with your home or office d é cor . It never collapses under body weight , and never loses its level of support no matter how firm or soft you set it , even after prolonged period of sitting .</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>[('152', '157', 'COLOR')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>['white']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>【 Stable Base with 12 Suction Cups 】 : The rounded ABS base is dedicated to easy rolling and relocating . Thanks to the 12 suction cups underneath , this punching bag produces powerful suction on the smooth floor and keeps in place all the time . Moreover , the base can be filled with water ( 110 lbs ) or sand ( 220 lbs ) for extra stability . Dry sand is recommended .</t>
+          <t>36 of each color : Pink , Blue , Yellow , &amp; White</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>[('51', '54', 'MAT')]</t>
+          <t>[('19', '23', 'COLOR'), ('26', '30', 'COLOR'), ('33', '39', 'COLOR'), ('44', '49', 'COLOR')]</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>['ABS']</t>
+          <t>['Pink', 'Blue', 'Yellow', 'White']</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>This product uses the PVC safe non - toxic material streamline design , without any prominent , the protection of security . Wear resistant , seam smooth , the bottom of the water is increased , easy to use , inflatable will be able to play .</t>
+          <t>Beautiful detailing : These metal statues feature a distressed look for a rustic appearance . The layered blue painted details and distinct complementary design adds vitality and elegance to any space .</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>[('22', '25', 'MAT')]</t>
+          <t>[('28', '33', 'MAT'), ('106', '110', 'COLOR')]</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>['PVC']</t>
+          <t>['metal', 'blue']</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Installation is quick and easy . You can hit the wood directly with a hammer or screw into the wood with a wrench .</t>
+          <t>★ WEATHER PROOF AND DURABLE : Made from natural Acacia wood and already pre oiled your interlocking tiles can withstand wind rain or shine and will look as if new ! This durable construction also means they will last a lifetime . We recommend giving them a good clean and using some wood oil before summer and winter to help keep their great finish and durability .</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('48', '59', 'MAT')]</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Acacia wood']</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Large Enough Space : MEWAY 10x13 Outdoor pergola provides 130 square feet of coverage , big enough for a set of sofas or 6 person tables , allowing 8 - 10 people to move freely below . It is not only suitable for backyards , terraces , poolside , deck , courtyards , and other outdoor spaces , as well as parties and BBQ</t>
+          <t>【 Multifunction 】 : Psoas muscle release massage tool can provide precise target depth , can be used in specific and inaccessible muscles .</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4040,58 +4040,58 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Useful for most exercise like yoga , pilates , ashtanga , bikram , vinyasa and balance exercise . Exceptional resilience and superior grip allows you to keep your balance and stability in any exercises</t>
+          <t>Offering Water to Wild Bird : This waterer makes an excellent compliment to bird feeders . By offering water in addition to a food source , you will attract a larger variety of wild birds to your yard , including those that don ' t eat seed , like Bluebirds , Swallows , and Warblers .</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('9', '14', 'MAT'), ('103', '108', 'MAT')]</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Water', 'water']</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Easily installed : adding style and functionality to your Outdoor or indoor space with an iron plant hanger hook Doesn ’ t need to be complicated . Simply find a flat surface on which the wrought iron hook can be mounted and hang whatever you desire . These incredibly functional hooks are sure to remain sturdy when properly installed . Stainless Steel mounting screws are provided .</t>
+          <t>Each package including 2 pcs tiny heavy - duty double - ended swivel hook .</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>[('90', '94', 'MAT'), ('338', '353', 'MAT'), ('196', '200', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>['iron', 'Stainless Steel', 'iron']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Note : While the glass container can go in the dishwasher , we recommend cleaning it by hand .</t>
+          <t>MEAT GRINDER , BULLSEYE , AND ROMAN ARCH : When pointed inwards , the two Meat Grinder attachment heads are adjustable from 2 . 25 - 13 . 5 ” peak - to - peak . When turned outwards the Meat Grinder attachment heads have an adjustable range of 7 . 5 - 18 . 5 ” peak - to - peak . The Bullseye attachment heads are adjustable from 5 - 16 ” peak - to - peak . The Roman Arch attachment heads are adjustable from 2 . 25 to 13 . 5 peak to peak .</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>[('17', '22', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>['glass']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>conveniently machine washable . Or simply rinse these canine booties in cold water .</t>
+          <t>Hand Wash Only</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4108,58 +4108,58 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Easy to install on wood or wall . You can use a wrench to screw the hook into the wood , or use a plastic anchor to drill the hook into the concrete wall .</t>
+          <t>【 High - Quality Material 】 : These hook can holds up to 40 pounds . Size 1 . 2 x 2 . 2inch . Made of sturdy metal iron with a black anti - rust paint on the surface , which is not easy to break and rust .</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('127', '132', 'COLOR'), ('109', '119', 'MAT')]</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['black', 'metal iron']</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Ideal gift : muscle release tool is a practical and wonderful gift especially for people with low back pain , hip pain , backache , and young people with health problems on Mother ' s Day , Father ' s Day , Teacher ' s Day , birthday , Christmas , to show your warm care to your family or friends</t>
+          <t>🌼 【 Color &amp; Dimensions 】 Color : Green . Material : Steel wire , PVC coated . Length : 32 . 8 ft . Height : 2 . 6 ft . Mesh size : 3 . 9 " x 3 . 9 " . Wire diameter : 0 . 07 " / 0 . 08 " ( 0 . 07 " steel wire , 0 . 08 " PVC coated ) .</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('33', '38', 'COLOR'), ('52', '57', 'MAT'), ('65', '68', 'MAT'), ('198', '203', 'MAT'), ('220', '223', 'MAT')]</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Green', 'Steel', 'PVC', 'steel', 'PVC']</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>🔥 【 High Quality Material 】 The hanging replacement chain is made of plastic , not easy to rust and deform , and weather - resistant , very suitable for indoor and outdoor .</t>
+          <t>QUICK AND EASY INSTALLATION : Our patented PowerLock Technology flooring modules lock in place and stay engaged . The easy to install , interlocking tiles simply snap together – no tools , glues , or extra hands required . These high impact tiles install quickly and are built to last !</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>[('69', '76', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>['plastic']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Weather resistance for outdoor use : This patio chair is durable and can withstand wind and rain , and can be used all year round . This terrace outdoor chair has a sturdy and durable structure that can withstand the test of time and high temperature . It is very suitable for any outdoor and indoor use , and meets your purpose of decorating the place you want .</t>
+          <t>Product 2 : Lightweight , easy to clean and transport</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4176,75 +4176,75 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Thanks to their plug - in connection , the tiles can be made to interlock easily and tightly to form a stable walking surface Delivery includes 20 wooden decking tiles</t>
+          <t>Healthy stainless steel material , more safe and reliable for home use .</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>[('147', '153', 'MAT')]</t>
+          <t>[('8', '23', 'MAT')]</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>['wooden']</t>
+          <t>['stainless steel']</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Plastic Fencing : Garden Fence Panels - Edging Conforms to Any Shape Making It Convenient for Any Kind of Landscape Border .</t>
+          <t>3 Seconds Weights Change : One - handed operation design , convenient for fast changing dumbbells ' weight during training . Turn the handle with one hand , adjust to desirable weights in 3 seconds .</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>[('0', '7', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>['Plastic']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Largest In The Market - - - Tired of small , thin cushions that don ' t fit your seat and definitely don ' t cushion your bum ? Try our gel seat cushion for long sitting , the largest in the market that fits your car seat , wheelchair and desk chair . This lumbar support pillow for office chair , car , recliner , even trucks and forklifts supports you while letting air pass through its open honeycomb design . Unlike memory foam pillows , our desk chair cushion does not permanently compress over time .</t>
+          <t>Premium quality : Our Q shaped hook is made of heavy - duty steel with rust proof coating . The size of outdoor light hanging hook length is 2 . 2inch . It can bear a maximum weight of 40Ib and offer sturdy support for a long time . Suitable for interior and exterior use .</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('60', '65', 'MAT')]</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['steel']</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>★ MULTIFUNCTIONAL : reed fenceing has the characteristics of breathability , filtering , shading , dustproof , UV - proof , fade - proof , anti - aging , weather - proof , windproof , peepproof , privacy protection , environmental protection , etc . It can also prevent your dog from barking .</t>
+          <t>Decorate Your Warm Home - This attractive and unique design hanging planter shows your potted plants , while save more space . It will bring more color and meaning to your white window and wall . Capturing the good moments of life .</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>[('20', '24', 'MAT')]</t>
+          <t>[('172', '177', 'COLOR')]</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>['reed']</t>
+          <t>['white']</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>😎 Privacy : Up to 90 % privacy blockage gives you the privacy you deserve , not completely blacked out but the right amount of privacy and blockage .</t>
+          <t>FITS MOST BIKES : Great for any bike with rims less than 2 " wide , including mountain , road , and kids ' bikes .</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4261,109 +4261,109 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Easy to Install : The plant hanger brackets come with screws and wall anchor needed , just screwed the three wood screws into the cedar post , and it was ready . It looks great both inside and out and in the garden .</t>
+          <t>NO MORE SEAT SWEAT : Unlike other old - designed cushion , this seat cushion is with honeycomb design and its built - in , free - flowing air channels will prevent seat sweat , staying comfortable and coo instead of heating where you sit .</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>[('109', '113', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>['wood']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>❁ Size - The metal cast iron wall hook size ( Approx . ) : 26x15 . 5x3cm / 10 . 2x6 . 1x1 . 2inch . ( LxWxH )</t>
+          <t>Made of cast iron .</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>[('13', '28', 'MAT')]</t>
+          <t>[('8', '17', 'MAT')]</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>['metal cast iron']</t>
+          <t>['cast iron']</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Deep hunter green color</t>
+          <t>Outdoor Post Lights : Made of high quality plastic , made tough and sealed tight , no need to worry about rust . Each solar lights includes 20 lumen with 4 pcs high brightness warm white SMD LED , much brighter than other solar lights . Measures : 4 x 4 x 5 . 9 inch per light . Package includes : 6 x Solar Post Lights .</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>[('5', '17', 'COLOR')]</t>
+          <t>[('43', '50', 'MAT'), ('181', '186', 'COLOR')]</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>['hunter green']</t>
+          <t>['plastic', 'white']</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>𝐖 𝐈 𝐃 𝐄 𝐀 𝐏 𝐏 𝐋 𝐈 𝐂 𝐀 𝐓 𝐈 𝐎 𝐍 : These wood tiles can be set up on any solid surface , including concrete , grass , pavers , etc . They are perfect for both indoor and outdoor spaces : garage flooring , outdoor patio flooring , balcony flooring , attic flooring .</t>
+          <t>✅ DURABLE MATERIAL : Black planter hooks are made from high - quality iron that will not rust , fade , or erode , Featuring a classic powder coated steel finish sturdy and firm , can well support and protect plants , Powder coated steel is incredibly sturdy metal type to make sure deform and weather - resistant , reusable and long - lasting .</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>[('38', '42', 'MAT')]</t>
+          <t>[('21', '26', 'COLOR'), ('70', '74', 'MAT'), ('134', '140', 'MAT'), ('148', '153', 'MAT'), ('217', '223', 'MAT'), ('231', '236', 'MAT'), ('258', '263', 'MAT')]</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>['wood']</t>
+          <t>['Black', 'iron', 'powder', 'steel', 'Powder', 'steel', 'metal']</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>STURDY &amp; DURABLE - Our hanging plant bracket is made of high quality iron with perfect bending shape . The well - designed triangular fixed structure provides strong support . The sturdy structure allows it to withstand a weight of 90 lbs .</t>
+          <t>Fit for your SUNA OUTDOOR 12 x 9 ft pergola sun shelter . Please search B09S2YY6R4 , B09GXHZKWT , B092J84J9X , B092M627VH for the matching pergola .</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>[('69', '73', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>['iron']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>✅ 【 DRAWER NIGHTSTAND 】 - Style meets function with our lightweight accent table , complete with tabletop , middle shelf , and pull - out drawer for additional storage .</t>
+          <t>Wrought iron and steel assembly adds hangers to an existing pole</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('17', '22', 'MAT'), ('8', '12', 'MAT')]</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['steel', 'iron']</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>BETTER LIVING ENVIORMENT : It can make your home more clean and tidy after you place a piece of wood board on this Brackets . Meanwhile , it can bring artistic feeling to your house .</t>
+          <t>EASY INSTALLATION &amp; STORAGE : No extra tools or accessories needed , each part can be screwed together easily and kept firm . Just easily place it into soil or sand and maintain a fixed , upright posture while remaining firmly planted in the ground without easily falling down . Convenient for disassemble and storage if not used .</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -4380,7 +4380,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Size : Approx 5 . 2x2 . 2cm , Suit for 5 ” to 8 ” Terra Cotta Pots .</t>
+          <t>Q - Shaped Buckle Design - Not like the ordinary ceiling hooks for outdoor string lights , the safety latch is added to prevent hanging objects from falling or sliding out even with Vertical installation . No more worry about string lights being fall off .</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -4397,24 +4397,24 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Great Shock Absorption : Its high - density internal foam padding gives it great shock absorption , giving you a nice boxing experience .</t>
+          <t>➤ 【 Suitable Size 】 Our fence hooks measures 6 inch in length and 2 . 1 inch in width , could fit most of vinyl fence , rafter , lattice , pergola .</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>[('53', '57', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>['foam']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Product Name : Kitchen Tongs ; Size : 23cm / 28cm / 35cm</t>
+          <t>Load capacity  – These screw in hooks can hold 50 pounds safely . Hang your all small household items and bring a sense of neat and clean look to your kitchen &amp; home .</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -4431,7 +4431,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SAFE - Does not contain 6P phthalates , latex , lead , and heavy metals . Safe for body , mind and spirit .</t>
+          <t>Shapes well with CNC or laser</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -4448,7 +4448,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>1 / 4 Inch mesh</t>
+          <t>Suitable for birthdays , anniversaries , graduations , baby showers and more</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -4465,7 +4465,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>【 DO YOUR OWN DESIGN 】 This garden landscape edge can be freely adjusted to your liking , perfect for creating curves at 90 degree angles around trees or flower beds and gardens , you can carefully shape the garden you want .</t>
+          <t>GREAT FOR CATS AND DOGS : Measuring 21 " long , 13 " deep , and 10 . 5 " tall with a 66 lb . weight capacity , making it great for both cats as well as small dogs .</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4482,24 +4482,24 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Washable plush bedding</t>
+          <t>STURDY AND DURABLE : Our pet - friendly furniture constructed of durable , high - grade decorative steel mesh ( that serve as ventilation holes ) and innovative composite plastic - making this crate strong and stable</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('99', '104', 'MAT'), ('171', '178', 'MAT')]</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['steel', 'plastic']</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>【 Easy care 】 The removable dog bed cover is completely machine washable for your convenience ; Your pet can enjoy a clean and comfortable sofa or bed at home .</t>
+          <t>🤝 Warm Note : Due to the diverse light and monitor displays , colors may slightly differ from pictures and products , but we never stop trying our best to reduce the color difference between pictures and products to minimum as far as possible .</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4516,7 +4516,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Maximum load : 33lb . Telescopic size : 20cm - 90cm / 8 - 36in .</t>
+          <t>Landscape Edging Kit Includes : Its height is 5 . 5 inches and its length is 20 feet , and it can enclose a circle with a diameter of approximately 6 . 2 " / 1 . 9 meters . This comes with 18 spikes . About 1 spike to be installed every foot , reinforce the lawn edging to locate on the ground .</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4533,75 +4533,75 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Easy to Assemble &amp; Clean : With pre - drilled holes , easy - to - follow instruction and all necessary parts provided , the pet house can be easily assembled . In addition , the hinged roof allows for easy access to the interior of the house and the bottom floor can be removed for daily cleaning .</t>
+          <t>Material : Textilene Mesh and Powder - Coated Steel . Size : 49 " x33 " x9 " ( 125x83x22 . 5 cm ) . Can hold a maximum weight of 150 pounds ( 68kg ) ; Suitable for a normal adult German Shepherd , Golden Retriever , Akita etc .</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('11', '25', 'MAT'), ('30', '36', 'MAT'), ('46', '51', 'MAT')]</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Textilene Mesh', 'Powder', 'Steel']</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Buckle closure</t>
+          <t>Please note , screws are included . Color : Dark Brown .</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('44', '54', 'COLOR')]</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Dark Brown']</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>DESCRIPTION : This product is specially designed for placing flower pots , and is a high - quality choice for daily home decoration ; with a simple brown exterior design , the style is versatile , both practical and ornamental .</t>
+          <t>18 " Diameter on top funnels down to 11 " on bottom for a one - of - a - kind workout !</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>[('148', '153', 'COLOR')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>['brown']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Applicable Scenarios : Plastic patio edge borders can be used in flower beds , paving stones , walkways , rock beds , lawns , gardens and more outdoor scenes to create a beautiful patio for you ; you can also use it with weed fabric to provide extra The protective layer</t>
+          <t>【 Easy to install 】 Package include 4pcs wind chime hook ( mounting screw are included ) , adding elegance and beauty to your home or garden without losing practicality ; Just screw the screws into the location to be installed , such as wooden fences , trees , and even indoor and outdoor walls</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>[('23', '30', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>['Plastic']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Bender Board : Build clean , crisp borders for grass , raised garden beds , shrubbery , pathways , and more .</t>
+          <t>Perfect after - sales service : If you have any questions or questions , please contact us . Our customer service team attaches great importance to providing customers with a good shopping experience . And solve the confusion and problems for you within 12 hours .</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4618,7 +4618,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>PRODUCT DIMENSION - Swivel high back patio chairs 26 . 8 " × 25 . 4 " × 45 . 1 " . Seat height : 23 . 4 " . Seat width : 19 . 7 " . Seat depth : 20 . 1 " . Instructions can be downloaded from the page under the " Product information " .</t>
+          <t>【 Your Satisfaction Matters 】 We are confident that you will love our meat shredder claws that we offer all customers a lifetime guarantee . If at any point you decide you are not completely satisfied with your set , please contact us immediately and we will make it right .</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4635,41 +4635,41 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>【 Sturdy Design 】 The sturdy triangular construction allows the gazebo easily withstand 10 inches of snow , also can stand stably in the wind over 55 Miles Per Hour . Helping your family to safely enjoy time under this gazebo .</t>
+          <t>🥊 【 360 ° Swivel &amp; Easy to Hang Up 】 Punching bag for adults equipped with 360 ° swivel keeps with hooks and 4 rotating stainless steel chains . Punching bag will rotate and bounce back after being hit . 4 expansion bolts , 1 reinforced hanger , and 1 connecting carabiner . With these accessories you can easily install bag on the ceiling .</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('120', '135', 'MAT')]</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['stainless steel']</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Product 1 : MIDNIGHT - BLUE DRESSER FOR BEDROOM : This chest of bedroom drawers measures 17 . 52 " L x 35 . 24 " W x 30 . 82 " H and weighs 65 . 56 lbs . The compact size of the handy drawer dresser helps you maximize your space while creating a place for clothes , books , games , or trinkets needing a home .</t>
+          <t>★ EASY INSTALLATION : Your interlocking tiles have multiple fittings so they easily click together like a puzzle , fit and you ’ re ready ! These wood interlocking floor tiles have a hook fitting style so when in place they ’ re rigid and won ’ t slide about no matter the surface you put them on . Once laid if you wish to move your tiles they can be unclipped and moved at your leisure .</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>[('12', '27', 'COLOR')]</t>
+          <t>[('146', '150', 'MAT')]</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>['MIDNIGHT - BLUE']</t>
+          <t>['wood']</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Mufti - functional Edge Design : Each part is designed with interlocking lugs , which can easily lock each other together . This kind of landscape edge can be easily adjusted and is perfect for creating curves around trees or flower beds at a 90 degree angle . Customers can create exquisite gardens according to their own preferences .</t>
+          <t>PREMIUM QUALITY : These stands are made from high - quality premium material . To make things swankier , we have designed it on the master of luster . Strong and sturdy , this elegantly shimmering piece comprises shiny material crafted with the utmost perfection .</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4686,58 +4686,58 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>🍖 [ Functional Furniture ] - This Elegant dog crate with metal wire panels construction doubles as a side table , end table or nightstand as well as keeps the pet confined . Wide top design provides additional storage space for potted plants , painting , coffee cup , reading lamp etc . Moreover , load - bearing capacity of the top is 125 lbs , it is strong enough to load many Ornaments .</t>
+          <t>【 Easy Installation 】 Just need you to punch two holes then easily mounts to any flat surface with two screws , perfect for your courtyard , porch , balcony , garden , etc .</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>[('57', '62', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>['metal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>✽ 【 Heat - Resistant 】 Heat - resistant up to 446 ° F / 230 ° C , and will not melt , warp , fade or shrink like ordinary plastic or wooden brushes . High tenacity silicone , one - piece design to prevent that the brush head falling off .</t>
+          <t>Easy Mounted : This plant hanger hook can be installed on walls , wood , fences and other places . Determine the installation location and height , and then screw the provided screws into the corresponding holes .</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>[('164', '172', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>['silicone']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>🐕 【 OTHER SAFETY PROTECTION 】 Additionally , the door has a lockable latch which ensures extra security and safety for your dogs . The steel wire mesh wall helps prevent unexpected accidents while enabling ventilation .</t>
+          <t>Exercise Equipment Mat - Measuring 24 inches by 60 inches , this protective exercise mat stays safely in place under most large stationary and recumbent bikes</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>[('135', '140', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>['steel']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>【 Perfect size 】 The garden hooks is about 3 . 3 " height ensures adequate center of gravity balance , 7 . 3 " length away from the wall allows hang larger - sized bird feeder or planters . Its elegant appearance complements anything hanging on the hook .</t>
+          <t>❤ 【 Buy with Confidence 】 If any parts missing or any troubles , you can feel free to EMAIL US FIRST . We ' ll try our best to assist you . and we ’ ll ship out replacements from U . S warehouse ASAP .</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -4754,58 +4754,58 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>【 Easy to Assemble 】 - Comes with illustrated assembly instructions and backed by an experienced customer service team ready to answer any questions that may arise .</t>
+          <t>Premium Material - Our interlocking rubber mats are made of soft bend of flexible PVC , durability and safe , UV - stabilized , durable for long service life</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('36', '42', 'MAT'), ('82', '85', 'MAT')]</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rubber', 'PVC']</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Size : This decorative wall hook for plants measures 11 inches in length , 6 . 5 inches in height , and 2 . 6 inches in width ( at the widest part of the wall mounting surface ) . It can support up to 20 pounds of weight at the wall suspension point .</t>
+          <t>🌻 Easy to Install : The metal screw of plant wall hooks can bite into wood or wall quickly and easily , so just find a flat surface and use the screws included in the package , you can start your decoration plan immediately . Very perfect for home and garden installation , such as balcony , yard , porch , garden fence , etc .</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('24', '29', 'MAT')]</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['metal']</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>📏 Easy to care : machine wash separately in cold water ; do not bleach ; tumble dry low ; no ironing .</t>
+          <t>Coffee Flower Basket Hanger : Made of premium plastic materials , these plant hooks are of high load - bearing capacity .</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('46', '53', 'MAT')]</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['plastic']</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>SCOTTS MIRACLE GRO</t>
+          <t>Large Decorative Chickadee Plant Hanger</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -4822,92 +4822,92 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>【 Sturdy And Durable 】 Wall Plant Hanger Ring is made of thick wire diameter solid iron material , hard texture , not easy to deform . Electrostatic painting treatment , matte black surface treatment . Not easy to rust and show better grade .</t>
+          <t>ã € Ideal Size ã € ‘ : These flower pot stands have three different sizes : 21cm / 8 . 27inch , 16cm / 6 . 3inch , 11cm / 4 . 3inch , you can choose and buy according to your needs , very easy to clean , with a clean cloth Can be wiped clean , not easy to hide dirt</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>[('170', '181', 'COLOR'), ('83', '87', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>['matte black', 'iron']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Package Include : 2 x cycling wall rack , 4 x bike wheel hooks and 8 x screws . Rubber - coated hooks hold your bikes by the wheel tightly &amp; prevent scratching .</t>
+          <t>STYLISH : Hand forged wrought iron offers a charming , traditional look . A dark finish stunningly complements anything that hangs from it , adding elegance and beauty to your home or garden . Matching black screws maintain a consistent , sleek look .</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>[('80', '86', 'MAT')]</t>
+          <t>[('202', '207', 'COLOR'), ('30', '34', 'MAT')]</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>['Rubber']</t>
+          <t>['black', 'iron']</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Bottom bracket mounted</t>
+          <t>Sleep comfortably and cool with our allergy - resistant , natural latex pillow . Unlike dense memory foam , our pillow lets you stay cool without flipping to the other side . Personalize your support with fully adjustable fill for optimal neck , shoulder , and spine alignment .</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('58', '71', 'MAT')]</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['natural latex']</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>🏖 ️ 【 Foldable and Lightweight Frame 】 : Perfect Chaise Lounge for all kinds of indoor and outdoor use . Foldable design takes up small space , lightweight designed steel frame allow you easy to carry and store . Net weight of chair is 19 lbs</t>
+          <t>Note : To fill the bottom of the water or sand , fill the water as much as possible , so as to inflate the column , in order to stand up , otherwise there will be pillars stand straight or easy to fall .</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>[('165', '170', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>['steel']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SUITABLE DIMENSION : It is designed the " universal " features . Our gazebo replacement curtains fits most 4 - panel 12 ' x 12 ' gazebos . Net only ; metal frame and canopy top not Included ! It is highly recommended to confirm the dimensions prior to purchase .</t>
+          <t>5 1 / 4 " High x 4 ' long strips</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>[('150', '155', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>['metal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>【 Adjust Height 】 33 ' ' &amp; 49 ' ' &amp; 65 ' ' Three different heights to meet your different needs . Each garden hook includes 2 extender for three height options , it varies in height depending on how many extenders are used . The hooks can measure up to 65 ” depending on what you would like to hang and how much you would like it to stand out .</t>
+          <t>Quality checked and approved</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -4924,177 +4924,177 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Color Coordinated : sorara ' s screen system is designed specifically to coordinate with the color options provided in the full line of pergolas</t>
+          <t>EASY TO USE &amp; FLEXIBLE SET - UP : Each piece of temporary movable vegetable veggie border fencing wrought iron fence panels can be easily interlocked with the hook on the side and folds flat for easy storage ;</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('106', '110', 'MAT')]</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['iron']</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Designed for a full 360 degree maneuverability around the body for strikes , punches , kicks and throws , build strength , tone and condition your body with a muscle building aerobic workout .</t>
+          <t>🎅 🏻 【 High Quality Material 】 The high quality plastic material makes the deck tiles weather - resistant , lasts longer than natural wood , and have no worry about swelling , decay or mildew</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('47', '54', 'MAT')]</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['plastic']</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Various Applications . The 5 . 5 inches edging gives you plenty of height to get below the root level and blocks against the invading weeds and grass . Your mulch would not wash away during heavy rain .</t>
+          <t>This lamp features a ceramic base with a glossy , white finish and a natural linen shade . The light wood accents add a touch of warmth and charm .</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('21', '28', 'MAT'), ('50', '55', 'COLOR'), ('77', '82', 'COLOR'), ('101', '105', 'MAT')]</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ceramic', 'white', 'linen', 'wood']</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>High - quality packaging , stainless steel screws and anchors</t>
+          <t>【 For Indoor and Outdoor Applications 】 - Perfect for adding privacy to an outdoor patio area , aesthetically enhance your area with a realistic look to beautify and transform your fence , porch , privacy screen , wooden fencing , yard , garden , walls , patio , walkways , living room , trellis , study room , terrace , yard , backdrop , interior and exterior or your own creative design on party , Wedding , Christmas decorations .</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>[('27', '42', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>['stainless steel']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>MULTI - FUNCTIONAL : Our modern pet cabinet can be used as a pet crate , doghouse and doubles as a side table , end table or nightstand ; The wide particleboard top provides additional storage space for books magazines , lamps , plants , etc</t>
+          <t>Provides a Safe , Secure Mounting Option</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>[('147', '160', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>['particleboard']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Durable polypropylene seat and back construction</t>
+          <t>Outdoor fun : Swinging is the most popular activity for any outdoor layground or jungle gym !</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>[('8', '21', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>['polypropylene']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>💪 【 Material 】 Made of high quality material , the inflation height is 160cm . Color : black and red ; Weight : 720g , Larger diameter for more striking ability . What a great energy releasing toy !</t>
+          <t>🌼 [ Wall Mount Hanging Bracket Hanger Easy to Install ] - 3 mounting holes to anchor the piece firmly into your wall . Recommend using wall heavy - duty anchors for mounting . Screw into wood fence posts , deck posts , or even indoor walls .</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>[('87', '92', 'COLOR'), ('97', '100', 'COLOR')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>['black', 'red']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>【 Wide Top 】 : The top provides additional storage space . You can place pet supplies on it for easy use at any time . Also perfect for magazines , family photos , favorite books , lamps , or other decorative items .</t>
+          <t>Made from thick , durable polyester canvas to resist rips and tears from rough handling .</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('26', '42', 'MAT')]</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['polyester canvas']</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Durable Plant Hooks 5 Inch : Made of high quality cast iron material , heavy duty and very durable .</t>
+          <t>Tough nylon lining for more duration</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>[('50', '59', 'MAT')]</t>
+          <t>[('6', '11', 'MAT')]</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>['cast iron']</t>
+          <t>['nylon']</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>【 Multi - Purpose Home Decor 】 Simple and elegant wood finish looks great in a variety of environments and is perfect for hanging plants , flower baskets , lanterns , bird feeders , wind chimes , street lights , bedside pendant lamps , and more to beautify rooms and gardens .</t>
+          <t>Fitted , fully valanced one cover is 100 % waterproof , triple layer UV with added fade blockers</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>[('50', '54', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>['wood']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>FOLDABLE : Foldable multifunctional abdominal trainer allow you do aerobic cardiovascular exercise at home or office to keep fitness and gain stamina anytime , avoid space occupation . Easy to Assemble in minutes .</t>
+          <t>【 For Health 】 The monitor shelf conforms to the ergonomic structure , which effectively reduces the pressure on the back and neck , so that you don ' t need to worry too much about health problems when you were working . At the same time , a headset hook is provided on the side , so that the headset is at your hand , and you don ' t need to worry about finding headphones for playing games . Our charging station includes 4 - Outlet &amp; 2 USB Ports to provide power for up to 6 devices simultaneously .</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -5111,7 +5111,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Covers a 106 " square section of your yard</t>
+          <t>【 Easy to install 】 The hooks are fairly easy to install ! Just screw into wood surface with a wrench or hammer , or even by hand . If you want to use it on drywall , please drill a pilot hole , put the anchors in and then screw it . So simple &amp; easy !</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -5128,7 +5128,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Patio chairs are great for adding more leisure time to you and your family . Will be stress free and enjoyable . Imagine how comfortable it will be for you and your lover or friends to sit on these chairs , perfect for gardens , parks , patios , poolsides , patios , decks and more .</t>
+          <t>Cozy and super compact : Our calming dog bed smart size , perimeter fence with convenient entrance and removable soft quilted cushion provide perfect conditions for sleeping .</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -5145,194 +5145,194 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>【 3 Open Shelves 】 This cute end table features 3 shelf design , which provides enough space for you to organize your stuff and gives you a neat space ; You can keep your books , eyeglasses , chargers , personal items and daily necessities on the shelf . Also , you can put a lamp , framed photo or a vase of your favorite flowers on the top of the side table .</t>
+          <t>✅ Better ventilation than in 1 - layer design , galvanized steel roof is strong enough to withstand heavy snow</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('48', '64', 'MAT')]</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['galvanized steel']</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>【 COMPREHENSIVE USAGE 】 PANDAHOME offers quality composite products to enhance your living experience . Genuine wood - plastic composite finish , greater for indoor &amp; outdoor application than natural wood . It is easier to refresh your patio , covered patio , deck , fire pit , outdoor kitchen , poolside , lanai , gazebo , etc . Slip resistant design . Matching End Trim &amp; Corner Trim , Please search B08G2C11D8 .</t>
+          <t>LIFETIME WARRANTY our No compromise warranty covers many major components of the grill . We also offer replacement parts and components for all models . Our customer service team is always willing to help trouble shoot any issues and determine the necessary remedy .</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>[('112', '126', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>['wood - plastic']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Package Including - You will get 12 pieces 11 . 8x11 . 8 inch rubber drainage mats , 0 . 4 " in thickness , 1 pounds in weight ; Modular interlocking drainage tiles can be cut or trimmed on site for custom shaped areas</t>
+          <t>Rely On Modern Threads For Your Luxurious Bedding &amp; D é cor : At Modern Threads , we employ fine , luxury materials and stylish , contemporary colors to craft your bedding , d é cor , and pet supplies . Make us your go - to for contemporary &amp; comfortable home needs , and turn your space into the luxurious haven you ' ve always dreamt of . That ' s the quality we ' re committed to providing because you deserve nothing short of the best</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>[('62', '68', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>['rubber']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>1 : Hip flexor release tool has been proved great effect to pelvic correction and pain relief for hip , back , waist , shoulder and neck . The pressure point massage tool targets deep tissue , specific and difficult to access muscles . Effectively trigger massage points , release muscle spasms caused by muscle pain , fatigue and overuse , and effect to pelvic pain , spinal misalignment , hunphacked , etc .</t>
+          <t>OUTDOOR PROTECTION : The STARPLAST SMALL DOG KENNEL MODEL 10 - 701 will keep your small to large pet dry and protected outdoors ; this plastic doghouse with an ample opening measures 27 . 9 by 27 . 9 by 26 . 8 inches ; with only 6 pieces to assemble in less than 5 minutes , the durable , hassle - free home arrives in a box with printed instructions , ready to use or give</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('135', '142', 'MAT')]</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['plastic']</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>EASY INSTALLATION : Step1 : Remove the plants . Step2 : Level and compact the base . Step3 : Lay out the grass . Step4 : Trim any excess . Step5 : Spread infill if you want . Step6 : Secue it with landscape staples .</t>
+          <t>Product 2 : Crafted from Durable MDF and Solid Metal .</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('33', '36', 'MAT'), ('47', '52', 'MAT')]</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['MDF', 'Metal']</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Actual inner size ： 3 . 6 × 3 . 6inch （ 91 . 6mm ） , This size applies to nominal standard 4 " x 4 " wooden post . never rust</t>
+          <t>Size : about 46 * 32cm / 18 . 1 * 12 . 6 "</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>[('101', '107', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>['wooden']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Package Includes : 2 * black ceiling hooks and comes with mounting screws .</t>
+          <t>Simple Installation and Adjustment : Easily install umbrella or other posts to deck railings or fences on the vertical balusters , with correct standoff ; Band Clamps supplied fit posts between 3 / 4 " to 1 - 3 / 4 " diameter , elliptical , square or other shapes also , due to inbuilt super - grip teeth geometry .</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>[('23', '28', 'COLOR')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>['black']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>🌼 Modern Decorative Plant brackets : The plant hanger hook adopts a simple modern design , classic black metal color , simple lines , and can match plant pots of different colors and materials . Metal Hanging Hook have elegant geometric shapes and aesthetic design , which help to create stunning display effects , blending vitality with modern style perfectly .</t>
+          <t>SOFT AND COMFORTABLE : Our perforated pillows are made of 100 % cotton breathable fabric and down and polyester mixed filling , down filling is better than regular cotton , reusable , you can machine wash and dry normally .</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>[('99', '104', 'COLOR'), ('105', '110', 'MAT'), ('195', '200', 'MAT')]</t>
+          <t>[('93', '97', 'MAT'), ('102', '111', 'MAT'), ('82', '88', 'MAT'), ('128', '132', 'MAT'), ('64', '70', 'MAT')]</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>['black', 'metal', 'Metal']</t>
+          <t>['down', 'polyester', 'fabric', 'down', 'cotton']</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>1 : MULTIFUNCTIONA HOOKS : These aluminum metal s hooks provide a practical organizational solution for your kitchen just by hanging your pots , pans , spatulas , cups and other kitchen utensils on your pot rack , wall rails or shelves , make your cooking more efficient and easy . And tidy up your closet by hanging clothes , jeans , scarves , hats , belts , jewelry and more . hang toiletries , towels and robes in the bathroom . Also organize tools in the garage , and hang plants outdoors in your garden .</t>
+          <t>Easy to Assemble &amp; Clean : With pre - drilled holes , easy - to - follow instruction and all necessary parts provided , the pet house can be easily assembled . In addition , the hinged roof allows for easy access to the interior of the house and the bottom floor can be removed for daily cleaning .</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>[('33', '47', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>['aluminum metal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>★ WEATHER PROOF AND DURABLE : Made from natural Acacia wood and already pre oiled your interlocking tiles can withstand wind rain or shine and will look as if new ! We recommend giving them a good clean and using some wood oil before summer and winter to help keep their great finish and durability . They should not be used during the snowy season . You can collect them easily , clean and using some wood oil and continue using them when the snow melts .</t>
+          <t>100 % SATISFACTION GUARANTEED - Have peace of mind knowing that we will do anything in our power to make sure our hammocks meet your expectations . Contact us anytime .</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>[('48', '59', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>['Acacia wood']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>【 100 % Refund Guarantee 】 : We are confident you ' ll love our products ! Our professional customer service will make every effort to ensure your satisfaction , and we will provide for one month .</t>
+          <t>WEATHER - RESISTANT - Weather - resistant hardwood planks are joined with wire and rubber spacers ; great for damp or muddy ground , in your garden , near water spigots</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('42', '50', 'MAT'), ('83', '89', 'MAT')]</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hardwood', 'rubber']</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Assembly Required : Install by screwing the pointed feet into the fence . And use the combination of interlocking and cable ties ( included ) to connect . With the connectors , you can connect the edges to make the shapes you want . Follow the instructions ( included ) step by step , saves time !</t>
+          <t>Fillable Base : the base of this boxing bag accepts either water or sand , keeping the bag in place . When empty , the boxing punching bag is easy move with a side handle for easy carrying .</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -5349,92 +5349,92 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>DURABLE COMPOSITE MATERIAL – Made of a sturdy wood and plastic composite , these patio tiles don ’ t require staining or sanding , ensuring this non - slip outdoor patio flooring will last season after season .</t>
+          <t>Wide range of application : these miniature mushrooms can not only decorate garden , but also can be nice decorations , such as furniture decoration , desk decoration , please note that these crafts are not suitable for children under 3 years old , please use them under the guidance of adults</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>[('46', '50', 'MAT'), ('55', '62', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>['wood', 'plastic']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>NEUTRAL COLORS &amp; BREATHABLE FABRIC - Versatile mesh available in neutral earth tone colors that blend well with natural outdoor landscaping and most apartment / condo paint themes . Can handle rain or snow and be left up year - round . Allows air and water to slowly pass through .</t>
+          <t>DURABLE MATERIAL FOR LONG TIME USE : Made from PE , PVC Leather and Iron , this punching set is damp proofing , anti - collision and rust - resistant . Once it get dirty , a piece of wet rag is available to keep it clean . Also , our boxing set features a strong and durable spring at the base of shaft , which allows it to bounce back into position after every hit .</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>[('28', '34', 'MAT')]</t>
+          <t>[('47', '49', 'MAT'), ('52', '63', 'MAT'), ('68', '72', 'MAT')]</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>['FABRIC']</t>
+          <t>['PE', 'PVC Leather', 'Iron']</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Proper size : massage board of wooden massage tool is 13 . 3 x 3 . 5 x 1 . 8 inches , small ball is 1 . 6 inches in diameter , large ball is 2 . 4 inches in diameter , which can be applied for the whole body as a back massager , neck massager , shoulder massager , calf massager , and even foot massager , relaxing body and relieving pressure</t>
+          <t>Package : Include 4PCS hanging basket spinners</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>[('31', '37', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>['wooden']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SIZE – 50lb . If buying unfilled please don ’ t overfill .</t>
+          <t>【 Easy to Install and Remove 】 The plant bracket includes 2 lengthened screws , and 2 thickened expansion tubes , making plant wood hooks more firm . Each plant hook can hold up to 22lbs , and can also be used as wooden heavy coat hook , large backpack hook .</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('127', '131', 'MAT'), ('213', '219', 'MAT')]</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['wood', 'wooden']</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>30 lbs maximum weight capacity when mounted into the solid wood or wood stud , made of steel iron with a black finish</t>
+          <t>HARD - TOP : The three layer protection - allows can reduce heat and block 99 % of harmful UV rays , but also allows sunlight in . Our Hardtop gazebo is more stable in bad weather because of the hard top .</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>[('105', '110', 'COLOR'), ('87', '92', 'MAT'), ('93', '97', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>['black', 'steel', 'iron']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>DIMENSION . 12 " L x 10 " H x 1 " W</t>
+          <t>【 Perfect Decor 】 Hollowing wall hanging and simple structure design saves space , with these brackets you can hang plants , or beautiful flower pots for to add color and decoration .</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -5451,58 +5451,58 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Superior Quality : The hanging plant holder is made of durable and heavy duty metal iron material , black paint coated finish for superior rust resistance , waterproof and rustproof , adds a touch of elegance to any yard .</t>
+          <t>Mini Tool : Whole body self massage tool to relieve tight muscles . Throw it in your wallet or backpack and you ' ll always have a massage tool at hand</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>[('100', '105', 'COLOR'), ('78', '88', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>['black', 'metal iron']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Rustic willow look for a informal garden setting .</t>
+          <t>【 Durable Plastic Interlocking Deck Tiles 】 The composite decking tiles are made of quality plastic allowing it durable to fit all weather between - 22 ℉ degrees to 176 ℉ . And it has a non - slip embossed wood grain to reduce noise .</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('10', '17', 'MAT'), ('92', '99', 'MAT')]</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Plastic', 'plastic']</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>✅ Features galvanized steel rooftop instead of normal fabric or polycarbonate material .</t>
+          <t>❁ SIZE - The planter hanger size ( Approx . ) : 30x19x2cm / 11 . 8x7 . 5x0 . 8inch . ( LxWxH )</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>[('11', '27', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>['galvanized steel']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>【 For Indoor and Outdoor Applications 】 - Perfect for adding privacy to an outdoor patio area , aesthetically enhance your area with a realistic look to beautify and transform your fence , porch , privacy screen , wooden fencing , yard , garden , walls , patio , walkways , living room , trellis , study room , terrace , yard , backdrop , interior and exterior or your own creative design on party , Wedding , Christmas decorations .</t>
+          <t>Easy to Clean - Clear organizers allow you to see through items inside , which is convenient for placement and use . Easy to wipe clean with soap and sponge when not in use .</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -5519,58 +5519,58 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>[ STRICTLY SELECTED MATERIALS ] The tabletop and buttom of elevated Rattan cat condo are made of sturdy wood grain density boards , the wicker is made of non - toxic and environmentally friendly PE material , and the cushion is sewn with water washable polyester , making your cat ' s house more comfortable and easy to clean .</t>
+          <t>No assembly required , ready to use . Recommend indoor use only .</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>[('68', '74', 'MAT'), ('195', '197', 'MAT'), ('104', '108', 'MAT'), ('253', '262', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>['Rattan', 'PE', 'wood', 'polyester']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Simple design : Metal office and home hanging brackets are modern and stylish , making your courtyard unique . Add a beautiful scenery to your courtyard , your preferences are reflected in every such small detail</t>
+          <t>Great gifts : Great hostess gifts , a housewarmning gift for that new home or a wedding gift for that new couple . All of our products feature artwork from one of our artists or desingers . A great gift for your dog walker , groomer , or pet sitter . Greater Swiss Mountain Dog gifts , Greater Swiss Mountain Dog collectibles , Greater Swiss Mountain Dog Doormat , Greater Swiss Mountain Dog Christmas</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>[('16', '21', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>['Metal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>❤ 【 Buy with Confidence 】 If any parts missing or any troubles , you can feel free to EMAIL US FIRST . We ' ll try our best to assist you . and we ’ ll ship out replacements from U . S warehouse ASAP .</t>
+          <t>❣ ️ Easy to Install : This package includes 2pcs 12 inch black metal wall hooks for hanging , 6pcs screws and 6pcs wall anchors , Just screw them into wooden fence posts , deck columns , outdoor or indoor walls easily .</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('57', '62', 'COLOR'), ('63', '68', 'MAT')]</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['black', 'metal']</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>【 THICKER &amp; HEAVIER ; BEST QUALITY 】 - This large plaid rug is thicker and heavier than other commonly available Buffalo plaid rugs ; Made to the highest standards</t>
+          <t>It will form a sturdy , safe and maintenance - free perimeter barrier for your garden , home , or business property .</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -5587,75 +5587,75 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>❀ This product uses a streamlined design of polyvinyl chloride safe and non - toxic material without any outstanding safety protection . Wear - resistant , smooth seams , increased water at the bottom , easy to use , and play with inflatables . Keep it from falling down This project has a white plastic cover at the bottom , you can open it and put in air , water or sand ; it ' s okay and easy to use . Use Method : First , fill the bottom of the sandbag with rice , sand or water , then fill the top chamber with gas .</t>
+          <t>USE FOR DAYTIME RELAXATION OR SLEEP ! MOSQUITO NET PROTECTS YOU FROM UNWANTED BUGS Sleep under the stars using the mosquito net option - relax outside without company from pesky critters . Turn over when mosquito net isn ' t needed to use as a traditional " open air " hammock .</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>[('44', '62', 'MAT'), ('296', '303', 'MAT'), ('290', '295', 'COLOR')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>['polyvinyl chloride', 'plastic', 'white']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Team - colored composite handles with durable brass rivets</t>
+          <t>Dimension : 30cm width , 19 cm high , simulation dragonfly for decorating your home .</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>[('46', '51', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>['brass']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>3 - inch by 2 - inch openings</t>
+          <t>kitchen Island Cart with Varnish Coating - prevent scratches and abrasions on table tops . As well as waterproofing the wood , varnish can also prevent wooden surfaces from getting scratched . Varnish coating serves to protect cabinet from the little knocks and spills that are inevitable in a busy family home</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('25', '32', 'MAT'), ('120', '124', 'MAT'), ('127', '134', 'MAT'), ('152', '158', 'MAT'), ('193', '200', 'MAT')]</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Varnish', 'wood', 'varnish', 'wooden', 'Varnish']</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Worry - free after sales : We attach great importance to the quality of ceiling hooks and strive to provide excellent customer service . So , if you have any questions after buying metal hooks , please contact us . We are always at your service .</t>
+          <t>Patio chairs are great for adding more leisure time to you and your family . Will be stress free and enjoyable . Imagine how comfortable it will be for you and your lover or friends to sit on these chairs , perfect for gardens , parks , patios , poolsides , patios , decks and more .</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>[('181', '186', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>['metal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>All screws included along with predrilled screw holes assuring ease of assembly .</t>
+          <t>🔥 【 Stable Design 】 Three point design provides more support for your flower basket . Uniform distribution of pressure makes the flower basket or flowerpot more stable and not easy to fall off .</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5672,109 +5672,109 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Durable - This fitness mat and yoga mat are made of durable foam , which is light but strong and can withstand daily use . This heat - resistant NBR sports mat material can prevent cracking , chipping and tearing .</t>
+          <t>16 Gauge fence</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>[('60', '64', 'MAT'), ('145', '148', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>['foam', 'NBR']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>About : Wooden dog signs measure 6x8x1 . 5 inches and can stand freely on a tabletop surface , such as a shelf , desk , or counter . There is also a hanger attached for wall hanging . There are 2 dog wood sign with meaningful dog sayings : A House is Not a Home Without Paw Prints &amp; Be The Person Your Dog Thinks You Are . A decorative pawprint sign to add to your dog home decor .</t>
+          <t>[ Indoor And Outdoor Deck Flooring ] : Deck tiles create a beautiful space both inside and outside , The interlocking tiles can be installed on top of concrete , wood , carpet , pavers , or any other solid surface . Great for decks , patios , balconies , around pools , saunas , showers , sun rooms , mud rooms , bedrooms , and more .</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>[('8', '14', 'MAT'), ('200', '204', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>['Wooden', 'wood']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Roof Dimensions : 10 ’ ½ ” L x 12 ’ ½ ” W x 9 ’ 6 ” H</t>
+          <t>Multi - purpose Usage : This interlocking wood tiles can cover the surface of cement , concrete and wooden boards . It is quite great for indoor use such as bathrooms , balconies and kitchens , as well as outdoor places such as pools , decks and gardens .</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('42', '46', 'MAT')]</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['wood']</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Heavy duty and quality guarantee - decorative and functional - ideal for hanging flower baskets , plants pots , lanterns , bird feeders or wind chimes and more - easy to mount on wall - make your home more charming and impress guests .</t>
+          <t>6 - 9 / 16 inch primed jamb - 8 satin nickel hinges and 2 satin nickel ball catches ( doors not bore prepped , dummy knobs sold separately )</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('32', '44', 'MAT'), ('58', '70', 'MAT')]</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['satin nickel', 'satin nickel']</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>EASY ASSEMBLY PET CRATE : All hardware included for easy assembly ; Phillips screwdriver needed for assembly ( not included )</t>
+          <t>Quality Material : windsocks thanksgiving outdoor are made of quality polyester fabric and felt , lightweight and reliable , which can serve you for a long time , you can use them with confidence</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('70', '86', 'MAT')]</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['polyester fabric']</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>[ Quality Material ] : This white iron pergola chooses pure iron as the only material for this pergola to ensure long - term stability and durability . The surfaces of the solid iron rafters and posts are painted to prevent rusting . At the same time , the use of all pure iron results in the product being heavy and tender , which can effectively prevent it from being blown away by strong winds .</t>
+          <t>Premium PE Material : With SGS certification . Boxwood hedge wall panels are made of new PE high - density polyethylene ( HDPE ) material for long last , no smell , low - maintenance , eco - friendly , and sunproof to maximum beauty of your decoration for both indoor and outdoor .</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>[('28', '33', 'COLOR'), ('34', '38', 'MAT'), ('60', '64', 'MAT'), ('178', '182', 'MAT'), ('273', '277', 'MAT')]</t>
+          <t>[('8', '10', 'MAT'), ('47', '54', 'MAT'), ('89', '91', 'MAT'), ('107', '119', 'MAT'), ('122', '126', 'MAT')]</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>['white', 'iron', 'iron', 'iron', 'iron']</t>
+          <t>['PE', 'Boxwood', 'PE', 'polyethylene', 'HDPE']</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>【 Service 】 In order to make your life more convenient , this plant hanger bracket can help you a lot , let your plants grow better , and let your birds have a comfortable space . Our swivel plant hanger bracket is the best partner . We support 100 % refund , please rest assured . If you have any questions , please tell us immediately , dear .</t>
+          <t>Made in the USA Heavy Bag</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -5791,7 +5791,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>SOLAR POWERED : This beautiful solar light is NOT electricity needed . Powered by solar , charged in full and direct sunlight for 6 - 8 hours . There is a tab at the back of the solar panel , please remove it before charging , so that this solar LED lights will automatically turn on at night and turn off at dawn . For your convenience , each include 1000MAH NI - MH AA rechargeable battery</t>
+          <t>PORTABLE &amp; FOLDABLE : Designed with three buttons on back of dog bed and with durable handle , no need to take any bags to pack it , making it easy to roll up for travel , camping , hiking , a must have with your furry friend on the go .</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5808,24 +5808,24 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Stylish Design : The wall hooks hanging are unique cutting process with integrated molding , with the unique nostalgia of vintage iron art for compatible decorative , adding elegance and beauty to your home or garden</t>
+          <t>【 Professional Reflex Training 】 Boxing ball is the best way to train your punching skill , speed , agility , focus , accuracy . It is suitable for man or woman , teenager or child , even boxing trainer .</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>[('130', '134', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>['iron']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>【 Comforter And Friendly Design 】 : The dog bed ' s raised rim creates a sense of security and provides head and neck support , while the super - soft filling offers joint and muscle pain relief , allowing pets to enter deep sleep .</t>
+          <t>Large hooks size : Length 24 in ( 60 cm ) longer than common size , which is easier to see from inside when you hang item . Bigger head hook diameter : 5 inch ( 13 cm ) , smaller head hook diameter : 2 inch ( 5 cm )</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -5842,7 +5842,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>【 Plush Sleeping Pad 】 Removable roof and warm inner pad , convenient for installation and cleaning .</t>
+          <t>DIMENSION - Hooks basin diameter 2 . 2 inches , hook height 2 . 56 inches , hook opening diameter 0 . 9 inch .</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -5859,7 +5859,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>This bracket allows the hanger to swing 180 ° horizontally</t>
+          <t>MULTI - SPORT - Perfect heavy bag for boxing , MMA , Muay Thai , aerobic workouts or any contact sport . Designed for a full 360 degree maneuverability around the body for strikes , punches , and condition your body with a muscle building aerobic workout .</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -5876,24 +5876,24 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>【 Create Warm Bedside Lamps 】 Get rid of bulky bedside table lamps , use the rustic wood brackets to save floor space and cost , make efficient use of wall space , and create your own bedroom style . Fits almost any room style or environment .</t>
+          <t>FOR ADDED PRIVACY : The SereneLife Woven Fiber Room Divider lets you create a private section in your bedroom or living room . You can also use it to divide big rooms into smaller sections to form a dressing area , entertainment space or study area</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>[('84', '88', 'MAT')]</t>
+          <t>[('35', '46', 'MAT')]</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>['wood']</t>
+          <t>['Woven Fiber']</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Your Kid Stays Fit While Having Fun with this premium set of sport boxing set that will help them let steam off , strengthen their muscles , build confidence and boost hand - eye coordination . It is the best way to keep your little angels happily fit and active indoors or outdoors , in the garden , the playground , the porch or the privacy of their own room .</t>
+          <t>The interior is large enough for pets to play in .</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5910,75 +5910,75 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>VISIBILITY &amp; UV BLOCKAGE UP TO 90 % - Provides up to 90 % visibility and harmful UV ray blockage depending on lighting conditions . Reduces gusty winds and can help keep your dog from barking at everything that moves . A great balance between visibility , sun blockage and air flow . Economical and attractive outdoor privacy that allows air passage .</t>
+          <t>GRATE : Four baffles locked under porcelain - coated wire grates deliver even heat and smoke through cooking chamber .</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('34', '43', 'MAT')]</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['porcelain']</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>【 3 】 Large S hook . 11 inches long , the opening size at both ends is 2 inches .</t>
+          <t>Prefinished interior wood door</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('21', '25', 'MAT')]</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['wood']</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>This chain - link fence is made of high quality steel wire with PVC coating for strength and durability .</t>
+          <t>【 Size Info 】 : Size : S : 20 × 20 inches / 50 × 50cm , suitable for pets under 8 . 8lbs / 4kg . M : 28 × 28inches / 70 × 70cm , suitable for pets under 28 . 6lbs / 13kg</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>[('48', '53', 'MAT'), ('64', '67', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>['steel', 'PVC']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Made from thick , durable polyester canvas to resist rips and tears from rough handling .</t>
+          <t>Waterproof &amp; Anti - slip , the Wood Deck Tiles was finished by water - based oil .</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>[('26', '42', 'MAT')]</t>
+          <t>[('31', '35', 'MAT')]</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>['polyester canvas']</t>
+          <t>['Wood']</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Six foot long , fine quality , authentically crafted oriental decorative wall screen</t>
+          <t>Gifts for Dog Lovers | Dog Gifts : These animal lover signs will bring a smile to anyone ' s face ! A nice sentiment to be given as a gift for dog moms , fur parents , and as dog rescue gifts . Inspirational dog quotes to brighten someone ' s day . A novelty gift idea for a veterinarian ' s office to display with their other pet home decor signs .</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -5995,24 +5995,24 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Printed - With state of the art digital printing technology . Long - lasting bold colors &amp; clear image .</t>
+          <t>Say Goodbye to Anxiety ! Our dog bed is composed of powder - coated steel tube , durable textilene fabric , and non - skid rubber feet . Strong stability and high load - bearing capacity means saying goodbye to the fear of a sudden bed collapse .</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('52', '58', 'MAT'), ('68', '73', 'MAT'), ('123', '129', 'MAT'), ('89', '105', 'MAT')]</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['powder', 'steel', 'rubber', 'textilene fabric']</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ENDLESS DESIGN OPTIONS : GarageDeck ’ s interlocking tile design allows you to assemble any color combination for endless design options , making for a perfect DIY project .</t>
+          <t>❀ 【 Effective Using Area of The Large Sofa Desk 】 : Except the side rail , there is no other decoration , the useful area of each tier of the side table is W15 . 7 * D12 . 6 " / W40 * D32CM . The distance between 2 Tier is 13 . 6 " / 34 . 5CM .</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -6029,58 +6029,58 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>MADE IN AMERICA - Support American jobs , American infrastructure and American FAMILIES - While everyone else has outsourced to China , we are one of the ONLY companies that still makes our fabric in America . We ' ve been written up by Fox , Daily Herald , MarketWatch and other news outlets for leading the industry with our American made fabric</t>
+          <t>ADJUSTABLE HEIGHT FOR FAMILIES : This punching bag is great to be set in basements , garages or spare rooms and perfect for home gym . It can be adjusted between 47 ” to 60 . 5 ” to suit personal preference . This punching bag for adults is also suitable for kids above age 8 .</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>[('341', '347', 'MAT'), ('190', '196', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>['fabric', 'fabric']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>🍖 [ Movable salver ] - As a practical dog crate , the product has a movable salver , which can be taken out and put in easily . The salver can be cleaned easily as well , and the salver is soft enough to comfort your pet and offer your pet a fantastic place to relax and sleep .</t>
+          <t>SUITABLE DIMENSION : It is designed the " universal " features . Our gazebo replacement curtains fits most 4 - panel 12 ' x 12 ' gazebos . Net only ; metal frame and canopy top not Included ! It is highly recommended to confirm the dimensions prior to purchase .</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('150', '155', 'MAT')]</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['metal']</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>The design is modern and contemporary .</t>
+          <t>White Planter Chain : Fine workmanship ensures you a long service life delicate details .</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('0', '5', 'COLOR')]</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['White']</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>【 Various Usage 】 For use in hydroponics , containers , coco , hydro gardens and soil . Use with any crop , including tomatoes , lettuce , peppers and fruit &amp; flower bearing plants .</t>
+          <t>Transform Your Body By Workout : Whether you ' re a beginner or an experienced athlete , our kettlebells are perfect for any fitness level</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -6097,7 +6097,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>GREAT COOKING UTENSILS - Designed for turning , flipping , grabbing or moving food without marking or losing flavorful juices , 2 - pack set combination allows you to use one for raw food while another for cooked food , Cooking spatulas , tongs , or forks are won ’ t need anymore</t>
+          <t>✨ Size : 10 . 6L " * 8 . 3 " W , 3 . 45lb .</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -6114,41 +6114,41 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>[ Mediterranean Style ] : This tin pergola has a large square shelving area of 95 sq . Let vines and roses grow on this iron pergola and turn your patio into a natural oasis . Sculpted rafters and latticework criss - cross not only allow sunlight and rain to help plants grow , but also add to the aesthetics of the product and courtyard .</t>
+          <t>🌟 SIMPLE INSTALLATION : No tools required . Just tap the hooks directly into the wood with a hammer or screw them into the wood with a wrench . They work well on gazebos , pergolas , fences , decks , porches and more .</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>[('31', '34', 'MAT'), ('120', '124', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>['tin', 'iron']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>🐶 【 Ultra - Soft Dog beds for Large Dogs 】 The soft dog bed for crate is made of fluffy fluff with a swirl design , which can provide good support while relieving dog joint and muscle pain . The large dog bed has a full padding and the fluffy dog crate pad crate bed is very cozy and warm to create a healthy sleeping environment for pet dogs / cats to curl up and help them calm down .</t>
+          <t>10 Pack . Each package contains 10 sheets of chipboard for all your craft projects , and additional protection for stacking , shipping and storage</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>[('88', '93', 'MAT')]</t>
+          <t>[('45', '54', 'MAT')]</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>['fluff']</t>
+          <t>['chipboard']</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Custom size available : Any custom size is available as long as the height is within 24 foot and length within 500 foot . There are standard size from the SIZE box for customers to choose , if you need a custom size ( like 3 foot 3 inch by 6 foot 9 inch ) , feel free to contact us any time by sending us an email , we will make it for you .</t>
+          <t>✅ 【 DRAWER NIGHTSTAND 】 - Style meets function with our lightweight accent table , complete with tabletop , middle shelf , and pull - out drawer for additional storage .</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -6165,41 +6165,41 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Healthy stainless steel material , more safe and reliable for home use .</t>
+          <t>【 Easy to Assemble 】 - Comes with illustrated assembly instructions and backed by an experienced customer service team ready to answer any questions that may arise .</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>[('8', '23', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>['stainless steel']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>✅ MEASUREMENTS : 6 pack of 24 " length x 12 " width x 0 . 9 " height . Tiles are made with premium Acacia wood and interlocking parts are made of durable plastic .</t>
+          <t>EASY INSTALLATION : Step1 : Remove the plants . Step2 : Level and compact the base . Step3 : Lay out the grass . Step4 : Trim any excess . Step5 : Spread infill if you want . Step6 : Secue it with landscape staples .</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>[('99', '110', 'MAT'), ('154', '161', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>['Acacia wood', 'plastic']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>SIZE AND QUANTITY - Each nail is approximately 6 inches in length and 0 . 2 inches in diameter . It can deeper into the ground to hold all items in place effortlessly . There are a total of 120 garden nails in the package , which can meet most of your securing needs .</t>
+          <t>Size - 24 " wide x 39 " long x 5 " high . Durable pet bed . Great for medium &amp; large dogs up to 150 lbs .</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -6216,41 +6216,41 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Unfilled can be filled 70lbs to 100lbs : Jayefo MMA punching bag comes unfilled to make it more affordable boxing training bag also to save you a ton of money in shipping and getting it delivered the fastest .</t>
+          <t>[ Quality Material ] : This white iron pergola chooses pure iron as the only material for this pergola to ensure long - term stability and durability . The surfaces of the solid iron rafters and posts are painted to prevent rusting . At the same time , the use of all pure iron results in the product being heavy and tender , which can effectively prevent it from being blown away by strong winds .</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('28', '33', 'COLOR'), ('34', '38', 'MAT'), ('60', '64', 'MAT'), ('178', '182', 'MAT'), ('273', '277', 'MAT')]</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['white', 'iron', 'iron', 'iron', 'iron']</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>🌺 PREMIUM QUALITY - Measures 16 " x16 " x 5 " , it is filled by 100 % top - grade buckwheat hull offer the firmness need in a stability meditation and years of usage .</t>
+          <t>Use for indoor or outside places like living room , window , kitchen , patio , porch , garden , gazebo , backyard wooden deck fence</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>[('82', '96', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>['buckwheat hull']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Pet - Friendly Design : With zipper on the tail and one side of the bag , it ' s very easy to use for your lovely pet , and its drawstring design on the head to keep dog protected</t>
+          <t>All screws included along with predrilled screw holes assuring ease of assembly .</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -6267,24 +6267,24 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Simple shape and high - strength welding process to make the load - bearing up to 3KG , which is very perfect for outdoor installation , such as balcony , garden fence , etc . The maximum weight is 33 pounds or 15 kilograms .</t>
+          <t>The plain bearing hinges size is 3 . 5 inch x 3 . 5 inch Door Hinges , hinges for doors interior black . These hinges could be mounted on shed windows , shed hardware , shutters , skylights , vents , flower boxes , etc . for all kinds of outdoor buildings such as dog house , cowshed , byre , cattle / vegetables sheds , castle , playhouses , animal shelters and more .</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('97', '102', 'COLOR')]</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['black']</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>[ Easy Installation ] Attach to ceiling , walls , decks , fences post , bricks , metal hardy board and more</t>
+          <t>EVERYTHING YOU NEED TO MASTER THE GRIDDLE - The 37Pcs teppanyaki griddle tools set includes long griddle spatulas , burger flipper , slant edge scraper , fish turner , basting cover , grill press , chopper , cleaning pad , utility knife , serving tongs , egg rings , apron , salt shakers , corn holders , squeeze bottles , S hooks and storage bag .</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -6301,58 +6301,58 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>COMFY : Plush fiber filing delivers comfort and support for large , medium and small dogs . Filling is designed to relieve any aches and pains that may arise when traveling and camping with your dog .</t>
+          <t>🎁 【 BOXING HOME HELPER 】 REMARK : Squeeze the plug when blow or deflate aire ! When kids get fidgety throughout the day from too much sitting , they will often get up and have a little kickboxing session . The convenient punching bag will help your child develop a habit of loving sports . Home exercise leisure punching bag .</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>[('14', '19', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>['fiber']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Color : Red , Length : 1 . 5 ft per piece , Total length : approx . 16 . 4 ft , Height : 0 . 6 ft ( without spike ) ; 1 ft ( including spike ) , Pieces interconnectable , With a brick design , Delivery includes 11 pieces , Fabric : Polypropylene : 100 % .</t>
+          <t>GOOD QUALITY - Expensive and complex manufacture process</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>[('8', '11', 'COLOR'), ('232', '245', 'MAT'), ('223', '229', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>['Red', 'Polypropylene', 'Fabric']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>[ Hydroponic Nutrients ] The FAFAGRASS ’ s fertilizer solution is ideal for hydroponic plants as it supports the development of robust and healthy root systems .</t>
+          <t>💯 【 100 % CUSTOMER SATISFACTION 】 : Thanks for your support and trust in our white night stands , pls following clear instructions to assemble . We support 30 - days full money refund and 1 - year warranty . If you have any questions , pls feel free to contact us . Our customer support team will address your concerns within 24 hours .</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('77', '82', 'COLOR')]</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['white']</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Easy to Assemble and Clean : Our package comes with a detailed installation manual to guide your DIY , giving you a trouble - free assembly experience ! Just wipe with a damp rag is needed to remove stains on the premium material , making your dog crate a new look and longer lifespan</t>
+          <t>Individually wrapped</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -6369,7 +6369,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>★ If you encounter any problems during purchase or use , please contact us in time , we will reply you within 24 hours .</t>
+          <t>EASY ASSEMBLY PET CRATE : All hardware included for easy assembly ; Phillips screwdriver needed for assembly ( not included )</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -6386,24 +6386,24 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>The flower stand made of durable and heavy duty metal iron material , and the surface processed by retro - style distressed treatment . Exquisite and cute bird shape design to add extra chic and elegance .</t>
+          <t>☘ ️ Package includes : 12 * grass wall panels + 100 * zip ties . You can use them with your imagination to create a unique green space for yourself . If you encounter any problems in the process of using , please feel free to contact us , we will provide you with 100 % satisfactory after - sales service .</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>[('48', '58', 'MAT')]</t>
+          <t>[('123', '128', 'COLOR')]</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>['metal iron']</t>
+          <t>['green']</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Wide foot plates on every leg add stability and easy access to secure anchor points</t>
+          <t>OFFERS STORAGE SPACE : Includes two slide - out , mesh storage drawers , and a lower shelf , so you can store fabric , art supplies , and more without the clutter ; Allows you to organize supplies and keep them close while working</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -6420,24 +6420,24 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>GREAT LOOK - Pet bed is strawberry shape design , perfect for your adorable pets small dog , puppy , cat , pig , etcs .</t>
+          <t>【 12 PCS 】 - 20 " x20 " Faux Grass Wall Panel Artificial Boxwood Panels Topiary Hedge Plant , Privacy Hedge Screen , Faux Plant Ivy Fence Wall Cover , Outdoor Privacy Fence Screening Greenery Mats Decor .</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('57', '64', 'MAT')]</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Boxwood']</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>COOKING AREA : Grill up to 16 burgers , 8 chicken breasts or 6 steaks on 280 - square - inches of total cooking space . You can cook meats and larger items on the main grates and delicate foods on the warming rack .</t>
+          <t>【 Sices 】 S - 15 . 4x12 . 6x13 . 4 in ( Recommended for pets within 8 lbs ) . M - 17 . 3 inx14 . 2x15 . 4 in ( Recommended for pets within</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -6454,7 +6454,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>★ ☆ - Dimension : 15 . 7 " ( W ) x23 . 6 " ( L ) x0 . 18thick . Great choice for home decor 、 entrance way indoor 、 kitchen rugs and mats 、 decor to your front door , home , lobby , farmhouse , office , patio , garage , bathroom , business , living spaces and many more common areas .</t>
+          <t>Multipurpose : This box stand trains coordination and reflexes - Lose weight having fun - No more sweating in the gym - Get rid of stress and frustration !</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -6471,7 +6471,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>EASY TO HANGING : String curtain used any standard curtain rod to hang , If they are too long you can easily cut the drop to your required size .</t>
+          <t>【 WHAT YOU GET 】 Legoin Electric Standing Desk , welcome guide . We offer 24 hours after - sales consulting service and 2 years warranty .</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -6488,194 +6488,194 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>【 EASY TO INSTALL 】 Installation is simple and each package contains 35 ties . first let the privacy screen cover on the fencing or where you want to block , then pass the cable tie through the fencing and the aluminum hole , go around and tie it properly tension .</t>
+          <t>Npk 9 - 4 - 9</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>[('210', '218', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>['aluminum']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Dimension : approx . 10 x 8 inch / 25 x 20 cm .</t>
+          <t>Worry - free after sales : We attach great importance to the quality of ceiling hooks and strive to provide excellent customer service . So , if you have any questions after buying metal hooks , please contact us . We are always at your service .</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('181', '186', 'MAT')]</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['metal']</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>41 1 / 2 " high x 23 " wide x 13 " deep . Weighs 26 . 5 lbs .</t>
+          <t>Strong Resistance to Hitting : It has highly elastic EVA plus soft PU , which gives it good resistance to hitting . It has a steel frame that can well withstand every burst of force . It has also undergone multiple impact resistance tests , so you can use it with confidence .</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('125', '130', 'MAT'), ('53', '56', 'MAT'), ('67', '69', 'MAT')]</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['steel', 'EVA', 'PU']</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>🔹 4 . No assembly required : easy to fold and compact , just open to use it . Suitable for any terrace occasions , such as poolside , courtyard , beach or balcony .</t>
+          <t>Polyester</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('0', '9', 'MAT')]</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Polyester']</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>The flower stand made of durable and heavy duty metal iron material , and the surface processed by retro - style distressed treatment . exquisite and cute shape design to add extra chic and elegance , especially harmonious with modern style house decoration .</t>
+          <t>Protect Your Privacy : By dividing the different functional partitions , our privacy screen provides you with an area that is not disturbed by others and also avoids some unexpected embarrassing moments .</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>[('48', '58', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>['metal iron']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>🚲 【 SIMPLE &amp; PRACTICAL &amp; MODULAR DESIGN 】 The bike stand rack constructed by premium square steel tubing and round steel tubing , simple and practical , fits most standard road and mountain bikes with 22 - 28 " wheels , Max . tire width 2 . 15 " .</t>
+          <t>12 inches tall</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>[('92', '97', 'MAT'), ('115', '120', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>['steel', 'steel']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>【 Safety Buckle Design 】 : Safety buckle design will prevent hanging objects from falling , even in high wind . Compared with ordinary ceiling hooks , the q hanger hooks are weatherproof and wind - resistant , perfect for hanging outdoor patio string lights . No worry about items being knocked off , more secure .</t>
+          <t>Soft Jump Rope - Our jump rope is made of high quality polyester and covered with silicon protective case to ensure maximum service life . The rope is 9 . 84 feet long and 0 . 31 inches ( 8mm ) in diameter , 0 . 5 lbs weight .</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('55', '64', 'MAT'), ('82', '89', 'MAT')]</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['polyester', 'silicon']</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Bring The Gym Home – Elevate Your At - Home Gym With The Protocol Heavy Bag Kickboxing Set , Which Includes A Punching Bag And Durable Stand That Can Take On Your Toughest Of Punches , Kicks , And Training Sessions .</t>
+          <t>Weather - resistant Design : The slanted asphalt roof can effectively divert rainwater to prevent water ponding . The seamless slat design provides protection against bad weather and the raised floor can prevent water flowing into the house , offering a warm and comfortable shelter for your pets .</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('41', '48', 'MAT')]</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['asphalt']</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Add elegance and beauty to your home or garden . The matching black screws maintain a consistent and stylish appearance .</t>
+          <t>Panacea Hanging Plant Bracket Black 9in Hanging plant bracket , it will hold baskets , wind chimes or bird feeders</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>[('62', '67', 'COLOR')]</t>
+          <t>[('30', '35', 'COLOR')]</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>['black']</t>
+          <t>['Black']</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>【 REASONABLE SIZE 】 Each room divider measures 13x70 . 8 inches , giving you enough personal privacy without taking up too much space in your room .</t>
+          <t>Sturdy &amp; Durable : Made with natural sturdy fir wood and waterproof roof , this storage cabinet is built to withstand the elements ; Ergonomically designed for long lasting use to enjoy for many years</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('44', '52', 'MAT')]</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['fir wood']</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Sturdy : It is made of high quality plastic . It has a strong load - bearing capacity . There are experiments we did in the video</t>
+          <t>【 Esay to use 】 : You just snap these fir wood pieces together and place them wherever you want , or detach the tiles for cleaning and storing . The tiles can be cut if you need to fit them around a corner or a pole .</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>[('36', '43', 'MAT')]</t>
+          <t>[('38', '46', 'MAT')]</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>['plastic']</t>
+          <t>['fir wood']</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>No ragged edges and no crooked . The eye loop is welded well and leaving spare gap . Perfect for leveling outdoor hanging plants . The turnbuckles won ' t rust exposure a seaside environment , and there is no discoloration after lots of rain . They ' re solid and the threads are smooth . The turnbuckle is detachable , so it can be reused , and lubricant can be added as needed to increase screw lubrication .</t>
+          <t>【 Packaged in 2 Boxes &amp; Easy Set - up 】 : Note that due to different sizes , the punching bag and base are shipped separately . We send them out on the same day , but they may arrive on different days . Besides , with detailed instructions and all accessories , you can easily assemble this freestanding punching bag . If you have any questions , please feel free to contact us .</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -6692,7 +6692,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Size : Our fence hooks measures 6 inch in Length and 2 . 1 inch in width , could fit most of vinyl fence and door</t>
+          <t>Kitchen Cart with Storage : This wallet - sparing and space saving island features many of the bells and whistles that kitchen cooks want and need . The island also comes with 3 easy - glide drawers , towel holder and spice rack , concealed storage cabinet with double door design , providing ample storage for all kinds of kitchen utensils and supplies</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -6709,24 +6709,24 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Hydro strike technology increases strike Absorption and is easier on joints</t>
+          <t>Maintenance &amp; care instructions : If the wood decks are used outdoors , we recommend treating them at least twice a year with wood oil . Without care , the top layer of the wood may decompose and lead to moisture - induced cracks in the surface or deformations .</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('41', '45', 'MAT'), ('173', '177', 'MAT')]</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['wood', 'wood']</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>[ ADJUSTABLE &amp; MORE DURABLE STRAPS ] - Unlike other low quality car lumbar pillow on the market , our back cushion has two adjustable straps , so they will keep the back support pillow in place no matter how much you move around , and two strong car back pillow straps will make the backrest secured tightly on any office chair , desk chair , gaming chair , computer chair , sofa , couch , car seat , SUV , truck , wheelchair and recliner or other chairs with a back width of less than 38 inches ( 96 cm )</t>
+          <t>SERVICE YOU CAN COUNT ON – Based &amp; Operated In California , POLYTEAK ’ s Service Dept . is Ready to Assist with Any Product Questions and Offers Lifetime Product Support .</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -6743,24 +6743,24 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>OUTDOOR FURNITURE – Grand Trunk has top notch outside furniture ! We know that getting lost is the best way to find yourself , so go hit the road and relax in style . The Hangout Hammock Stand is perfect for camping in your car or on the beach , or even glamping . From now on , your view is limited only by your imagination .</t>
+          <t>Manufactured from steel</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('18', '23', 'MAT')]</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['steel']</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>【 pooboo promise 】 We promise a 1 - year warranty service and aftersale service . Reply you within 24 hours . Please don ' t worry about the problem with the product you received , we will provide service until you are satisfied .</t>
+          <t>COOKING AREA : Grill up to 16 burgers , 8 chicken breasts or 6 steaks on 280 - square - inches of total cooking space . You can cook meats and larger items on the main grates and delicate foods on the warming rack .</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -6777,24 +6777,24 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>✅ RUGGED AND DURABLE 100 % solid teak wood tiles and hence stronger . Pack of 10 tiles , each 12 x 12 inch . Base made of PPC , and not PE , so doesn ’ t break easily unlike competition .</t>
+          <t>Package includes pack of 2 plant hanging bracket with 4 mounting screws</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>[('33', '42', 'MAT'), ('122', '125', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>['teak wood', 'PPC']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>🌿 【 Package Includes 】 2 x hanging plant hooks with 4 x mounting screws . Approx . dimension : 6 . 8x5 . 1x1 . 0 Inches . Could be used for growing supports for the garden , balcony , greenhouse , or indoor plants . Organize vine branches , store wires and cables , etc . If you ' re not satisfied with our products , please contact us , we will provide you with a solution as soon as possible .</t>
+          <t>【 Application 】 Apply when : 1 . first sign of stunted growth 2 . experiencing interveinal chlorosis 3 . upward curl occurs in new leaf stemsRecommended for use when growing in unbuffered coco coir - based mediums and when using reverse osmosis ( RO ) filtered water .</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -6811,24 +6811,24 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>🌳 Easy installation : equipped with plastic pipes and screws , it is easy to install all solid surfaces , such as walls , ceilings , wooden beams , trees , fences , eaves , etc ;</t>
+          <t>The plant hook is very simple to install , and the flower basket hook is widely used . Just screw the screws into the location to be installed , such as wooden fences , trees , and even indoor and outdoor walls .</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>[('36', '43', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>['plastic']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Measuring 9 in . from the wall it is ideal to hang large planters up to 14 in . basket and provides enough room for them to grow</t>
+          <t>Custom size available : Any custom size is available as long as the height is within 24 foot and length within 500 foot . There are standard size from the SIZE box for customers to choose , if you need a custom size ( like 3 foot 3 inch by 6 foot 9 inch ) , feel free to contact us any time by sending us an email , we will make it for you .</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -6845,24 +6845,24 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Innovative fence hooks : Our patio hooks are made of high quality metal , unlike other fence hooks , our flat design is more conducive to stability and will not deform where it comes in contact with the fence due to hanging heavy objects . The flat structure can also be used as a door hook , you can use it to hang clothes , scarves , towels , etc .</t>
+          <t>【 WIDE APPLICATIONS 】 It can achieve 90 % blockage rate , The mesh outdoor screen is the best choice for block surrounding noise or street view , suitable for balcony , deck , patio , swimming pool , porches , fences , garage , backyard . Note ： keep away from open flames during installation .</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>[('66', '71', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>['metal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>🐶 【 FUNCTION AND APPLICABLE SCENARIO 】 It is applicable to those who take the dog out of the country , need the dog to stay in the car for a long time to reach the destination , and those who are physically inconvenient to go out . It can also be used to interact with dogs . The cage has wheels for easy movement , and does not need to be carried , thus saving physical strength .</t>
+          <t>41 1 / 2 " high x 23 " wide x 13 " deep . Weighs 26 . 5 lbs .</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -6879,7 +6879,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Easy to setup : no plastics or complex assembly involved , the shepherd ' s hooks garden stakes can be used year after year .</t>
+          <t>SIZE AND QUANTITY - Each nail is approximately 6 inches in length and 0 . 2 inches in diameter . It can deeper into the ground to hold all items in place effortlessly . There are a total of 120 garden nails in the package , which can meet most of your securing needs .</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -6896,41 +6896,41 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Features a protector pad moisture barrier to protect the orthopedic foam insert from liquids ; added comfort and relief on joints</t>
+          <t>👊 [ Premium Leather Long - term Onslaught of Kicks ] - Punching bag is made of multi - layer thickened PU leather striking surface construction , high - density EPE foam , eco - friendly fabric buffer . Dual TPU noise absorption + 4 springs achieve 360 ° shock absorption . Tear - resistant , rapid rebound , withstand long - term onslaught of kicks and punches .</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>[('68', '72', 'MAT')]</t>
+          <t>[('12', '19', 'MAT'), ('187', '193', 'MAT'), ('208', '211', 'MAT'), ('161', '169', 'MAT'), ('103', '113', 'MAT')]</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>['foam']</t>
+          <t>['Leather', 'fabric', 'TPU', 'EPE foam', 'PU leather']</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>10 Bike Holders : The bike storage rack has a large hold capacity with up to 9 bikes at the same time . The stand can hold bikes and avoid tilting . Save space and keep neat .</t>
+          <t>Galvanized garden fence</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('0', '10', 'MAT')]</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Galvanized']</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Measures 11 . 8 " long 8 . 2 " tall , holds up to 10kg</t>
+          <t>Just - Right Size - Each hanging plant bracket is approximate 2 . 8 " x 1 . 6 " , great for hanging the small decoration like wall planters , wind chimes , small flower baskets , string lights , plant pots and more , giving a chic element to your porch .</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -6947,41 +6947,41 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>WASHABLE : Easily wash the camping dog bed on cold and dry on low heat or spot clean while outdoors .</t>
+          <t>NEVER BECOMES HARD - We used UTTU DYNAMIC FOAM , which never gets hard in cold weather . Unlike most memory foam on the market , it remains consistent with firmness and comfort feel all year .</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('34', '46', 'MAT')]</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['DYNAMIC FOAM']</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>✅ EASY TO INSTALL : You just need to make two holes in the flat places like a wooden fence , deck , and then tighten the two screws to fix the hanger . Then you can start modern decor .</t>
+          <t>HIGH QUALITY : Pack of 2 pcs , screws includeded , single piece is 10inch in length , black , waterproof and rustproof , made of thick metal , sturdy construction , not easy to deform .</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('86', '91', 'COLOR'), ('135', '140', 'MAT')]</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['black', 'metal']</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Suitable for birthdays , anniversaries , graduations , baby showers and more</t>
+          <t>【 Easy to Install 】 Our 65 " shepherd ' s hooks included 4 parts . Each part can screw together easily within a few minutes and stays firm . With the 4 - part pole system , it is effortless to disassemble , adjust the height and convenient for storage if not used in Winter</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -6998,41 +6998,41 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ANCHOR HOOKS - - These hooks can be installed on the wall or ceiling , angle adjustable .</t>
+          <t>【 HIGH QUALITY MATERIAL 】 All of our decking tiles are made of high quality plastic which is protects the materials from fading , staining , scratching and various other issues . The tiles are exceptionally durable and won ’ t warp , crack , split or bend .</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('76', '83', 'MAT')]</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['plastic']</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Material : Iron . This graceful hanging tabletop lantern enchants your home with the magic of a desert night</t>
+          <t>PET - FRIENDLY DESIGN : A breathable nylon mesh bed sits under a removable canopy to disperse heat and block the sun ; cooling your pet and preventing odor buildup</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>[('11', '15', 'MAT')]</t>
+          <t>[('37', '42', 'MAT')]</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>['Iron']</t>
+          <t>['nylon']</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>💘 【 Portable And Easy To Set Up 】 The hammock comes with a drawstring carrying bag , Each hammock with 78in Tied Rope and 2 pcs high - quality Carabiners , it folds into a compact size when packed up , which makes it very convenient for storage or to carry . Leave it in in the backyard , set up on the patio , garden , park , porch , take it camping or use it anywhere indoor or outdoor , it ' s up to you .</t>
+          <t>[ Hydroponic Nutrients ] The FAFAGRASS ’ s fertilizer solution is ideal for hydroponic plants as it supports the development of robust and healthy root systems .</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -7049,7 +7049,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Simple to install : The side wall can be easily attached to the Event Shelter M with J - clips : Closed side panel</t>
+          <t>SIZE - - - approximate 7 . 3 " Length x 3 . 3 " Height .</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -7066,7 +7066,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>🌺 IDEAL FOR HOME - Our meditation cushion is designed to be used during mediation or yoga practices . Or used as a floor pillow or chair at home for working or learning . Perfect as a meditation seat or floor cushion for a peaceful and relaxing time .</t>
+          <t>* EASY INSTALLATION : Christmas lights hanging hooks are quick and easy to install . You can tap directly into the wood with a hammer or screw into the wood with a wrenchhanging , also can use a Phillips screwdriver to screw the nail into the wooden beam</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -7083,7 +7083,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Multiple Choices : Outdoor privacy screens are available in a variety of patterns to choose from , with different levels of privacy depending on your needs .</t>
+          <t>AVAILABLE SIZES TO ACCOMMODATE YOUR BREED , Small ( 35 ½ x 25 ½ - inch ) dog beds for small dogs up to 40 lbs . , Medium ( 40x26 ½ - inch ) dog beds for medium dogs 40 - 60 lbs . , Large ( 44x31 - inch ) and X - Large ( 50x37 - inch ) dog beds for large dogs 60 - 120 lbs .</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -7100,24 +7100,24 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Middle : 100 % organic cotton rather than traditional polyester .</t>
+          <t>YEAR ROUND PROTECTION WITH NO HASSLE - Maintenance free design means you are able to comfortably enjoy a protected outdoor space with low effort .</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>[('23', '29', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>['cotton']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Plant Hooks Outdoor Great for hanging plants , bird feeders or wind chimes</t>
+          <t>GREAT LOOK - Pet bed is strawberry shape design , perfect for your adorable pets small dog , puppy , cat , pig , etcs .</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -7134,7 +7134,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Door Dimension : 13 . 8 in . W x 19 in . H</t>
+          <t>🐕 ELEVATED DOG BED Easy Assemble &amp; Carry - no tools necessary making folding elevated dog bed great for use during travel , camping , picnicking and more . You can place a dog pad on top of the mesh like a mattress to make folding dog cot softer in your living room .</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -7151,24 +7151,24 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ã € DIY Decoration ã € ‘ : Iron flower pot holder ring is perfect for displaying flowers or plants in vertical garden space , you can easily hang indoor plants on the wall , and you can easily take out the flower pot to change the appearance or water , DIY is unique home decor</t>
+          <t>🌸 Premium Quality &amp; Rust - resistant : Our wall hook is made of heavy - duty solid steel , which is strong to hold up to 20 lbs . The surface of plant hook is covered with anti - rust paint . Whether used indoors or outdoors , the hooks can last long and give the best value for complementing home and garden .</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>[('27', '31', 'MAT')]</t>
+          <t>[('83', '88', 'MAT')]</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>['Iron']</t>
+          <t>['steel']</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Loops on the end of each section accommodate stakes ( not included )</t>
+          <t>EASY TO HANGING : String curtain used any standard curtain rod to hang , If they are too long you can easily cut the drop to your required size .</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -7185,7 +7185,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>【 WHAT YOU GET 】 Legoin Electric Standing Desk , welcome guide . We offer 24 hours after - sales consulting service and 2 years warranty .</t>
+          <t>It measures 36 " x 50 '</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -7202,92 +7202,92 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Metal art and curved design , this hanging plants stand can create classic and retro beauty for your home and garden .</t>
+          <t>Material &amp; Features of Ceiling Plant Hook : Carbon steel construction make it sturdy and durable , glossy without burr , the maximum load - bearing capacity is 40 lbs .</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>[('0', '5', 'MAT')]</t>
+          <t>[('44', '56', 'MAT')]</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>['Metal']</t>
+          <t>['Carbon steel']</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>END TABLE OR SIDE TABLE SIZE : Overall dimensions measure 25 . 2 in . H x 23 . 4 in . W x 32 . 4 in . D to fit into your living room , family room , bedroom , office , or other spaces of your home</t>
+          <t>High Quality Material Ensure Pet Safety : The pop - up dog tent cage is made of sturdy and durable oxford fabric , and the bottom is made of non - slip fabric , which is waterproof and non - slip , wear - resistant and stain - resistant</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('152', '158', 'MAT'), ('99', '112', 'MAT')]</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['fabric', 'oxford fabric']</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>【 Wide Application Scene 】 This offset patio umbrella is designed for outdoor scene like poolside , garden , lawn , deck , backyard , beach and etc . The large 10Ft polyester umbrella creates more shade and cool for outdoor resting , chatting and dining</t>
+          <t>TWO BURNERS : Two separate burners provide precise temperature control so that you can do anything from gentle roasting and smoking using indirect heat , to high heat searing</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>[('165', '174', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>['polyester']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>【 Flooring decor set 】 : This set of flooring decor may help you decorate your patio or light up your garden or backyard . This outdoor flooring set includes 27 pieces of artificial grass interlocking turf tile and 27 pieces of fir wood flooring tiles .</t>
+          <t>STYLISH : Traditional look and white finish adds elegance and beauty to your garden . Stunningly complements anything that hangs from it .</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>[('228', '236', 'MAT')]</t>
+          <t>[('31', '36', 'COLOR')]</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>['fir wood']</t>
+          <t>['white']</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>[ Multiple purpose ] : These wooden massage tools can be applied for neck , shoulders , back , waist , abdomen , arms , elbows , legs , knees , full body and other sore or aching areas . Helps to relax all part of the body from pains .</t>
+          <t>2 : Psoas muscle release tool are recommended to be used on the floor , carpet , yoga mat or bed , Lie on the massage and find the acupuncture points . Just lying on the muscles for 30 - 60 seconds , you can accurately massage and release the tight psoas muscles and enjoy a relaxed life</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>[('29', '35', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>['wooden']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Color assortments cover all popular sofa colors .</t>
+          <t>【 2 AC Outlets and 2 USB Ports 】 Rolanstar nightstand is arranged with a power outlet which has 2 AC &amp; 2 USB ports , and a 6 . 5ft long power supply cable . Convenient for charging ipads , mobiles , or other electric devices .</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -7304,7 +7304,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>🐶 【 Machine Washable &amp; Easy Care 】 : It ’ s very convenient to clean and maintain this soft round pet bed . It can be soaked , dryer , washed by hand or machine . PLEASE USE GENTLE CYCLE , TUMBLE DRY , LOW HEAT . And make sure to keep it dry and before using it .</t>
+          <t>3 : This psoas muscle release tool is equipped with 3 types of massage heads , a total of 6 massage heads has 11 holes . Specially designed for massage , back , waist , buttocks , legs and feet etc . you can adjust this psoas muscle release tool according to your needs , put different massage heads into holes , so as to adapt to the massage of many parts of the body .</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -7321,24 +7321,24 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Spacious Interior &amp; Open Entrance : This wooden dog house features roomy interior space , which can provide a comfortable resting , nesting and feeding place for your furry family members . The open door with off - center design provides excellent air circulation and convenient observation .</t>
+          <t>Rotating Swivel : Professional grade ball bearing swivel provide 360 - degree flexible rotating for the ball and help it bounce back faster , allows you boxing effectively in high speed .</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>[('41', '47', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>['wooden']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>【 Easy to Install 】 The screw can bite into wood or wall quickly and easily , so just do is screw the screw into the wooden fence post , deck post and even the interior wall .</t>
+          <t>Perfect Size : Product size : 31 . 5 " L x 18 . 9 " W x 25 . 8 " H . This indoor dog crate furniture with wide and cozy rest space is best for most dogs in small to medium sizes . Please measure the size of your lovely partner to maximize its comfortable space</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -7355,75 +7355,75 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>PROTECTION FROM ELEMENTS : Waterproof polyester cover features UPF 50 - plus protection that protects your dog from the elements</t>
+          <t>Space Saving : The design of the base is exquisite and compact , and does not take up much space .</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>[('38', '47', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>['polyester']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>[ Exquisite Craftsmanship ] : All parts of this white iron pergola are polished with exquisite craftsmanship , so that this iron pergola also presents a perfect effect in the details . There are four chic lid designs on top of each post that echo the lids on the bottom to complete the overall aesthetic . Smooth seams and hidden joints prevent accidental injuries in use .</t>
+          <t>Zipper opening for easy cleaning .</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>[('48', '53', 'COLOR'), ('54', '58', 'MAT'), ('124', '128', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>['white', 'iron', 'iron']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>【 Ajustable Backrest and Footrest 】 - The Smooth reclining mechanism of this outdoor sofa make you be able to easily adjust and fix your back and legs all together to any positions you want .</t>
+          <t>♥ Aged from the appearance of metals , easy to apply and use .</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('30', '36', 'MAT')]</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['metals']</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Easy to Use : Rotate the knob to change the groove . The upper notch is used to fix the front wheel on the shaping bracket , and the lower notch is used to fix the rear wheel .</t>
+          <t>RAISE AND DOWN : Retractable nylon rope Allowing you to raise and lower hanging plants and baskets freely , effectively keep it from pets and easy reach while in needs . Allows you to keep plants watered and fed without awkward overhead reaching or teetering on unsafe chairs or stools</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('29', '34', 'MAT')]</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['nylon']</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>★ ☆ - Function : Decor your house warm and nice one . This is a Machine Washable doormat can used as living room doormat 、 kitchen Mat 、 bath mat 、 entrance way indoor mat and balcony doormat . A good choice for Prank Gift 、 Spoof Gift and Festival Gift . This novelty door mats can be an excellent addition to any home . It ' s really a great and simple mat for your indoor and outdoor use .</t>
+          <t>Hydro strike technology increases strike Absorption and is easier on joints</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -7440,7 +7440,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>These leggings keep your pooch protected from the ruff stuff outside .</t>
+          <t>Quick &amp; Easy Installation ： Find a flat surface ( wall / wooden fence ) - - Hold the hook on the surface by hand and confirm the drilling position – Screw wall anchors into the drilling position – Mount the screws into the drilling position – Complete Installation . Triangular fixers provide additional support and strength for more robust and secure use . You will be amazed at the robustness and load capacity of this plant hooks</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -7457,7 +7457,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Total size is in 71x95 inches . Single screen divider size is in 71x16inch . Folds flat for storage and transport .</t>
+          <t>OUTDOOR FURNITURE – Grand Trunk has top notch outside furniture ! We know that getting lost is the best way to find yourself , so go hit the road and relax in style . The Hangout Hammock Stand is perfect for camping in your car or on the beach , or even glamping . From now on , your view is limited only by your imagination .</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -7474,7 +7474,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>❀ Inflatable Boxing Column Punching Bag for Adults Kids , Free Standing Tumbler Durable Martial Arts Stress Relief Unisex Sports Fitness Workout</t>
+          <t>What You Get : A dog crate furniture for trained medium dogs , hardware , and clear instruction for an easy assembly process . If you have any questions or concerns , please contact us through Amazon message and we will reply within 12 hrs .</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -7491,24 +7491,24 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>The plain bearing hinges size is 3 . 5 inch x 3 . 5 inch Door Hinges , hinges for doors interior black . These hinges could be mounted on shed windows , shed hardware , shutters , skylights , vents , flower boxes , etc . for all kinds of outdoor buildings such as dog house , cowshed , byre , cattle / vegetables sheds , castle , playhouses , animal shelters and more .</t>
+          <t>🦔 🦔 【 SUITABLE FOR 】 ❤ ❤ 2 size availabe , S - - - inner diameter : 3inch ; outer diameter : 6inch . L - - - inner diameter : 6inch ; outer diameter : 9inch . It ' s suitable for hamster , hedgehog , squirrel and other small animals in similar shape , and provides warm and comfort to them . Please check the size before you buy it !</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>[('97', '102', 'COLOR')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>['black']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Keep Your Home Tidy : Kamiler storage drawers help you sort items by type , ideal for bedrooms , closets , living room , nurseries , playrooms , entryways , etc . Take up small spaces providing plenty of storage space .</t>
+          <t>Rose shape handle design : fashionable handle plated material stylish design sleek and smart convenient simple and fast .</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -7525,7 +7525,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>【 WORRY - FREE COMMITMENT &amp; FAST SERVICE 】 CXCTCT provides high quality customer service , we back this garage bike rack organizer with a 12 - month limited warranty . If you have any questions about this heavy duty cycling hanger , please feel free to contact us and we will get back to you as soon as possible , within 24 hours at the latest .</t>
+          <t>Decorate Your Garden with This Elegant Hook , Perfect for Hanging Out Around Your Yard . The Curved Hanger is Heavy Duty and can Handle Your Hanging Bird Feeders , Plants , Lanterns , and Much More .</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -7542,41 +7542,41 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>【 Premium Material 】 Each composite slat is produced from a mixture of hardwood fibres and recycled plastic . The tiles are exceptionally durable and won ’ t warp , crack , split or bend . You won ’ t have to worry about drainage issues either , as the grid attached to the bottom of the tiles allows water to drain properly .</t>
+          <t>Color assortments cover all popular sofa colors .</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>[('71', '86', 'MAT'), ('100', '107', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>['hardwood fibres', 'plastic']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>【 PERFECT MATERIAL 】 All of our products feature unique technology , protects the materials from rotting , fading , staining , scratching and various other issues associated with traditional wood decking . The tiles are exceptionally durable and won ’ t warp , crack , split or bend . You won ’ t have to worry about drainage issues either , as the grid attached to the bottom of the tiles allows water to drain properly .</t>
+          <t>EASY TO ASSEMBLE : Comes with 3 different sized caps with 3 . 5 " x3 . 5 " and 5 . 5 " x5 . 5 " inner size , suits for 4x4 and 6x6 square wooden post caps . 5 " x5 " inner size suits for the 5x5 vinyl post . When used with a 5x5 wooden post , the cap will be slightly larger , resulting in a 0 . 5 " overhang around the perimeter of the post . Please keep this in mind when selecting and installing this 5x5 post cap for a wooden post , as it may affect the overall appearance and aesthetics of your installation</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>[('191', '195', 'MAT')]</t>
+          <t>[('138', '144', 'MAT'), ('195', '200', 'MAT'), ('229', '235', 'MAT'), ('423', '429', 'MAT')]</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>['wood']</t>
+          <t>['wooden', 'vinyl', 'wooden', 'wooden']</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Product 2 : Assembled dimensions : Depth - 7 . 25 inches , Height - 54 . 13 inches , Width - 25 . 13 ; Product dimensions : Depth - 7 . 25 inches , height - 54 . 13 ; width - 25 . 13</t>
+          <t>OUTDOOR READY : Waterproof &amp; dirt resistant materials were selected with the great outdoors , cold temperatures &amp; dogs in mind</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -7593,109 +7593,109 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ABOUT RETURNS - If you ' re hesitant to place an order because of concerns about returns , there is no need at all . Our refund policy is clear and unambiguous . For any reason , if the galvanized landscape spikes is not as good as you expected , you can get a refund within 30 days .</t>
+          <t>Rustic Plant Hanging Bracket : Stylish retro &amp; artsy modern design hooks . The vintage hanger design adds a touch of rustic style to your home and garden . Add beauty to your living space . You can use it to decorate your living room , bathroom , bedroom , patio , porch , garden and other indoor outdoor place .</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>[('186', '196', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>['galvanized']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>✿ - &gt; When you are not using hanging basket hooks , only a hole the size of a pen core ( 4 . 5mm ) is left on the ceiling , which can be easily patched with paint or wall paste .</t>
+          <t>✔ STURDY &amp; DURABLE - The sturdy and durable construction made out of pine allows for your bike to hang safely on the wall . The beautiful pine also adds a natural accent to your wall instead of the standard aluminum or metal racks . Felt protects bike from scratches and velcro scrap secures bike to mount .</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('69', '73', 'MAT'), ('138', '142', 'MAT')]</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['pine', 'pine']</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>1 . Outstanding Material : The hanging chain is made of premium iron and it can hold up to 20 pounds . Even in windy weather , you don ' t have to worry about the chain bending and causing the bird feeder to fall off the branches .</t>
+          <t>Plastic finial completes the unit</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>[('64', '68', 'MAT')]</t>
+          <t>[('0', '7', 'MAT')]</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>['iron']</t>
+          <t>['Plastic']</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>OUTDOOR PROTECTION : The STARPLAST SMALL DOG KENNEL MODEL 10 - 701 will keep your small to large pet dry and protected outdoors ; this plastic doghouse with an ample opening measures 27 . 9 by 27 . 9 by 26 . 8 inches ; with only 6 pieces to assemble in less than 5 minutes , the durable , hassle - free home arrives in a box with printed instructions , ready to use or give</t>
+          <t>Easy to Install : There are two ways to hang this wooden shelf , and it can be easily installed on a wall , window , terrace or ceiling using suitable mounting nails or hooks ( included ) .</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>[('135', '142', 'MAT')]</t>
+          <t>[('50', '56', 'MAT')]</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>['plastic']</t>
+          <t>['wooden']</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>The packaging includes : you will get 1 piece of wooden muscle release tool , including 1 massage board , 4 small balls and 2 large balls ; You can change balls of different sizes to massage different parts of the body to achieve the effect of relaxing the whole body .</t>
+          <t>【 Comfortable and Durable 】 Made with premium - quality high - density foam . Our wedge foam is free from toxic substances , will not be harsh against your skin and doesn ’ t get heated , unlike other memory foam mattress . Our wedge foam not only has breathable mesh lining protection , but also protected with a highly comfortable , removable jacquard cover that can be washed and is sure to last for many years of use .</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>[('49', '55', 'MAT')]</t>
+          <t>[('71', '75', 'MAT'), ('82', '92', 'MAT'), ('228', '238', 'MAT')]</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>['wooden']</t>
+          <t>['foam', 'wedge foam', 'wedge foam']</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>PERFECT STORAGE RACK SIZE - The single monitor stand shelf is 15 . 75 inches long and the two are 31 . 5 inches long , easily accommodating 2 monitors or laptops ; Monitor holder rack stacking , increase desktop space ; Parallel dimensions can support a large TV .</t>
+          <t>LONG S HOOKS : our black s hooks are 12 inches long , they are helpful as extension hooks for hanging plant , basket , bird feeder to get them low enough to see .</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('19', '24', 'COLOR')]</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['black']</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>[ Set of two tools ] : Psoas Muscle Release Tool : The personal body massager has been proved great effect to pelvic correction and pain relief . Dice Roller : It helps to break down localised fat , as well dimples in the skin caused by cellulite .</t>
+          <t>【 Varying Resistance Levels 】 Resistance bands for legs has 5 different resistance levels , the darker the color , the heavier the weight , training bands for men , work out equipment at our home gym , can use these to stretch or warm up . Satisfy those who want to achieve muscle gain through simple fitness .</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -7712,7 +7712,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>【 More Storage Space 】 Top and bottom open shelf of this bed side table gives sufficient storage room for storing and displaying . Additional drawer offers ample space for storing private stuff . Compact design , easily move it to any place in your bedroom or living room . Overall size : 15 . 7 " W x 15 . 7 " D x 21 . 7 " H</t>
+          <t>【 EXQUISITE AND PRACTICAL 】 This wall hanging brackets with classic curls in a country and vintage look , adding elegance and beauty to your home or garden without losing practicality , great for hanging plants , bird fodder or wind chimes</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -7729,75 +7729,75 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>The oval ring creates the feeling of security pets love</t>
+          <t>Sturdy and Durable : Antirust metal frame &amp; solid MDF board on top for added sturdiness and durability , eusuring years of use .</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('30', '35', 'MAT'), ('50', '53', 'MAT')]</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['metal', 'MDF']</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>【 12 PCS 】 - 20 " x20 " Faux Grass Wall Panel Artificial Boxwood Panels Topiary Hedge Plant , Privacy Hedge Screen , Faux Plant Ivy Fence Wall Cover , Outdoor Privacy Fence Screening Greenery Mats Decor .</t>
+          <t>【 CertiPUR - US &amp; Oeko - Tex Standard 100 Certified 】 Our queen mattresses are certified by both CertiPUR - US and Oeko - Tex Standard 100 , which ensures that they are free from harmful substances . The memory foam and fabrics have been independently evaluated and found to comply with all mandatory and voluntary safety standards for mattress products . These certifications provide peace of mind to consumers who are looking for a safe and healthy mattress .</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>[('57', '64', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>['Boxwood']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>🥊 【 Heavy Bag with Full Accessories 】 Includes ： 1 x 4ft punching bag , 1 x 12oz boxing gloves , 1 pair boxing hand wraps , 1 x reflex ball set of 3 training level , 1 x jumping rope , 1 x rotation 4 - pannel , 1 x connecting carabiner , 1 x punching bag hanger . One punching bag set meet all your needs in boxing , kickboxing , karate , taekwondo , muay thai , MMA training .</t>
+          <t>🚲 【 SIMPLE &amp; PRACTICAL &amp; MODULAR DESIGN 】 The bike stand rack constructed by premium square steel tubing and round steel tubing , simple and practical , fits most standard road and mountain bikes with 22 - 28 " wheels , Max . tire width 2 . 15 " .</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('92', '97', 'MAT'), ('115', '120', 'MAT')]</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['steel', 'steel']</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>【 BEAUTIFUL AND DURABLE 】 Black paint is natural and durable , bracket for hanging plant adding elegance and beauty to your home or garden without losing practicality .</t>
+          <t>Perfect for hanging flower pots , flower baskets , bird feeders , birdhouses , pendants , suet baskets , lanterns , wind chimes , decorations , party brass lights , flags and more to decorate your outdoor or indoor space .</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>[('26', '31', 'COLOR')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>['Black']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Measures 72 " x 36 " x 1 / 4 "</t>
+          <t>Simple to install : The side wall can be easily attached to the Event Shelter M with J - clips : Closed side panel</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -7814,58 +7814,58 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>EXTRA COMFORT : Cork is naturally spongey and easy on joints , making for quieter , more comfortable rooms</t>
+          <t>🐕 PORTABLE DOG COT Raised Bed - An elevated dog cot provides better ventilation and body temperature regulation for your pet . Textilene fabric features heat - resistance , sturdy , and breathable . Sleeping with an elevated dog bed is more comfortable , cleaner , dryer and healthier compared to the ground . Stay cool in peak summer or cozy in the wintertime !</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>[('16', '20', 'MAT')]</t>
+          <t>[('127', '143', 'MAT')]</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>['Cork']</t>
+          <t>['Textilene fabric']</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>❀ High quality polyvinyl chloride</t>
+          <t>Stable &amp; Durable Construction : Made of solid fir wood and reinforced by stainless steel hardware , our dog house is sturdy and durable to provide long - lasting protection . In addition , equipped with adjustable foot pads , the dog house can keep stable even on uneven ground .</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>[('15', '33', 'MAT')]</t>
+          <t>[('73', '88', 'MAT'), ('46', '54', 'MAT')]</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>['polyvinyl chloride']</t>
+          <t>['stainless steel', 'fir wood']</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Wooden Material : The retractable wood fence is made of wood , strong and durable , the size can be adjusted at will . Can decorate your courtyard well !</t>
+          <t>★ Non - slip and water drainage : PVC platform base allows for adequate drainage and moisture</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>[('0', '6', 'MAT'), ('56', '60', 'MAT'), ('34', '38', 'MAT')]</t>
+          <t>[('34', '37', 'MAT')]</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>['Wooden', 'wood', 'wood']</t>
+          <t>['PVC']</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>❀ 【 Free Combination End Tables When Purcahse 2 Pieces 】 : When customer purcahses 2 pieces of this end tables , customer could combine them directly . Take off the Screw Feet of the Top End Desk and Insert into holes then tighten the screws , then the 2 tiers end tables become 4 tiers .</t>
+          <t>This house can be easily assembled / disassembled for easy carrying .</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -7882,7 +7882,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Easy care : Low maintenance tiles come pre oiled and can be used immediately outdoors . Minor cleaning between seasons is recommend as well as hard wax oil for added protection .</t>
+          <t>【 More Storage Space 】 Top and bottom open shelf of this bed side table gives sufficient storage room for storing and displaying . Additional drawer offers ample space for storing private stuff . Compact design , easily move it to any place in your bedroom or living room . Overall size : 15 . 7 " W x 15 . 7 " D x 21 . 7 " H</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -7899,41 +7899,41 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Large End Table : The large flat surface can accommodate a wide range of items from drinks to TV remotes to phones and wallets . Featuring coffee table and night table functionality , the dog crate table can serve as wooden furniture .</t>
+          <t>【 PREMIUM MATERIAL 】 Balcony privacy screen is made of 180 GSM HDPE ( high density polyethylene ) , which is durable and won ' t fade . It not only block sunlight and prevent harmful UV lights , but also allow breeze pass through to make a comfort and private space .</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('83', '95', 'MAT'), ('63', '67', 'MAT')]</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['polyethylene', 'HDPE']</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>This eye - catching fence will add charm to your outdoor d é cor all year long .</t>
+          <t>BLACK RUBBER CAPS ON BOTH ENDS : The stylish Black S Hooks with rubber caps in the both ends allow you to hang your basket , bird feeder , bird house , scarf , clothes , plants , hats etc without worrying scratch them .</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('0', '5', 'COLOR'), ('6', '12', 'MAT'), ('45', '50', 'COLOR'), ('64', '70', 'MAT')]</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['BLACK', 'RUBBER', 'Black', 'rubber']</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>We Do Things The Right Way : We design products like we ' re building them for ourselves , because we are ; Our teams are staffed with engineers and experts who know how to make a product exceptional</t>
+          <t>Easy to Clean - Unlike most pillows on the market , this side sleeper pillow is easy to clean . It could be washed by machine .</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -7950,41 +7950,41 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Durable &amp; Weather Resistant : Crafted with layers of polyester felt and rubber , and bound by sturdy black tape , this mat stands up to all weather conditions . Its rubber - stamped bottom prevents slipping , ensuring safety and stability .</t>
+          <t>Who love it : Birds love bowl because theres enough foods or water in the tray , and the original diners seem to enjoy them ;</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>[('72', '78', 'MAT'), ('101', '106', 'COLOR'), ('165', '171', 'MAT'), ('53', '62', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>['rubber', 'black', 'rubber', 'polyester']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>MATERIAL : Be made of crystal clear hand - blown glass . Higher light transmittance and look more beautiful</t>
+          <t>【 Good Quality 】 Cast iron uses high - density cast iron , which is strong and rust - proof . It helps food heat evenly and retains heat , and can roast meat better . The surface of our products is treated and not easy to stick .</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>[('49', '54', 'MAT')]</t>
+          <t>[('17', '26', 'MAT'), ('47', '56', 'MAT')]</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>['glass']</t>
+          <t>['Cast iron', 'cast iron']</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ADJUSTABLE HEIGHT : Featuring 8 height settings from 39 . 29 ” to 48 . 7 ” , this floor TV stand allows you to position your screen closer to eye level for better viewing . Perfect monitor floor stand solution that doesn ’ t require wall mounting or purchasing expensive furniture .</t>
+          <t>END TABLE OR SIDE TABLE SIZE : Overall dimensions measure 25 . 2 in . H x 23 . 4 in . W x 32 . 4 in . D to fit into your living room , family room , bedroom , office , or other spaces of your home</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -8001,24 +8001,24 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>INTERLOCKING MAT WOOD PUZZLE TILES — Mats interlock with simple jigsaw puzzle connection for secure , seamless look — Can be easily expanded with additional wood flooring tiles as your living or workspace grows — Install in specific areas or wall - to - wall — Combine multiple sets to cover larger areas</t>
+          <t>[ Can Be Cut Into Small Pieces ] - The wood &amp; plastic parts are attached together by twisted plastic nail buttons , making the product can be cut to fit the corner positions .</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>[('157', '161', 'MAT'), ('17', '21', 'MAT')]</t>
+          <t>[('39', '43', 'MAT'), ('46', '53', 'MAT'), ('93', '100', 'MAT')]</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>['wood', 'WOOD']</t>
+          <t>['wood', 'plastic', 'plastic']</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Applicable base material : It can be used on almost any wall you add . It is suitable for gypsum cardboard , gypsum fiberboard , flower board , fiber cement board , hard fiberboard , partition wall , hollow brick , prefabricated board and other materials</t>
+          <t>【 MAIN EFFICACY 】 : The psoas muscle complex ( hip flexor ) is considered an important part of our body . Regulates our fight or flee response , regulates our breathing , and helps pump blood and lymph through our body .</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -8035,41 +8035,41 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>[ NO NEED FOR A CRAFTMAN ] : THE PACKAGE INCLUDE BARN DOOR SLATS , SLIDING HARDWARE KIT , Handle , Floor Guide , and Installation Tools , Detailed Instruction . We also provide professional online installation guide , if you encounter any problems when you receive or use the product , please feel free to contact . ( THE DOOR IS NEED TO ASSEMBLE )</t>
+          <t>DOUBLE LAYERED SIDEWALL - Hardtop gazebo features fully enclosed double - sided zipper , double trail system and double layer sidewall . Polyester cloth and mesh grant good ventilation and an open view ; protects against rain while adding more privacy</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('137', '152', 'MAT')]</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Polyester cloth']</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Solid Wood Decking tile Size : Every piece of carbonized wood flooring approx . 11 . 8x11 . 8x1 . 2 inches / 30x30x3 . 1 cm ( LxWxH ) ; Pack of 4 block Floor Stitching together is 0 . 36 ㎡ , interlocking system . No tools required for installation .</t>
+          <t>Multi - purpose application : the landscape nail stake can be applied for various occasions , such as paver edging , landscape edging , fabric , artificial turf and more , you can create a beautifully landscaped yard easily with these spiral spikes</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>[('6', '10', 'MAT'), ('57', '61', 'MAT')]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>['Wood', 'wood']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Zipper opening for easy cleaning .</t>
+          <t>The Performance Pack contains an assortment of Flora nutrients and a pH Test Indicator</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -8086,24 +8086,24 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Save Money and Feel More at Ease ： Come with 2pcs hanging brackets in one package that more save you money ， and strong bearing , easily hanging different decorative below 30 pounds , you don ' t worry falling .</t>
+          <t>Overall Size of the Interlocking Deck Tiles : 12 " x 12 " x 0 . 74 " ( Wood Thickness : 0 . 47 " ; Plastic Thickness : 0 . 27 " )</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('71', '75', 'MAT'), ('99', '106', 'MAT')]</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Wood', 'Plastic']</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>4 . Size , 8 . 5 " Length x 9 . 5 " Height !</t>
+          <t>【 Elegant Workspace and Practical Design 】 The large work surface measuring 48 " x 24 " to holds my monitor &amp; 2 laptops easily with space to keep other things as well . The tabletop is water and wear - resistant and comes with a wire collection hole , two additional hook accessories for hanging headphones , umbrellas to keep your office area neat and tidy .</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -8112,6 +8112,74 @@
         </is>
       </c>
       <c r="C452" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Simple shape and high - strength welding process to make the load - bearing up to 3KG , which is very perfect for outdoor installation , such as balcony , garden fence , etc . The maximum weight is 33 pounds or 15 kilograms .</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>PROTECTION FROM ELEMENTS : Waterproof polyester cover features UPF 50 - plus protection that protects your dog from the elements</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>[('38', '47', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>['polyester']</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>❀ 【 Free Combination End Tables When Purcahse 2 Pieces 】 : When customer purcahses 2 pieces of this end tables , customer could combine them directly . Take off the Screw Feet of the Top End Desk and Insert into holes then tighten the screws , then the 2 tiers end tables become 4 tiers .</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Bring The Gym Home – Elevate Your At - Home Gym With The Protocol Heavy Bag Kickboxing Set , Which Includes A Punching Bag And Durable Stand That Can Take On Your Toughest Of Punches , Kicks , And Training Sessions .</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
